--- a/dokumentation/backlog/product_backlog.xlsx
+++ b/dokumentation/backlog/product_backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jou\Desktop\Ohtu\lukuvinkkikirjasto\dokumentation\backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5464C5-AAF1-4CD2-AF7D-C69DE77E916F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FDC1D4-91B9-4D5B-A636-A88F99A45696}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="5" xr2:uid="{FA14CCED-6E8A-4DE5-8793-904A69EC664A}"/>
+    <workbookView xWindow="-103" yWindow="18411" windowWidth="33120" windowHeight="9635" xr2:uid="{FA14CCED-6E8A-4DE5-8793-904A69EC664A}"/>
   </bookViews>
   <sheets>
     <sheet name="Product backlog" sheetId="1" r:id="rId1"/>
@@ -988,7 +988,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="75">
   <si>
     <t>Priority</t>
   </si>
@@ -1208,6 +1208,12 @@
   </si>
   <si>
     <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Käyttäjänä voin lisätä eri tyyppisiä lukuvinkinkkejä</t>
+  </si>
+  <si>
+    <t>In progress</t>
   </si>
 </sst>
 </file>
@@ -1286,7 +1292,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1345,6 +1351,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor rgb="FFFCE5CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1824,7 +1836,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2001,31 +2013,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2096,6 +2083,32 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2300,23 +2313,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-FI"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2330,9 +2326,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:tint val="88500"/>
-              </a:schemeClr>
+              <a:srgbClr val="5F5F5F"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2400,6 +2394,19 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-59F4-4F3B-8070-FC870C131C86}"/>
             </c:ext>
@@ -2621,23 +2628,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr lvl="0">
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-FI"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2749,23 +2739,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr lvl="0">
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-FI"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2852,473 +2825,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
-  <a:schemeClr val="dk1"/>
-  <cs:variation>
-    <a:tint val="88500"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="55000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="75000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="98500"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="80000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="102">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <a:schemeClr val="bg1"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:lineWidthScale>3</cs:lineWidthScale>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln cap="rnd">
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <a:schemeClr val="dk1">
-        <a:tint val="95000"/>
-      </a:schemeClr>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="50000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <a:schemeClr val="bg1"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln cap="rnd">
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <a:schemeClr val="dk1">
-        <a:tint val="5000"/>
-      </a:schemeClr>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -3355,10 +2861,6 @@
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3660,8 +3162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473B676C-11FA-4BDC-AFE5-A5ADDA242B11}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3674,19 +3176,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="96" t="s">
+      <c r="A1" s="132" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="135" t="s">
         <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -3698,11 +3200,11 @@
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
+      <c r="A2" s="133"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
       <c r="G2" s="5"/>
       <c r="H2" s="6" t="s">
         <v>69</v>
@@ -3754,7 +3256,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>4</v>
@@ -3765,115 +3267,127 @@
       <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>30</v>
+      <c r="A6" s="22">
+        <v>1</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="22"/>
+        <v>74</v>
+      </c>
+      <c r="D6" s="22">
+        <v>2</v>
+      </c>
       <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="22" t="s">
-        <v>44</v>
+      <c r="A7" s="22">
+        <v>1</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="22"/>
+        <v>74</v>
+      </c>
+      <c r="D7" s="22">
+        <v>2</v>
+      </c>
       <c r="E7" s="24"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="22" t="s">
-        <v>44</v>
+      <c r="A8" s="22">
+        <v>1</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="22"/>
+        <v>74</v>
+      </c>
+      <c r="D8" s="22">
+        <v>2</v>
+      </c>
       <c r="E8" s="24"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="22">
+        <v>1</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="22">
+        <v>2</v>
+      </c>
+      <c r="E9" s="24"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="22">
+        <v>2</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>33</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="24"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>34</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="22"/>
+      <c r="D10" s="22">
+        <v>2</v>
+      </c>
       <c r="E10" s="24"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="22" t="s">
+      <c r="A11" s="25">
+        <v>2</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="28"/>
+      <c r="D11" s="25">
+        <v>2</v>
+      </c>
+      <c r="E11" s="27"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>37</v>
+      <c r="B12" s="29" t="s">
+        <v>35</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="24"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="30" t="s">
         <v>44</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="22"/>
-      <c r="E13" s="24"/>
+      <c r="E13" s="28"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="22" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>41</v>
@@ -3885,8 +3399,8 @@
       <c r="A15" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>40</v>
+      <c r="B15" s="145" t="s">
+        <v>39</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>41</v>
@@ -3899,7 +3413,7 @@
         <v>44</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>41</v>
@@ -3937,14 +3451,14 @@
       <c r="A19" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="29" t="s">
-        <v>35</v>
+      <c r="B19" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3954,53 +3468,53 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:C17">
+  <conditionalFormatting sqref="C3:C17 C19">
     <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>"Not started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C17">
+  <conditionalFormatting sqref="C3:C17 C19">
     <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C17">
+  <conditionalFormatting sqref="C3:C17 C19">
     <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
+  <conditionalFormatting sqref="C18:C19">
     <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>"Not started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
+  <conditionalFormatting sqref="C18:C19">
     <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
+  <conditionalFormatting sqref="C18:C19">
     <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
+  <conditionalFormatting sqref="C12:C16">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"Not started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
+  <conditionalFormatting sqref="C12:C16">
     <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
+  <conditionalFormatting sqref="C12:C16">
     <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C3:C19" xr:uid="{572D174E-3D24-47B4-9DC7-1936D460425B}">
+    <dataValidation type="list" allowBlank="1" sqref="C17:C19 C3:C16" xr:uid="{572D174E-3D24-47B4-9DC7-1936D460425B}">
       <formula1>"Not started,In progress,Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4033,25 +3547,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A1" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="102" t="s">
+      <c r="A1" s="138" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="104" t="s">
+      <c r="E1" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="106" t="s">
+      <c r="F1" s="144" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="98" t="s">
+      <c r="G1" s="136" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="31" t="s">
@@ -4083,13 +3597,13 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="101"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
+      <c r="A2" s="139"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
       <c r="H2" s="33">
         <v>0</v>
       </c>
@@ -4567,25 +4081,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A1" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="102" t="s">
+      <c r="A1" s="138" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="104" t="s">
+      <c r="E1" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="106" t="s">
+      <c r="F1" s="144" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="98" t="s">
+      <c r="G1" s="136" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="31" t="s">
@@ -4617,13 +4131,13 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="101"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
+      <c r="A2" s="139"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
       <c r="H2" s="33">
         <v>0</v>
       </c>
@@ -4945,7 +4459,7 @@
   </sheetPr>
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
@@ -4971,17 +4485,17 @@
       <c r="C1" s="67"/>
       <c r="D1" s="67"/>
       <c r="E1" s="67"/>
-      <c r="F1" s="107" t="s">
+      <c r="F1" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="108"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="95"/>
     </row>
     <row r="2" spans="1:20" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A2" s="62"/>
@@ -4992,28 +4506,28 @@
       <c r="F2" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="116">
+      <c r="G2" s="103">
         <v>44522</v>
       </c>
-      <c r="H2" s="117">
+      <c r="H2" s="104">
         <v>44523</v>
       </c>
-      <c r="I2" s="117">
+      <c r="I2" s="104">
         <v>44524</v>
       </c>
-      <c r="J2" s="117">
+      <c r="J2" s="104">
         <v>44525</v>
       </c>
-      <c r="K2" s="117">
+      <c r="K2" s="104">
         <v>44526</v>
       </c>
-      <c r="L2" s="117">
+      <c r="L2" s="104">
         <v>44527</v>
       </c>
-      <c r="M2" s="117">
+      <c r="M2" s="104">
         <v>44528</v>
       </c>
-      <c r="N2" s="111"/>
+      <c r="N2" s="98"/>
     </row>
     <row r="3" spans="1:20" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A3" s="62"/>
@@ -5024,7 +4538,7 @@
       <c r="F3" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="118" t="s">
+      <c r="G3" s="105" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="92" t="s">
@@ -5045,7 +4559,7 @@
       <c r="M3" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="112" t="s">
+      <c r="N3" s="99" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5058,18 +4572,18 @@
       <c r="F4" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="121" t="s">
+      <c r="G4" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="114" t="s">
+      <c r="H4" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114" t="s">
+      <c r="I4" s="101"/>
+      <c r="J4" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="114"/>
-      <c r="L4" s="115"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="102"/>
       <c r="M4" s="64"/>
       <c r="N4" s="83"/>
     </row>
@@ -5289,7 +4803,7 @@
         <f t="shared" ref="G12:N12" si="1">SUM(G5:G11)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="130">
+      <c r="H12" s="117">
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
@@ -5405,66 +4919,66 @@
     </row>
     <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E16" s="69"/>
-      <c r="F16" s="109" t="s">
+      <c r="F16" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="119"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="119"/>
-      <c r="K16" s="119"/>
-      <c r="L16" s="119"/>
-      <c r="M16" s="119"/>
-      <c r="N16" s="119"/>
-      <c r="O16" s="110"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="106"/>
+      <c r="M16" s="106"/>
+      <c r="N16" s="106"/>
+      <c r="O16" s="97"/>
       <c r="P16" s="69"/>
-      <c r="Q16" s="143"/>
-      <c r="R16" s="142"/>
-      <c r="S16" s="142"/>
-      <c r="T16" s="142"/>
+      <c r="Q16" s="130"/>
+      <c r="R16" s="129"/>
+      <c r="S16" s="129"/>
+      <c r="T16" s="129"/>
     </row>
     <row r="17" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E17" s="69"/>
       <c r="F17" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="116">
+      <c r="G17" s="103">
         <v>44529</v>
       </c>
-      <c r="H17" s="117">
+      <c r="H17" s="104">
         <v>44530</v>
       </c>
-      <c r="I17" s="117">
+      <c r="I17" s="104">
         <v>44531</v>
       </c>
-      <c r="J17" s="117">
+      <c r="J17" s="104">
         <v>44532</v>
       </c>
-      <c r="K17" s="117">
+      <c r="K17" s="104">
         <v>44533</v>
       </c>
-      <c r="L17" s="117">
+      <c r="L17" s="104">
         <v>44534</v>
       </c>
-      <c r="M17" s="117">
+      <c r="M17" s="104">
         <v>44535</v>
       </c>
-      <c r="N17" s="117">
+      <c r="N17" s="104">
         <v>44535</v>
       </c>
-      <c r="O17" s="111"/>
+      <c r="O17" s="98"/>
       <c r="P17" s="69"/>
-      <c r="Q17" s="143"/>
-      <c r="R17" s="142"/>
-      <c r="S17" s="142"/>
-      <c r="T17" s="142"/>
+      <c r="Q17" s="130"/>
+      <c r="R17" s="129"/>
+      <c r="S17" s="129"/>
+      <c r="T17" s="129"/>
     </row>
     <row r="18" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E18" s="69"/>
       <c r="F18" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="118" t="s">
+      <c r="G18" s="105" t="s">
         <v>14</v>
       </c>
       <c r="H18" s="92" t="s">
@@ -5485,75 +4999,75 @@
       <c r="M18" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="N18" s="122" t="s">
+      <c r="N18" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="O18" s="112" t="s">
+      <c r="O18" s="99" t="s">
         <v>58</v>
       </c>
       <c r="P18" s="69"/>
-      <c r="Q18" s="144"/>
-      <c r="R18" s="142"/>
-      <c r="S18" s="142"/>
-      <c r="T18" s="142"/>
+      <c r="Q18" s="131"/>
+      <c r="R18" s="129"/>
+      <c r="S18" s="129"/>
+      <c r="T18" s="129"/>
     </row>
     <row r="19" spans="5:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E19" s="69"/>
       <c r="F19" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="125" t="s">
+      <c r="G19" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="126"/>
-      <c r="I19" s="126"/>
-      <c r="J19" s="126" t="s">
+      <c r="H19" s="113"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="113" t="s">
         <v>62</v>
       </c>
-      <c r="K19" s="126"/>
-      <c r="L19" s="127"/>
+      <c r="K19" s="113"/>
+      <c r="L19" s="114"/>
       <c r="M19" s="93"/>
-      <c r="N19" s="136"/>
+      <c r="N19" s="123"/>
       <c r="O19" s="83"/>
       <c r="P19" s="69"/>
-      <c r="Q19" s="144"/>
-      <c r="R19" s="142"/>
-      <c r="S19" s="142"/>
-      <c r="T19" s="142"/>
+      <c r="Q19" s="131"/>
+      <c r="R19" s="129"/>
+      <c r="S19" s="129"/>
+      <c r="T19" s="129"/>
     </row>
     <row r="20" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E20" s="69"/>
       <c r="F20" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="128">
+      <c r="G20" s="115">
         <v>1.5</v>
       </c>
-      <c r="H20" s="129"/>
-      <c r="I20" s="130">
+      <c r="H20" s="116"/>
+      <c r="I20" s="117">
         <v>5</v>
       </c>
-      <c r="J20" s="129"/>
-      <c r="K20" s="130"/>
-      <c r="L20" s="129"/>
-      <c r="M20" s="129"/>
-      <c r="N20" s="131"/>
+      <c r="J20" s="116"/>
+      <c r="K20" s="117"/>
+      <c r="L20" s="116"/>
+      <c r="M20" s="116"/>
+      <c r="N20" s="118"/>
       <c r="O20" s="74">
-        <f>SUM(G20:N20)</f>
+        <f t="shared" ref="O20:O26" si="4">SUM(G20:N20)</f>
         <v>6.5</v>
       </c>
       <c r="P20" s="69"/>
-      <c r="Q20" s="144"/>
-      <c r="R20" s="142"/>
-      <c r="S20" s="142"/>
-      <c r="T20" s="142"/>
+      <c r="Q20" s="131"/>
+      <c r="R20" s="129"/>
+      <c r="S20" s="129"/>
+      <c r="T20" s="129"/>
     </row>
     <row r="21" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E21" s="69"/>
       <c r="F21" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="132">
+      <c r="G21" s="119">
         <v>1.5</v>
       </c>
       <c r="H21" s="86"/>
@@ -5562,23 +5076,23 @@
       <c r="K21" s="87"/>
       <c r="L21" s="86"/>
       <c r="M21" s="86"/>
-      <c r="N21" s="133"/>
+      <c r="N21" s="120"/>
       <c r="O21" s="74">
-        <f>SUM(G21:N21)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="P21" s="69"/>
-      <c r="Q21" s="141"/>
-      <c r="R21" s="142"/>
-      <c r="S21" s="142"/>
-      <c r="T21" s="142"/>
+      <c r="Q21" s="128"/>
+      <c r="R21" s="129"/>
+      <c r="S21" s="129"/>
+      <c r="T21" s="129"/>
     </row>
     <row r="22" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E22" s="69"/>
       <c r="F22" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="132">
+      <c r="G22" s="119">
         <v>1.5</v>
       </c>
       <c r="H22" s="86"/>
@@ -5589,23 +5103,23 @@
       <c r="K22" s="87"/>
       <c r="L22" s="86"/>
       <c r="M22" s="86"/>
-      <c r="N22" s="133"/>
+      <c r="N22" s="120"/>
       <c r="O22" s="74">
-        <f>SUM(G22:N22)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="P22" s="69"/>
-      <c r="Q22" s="141"/>
-      <c r="R22" s="142"/>
-      <c r="S22" s="142"/>
-      <c r="T22" s="142"/>
+      <c r="Q22" s="128"/>
+      <c r="R22" s="129"/>
+      <c r="S22" s="129"/>
+      <c r="T22" s="129"/>
     </row>
     <row r="23" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E23" s="69"/>
       <c r="F23" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="132">
+      <c r="G23" s="119">
         <v>1.5</v>
       </c>
       <c r="H23" s="86"/>
@@ -5614,23 +5128,23 @@
       <c r="K23" s="87"/>
       <c r="L23" s="87"/>
       <c r="M23" s="87"/>
-      <c r="N23" s="133"/>
+      <c r="N23" s="120"/>
       <c r="O23" s="74">
-        <f>SUM(G23:N23)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="P23" s="69"/>
-      <c r="Q23" s="141"/>
-      <c r="R23" s="142"/>
-      <c r="S23" s="142"/>
-      <c r="T23" s="142"/>
+      <c r="Q23" s="128"/>
+      <c r="R23" s="129"/>
+      <c r="S23" s="129"/>
+      <c r="T23" s="129"/>
     </row>
     <row r="24" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E24" s="69"/>
       <c r="F24" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="132">
+      <c r="G24" s="119">
         <v>1.5</v>
       </c>
       <c r="H24" s="86"/>
@@ -5641,23 +5155,23 @@
       <c r="K24" s="87"/>
       <c r="L24" s="86"/>
       <c r="M24" s="86"/>
-      <c r="N24" s="133"/>
+      <c r="N24" s="120"/>
       <c r="O24" s="74">
-        <f>SUM(G24:N24)</f>
+        <f t="shared" si="4"/>
         <v>6.5</v>
       </c>
       <c r="P24" s="69"/>
-      <c r="Q24" s="141"/>
-      <c r="R24" s="142"/>
-      <c r="S24" s="142"/>
-      <c r="T24" s="142"/>
+      <c r="Q24" s="128"/>
+      <c r="R24" s="129"/>
+      <c r="S24" s="129"/>
+      <c r="T24" s="129"/>
     </row>
     <row r="25" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E25" s="69"/>
       <c r="F25" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="G25" s="132">
+      <c r="G25" s="119">
         <v>1.5</v>
       </c>
       <c r="H25" s="86"/>
@@ -5666,23 +5180,23 @@
       <c r="K25" s="87"/>
       <c r="L25" s="86"/>
       <c r="M25" s="86"/>
-      <c r="N25" s="133"/>
+      <c r="N25" s="120"/>
       <c r="O25" s="74">
-        <f>SUM(G25:N25)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="P25" s="69"/>
-      <c r="Q25" s="141"/>
-      <c r="R25" s="142"/>
-      <c r="S25" s="142"/>
-      <c r="T25" s="142"/>
+      <c r="Q25" s="128"/>
+      <c r="R25" s="129"/>
+      <c r="S25" s="129"/>
+      <c r="T25" s="129"/>
     </row>
     <row r="26" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E26" s="69"/>
       <c r="F26" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="G26" s="132">
+      <c r="G26" s="119">
         <v>1.5</v>
       </c>
       <c r="H26" s="89"/>
@@ -5691,43 +5205,43 @@
       <c r="K26" s="90"/>
       <c r="L26" s="89"/>
       <c r="M26" s="89"/>
-      <c r="N26" s="134"/>
+      <c r="N26" s="121"/>
       <c r="O26" s="91">
-        <f>SUM(G26:N26)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="P26" s="69"/>
-      <c r="Q26" s="141"/>
-      <c r="R26" s="142"/>
-      <c r="S26" s="142"/>
-      <c r="T26" s="142"/>
+      <c r="Q26" s="128"/>
+      <c r="R26" s="129"/>
+      <c r="S26" s="129"/>
+      <c r="T26" s="129"/>
     </row>
     <row r="27" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F27" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="G27" s="124">
-        <f t="shared" ref="G27:O27" si="4">SUM(G20:G26)</f>
+      <c r="G27" s="111">
+        <f t="shared" ref="G27:O27" si="5">SUM(G20:G26)</f>
         <v>10.5</v>
       </c>
       <c r="H27" s="76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I27" s="76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J27" s="76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5</v>
       </c>
       <c r="K27" s="76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L27" s="76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M27" s="76">
@@ -5735,17 +5249,17 @@
         <v>0</v>
       </c>
       <c r="N27" s="84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O27" s="85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="Q27" s="141"/>
-      <c r="R27" s="142"/>
-      <c r="S27" s="142"/>
-      <c r="T27" s="142"/>
+      <c r="Q27" s="128"/>
+      <c r="R27" s="129"/>
+      <c r="S27" s="129"/>
+      <c r="T27" s="129"/>
     </row>
     <row r="28" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F28" s="63" t="s">
@@ -5756,23 +5270,23 @@
         <v>10.5</v>
       </c>
       <c r="H28" s="76">
-        <f t="shared" ref="H28" si="5">H27+G28</f>
+        <f t="shared" ref="H28" si="6">H27+G28</f>
         <v>10.5</v>
       </c>
       <c r="I28" s="76">
-        <f t="shared" ref="I28" si="6">I27+H28</f>
+        <f t="shared" ref="I28" si="7">I27+H28</f>
         <v>20.5</v>
       </c>
       <c r="J28" s="76">
-        <f t="shared" ref="J28" si="7">J27+I28</f>
+        <f t="shared" ref="J28" si="8">J27+I28</f>
         <v>23</v>
       </c>
       <c r="K28" s="76">
-        <f t="shared" ref="K28" si="8">K27+J28</f>
+        <f t="shared" ref="K28" si="9">K27+J28</f>
         <v>23</v>
       </c>
       <c r="L28" s="76">
-        <f t="shared" ref="L28" si="9">L27+K28</f>
+        <f t="shared" ref="L28" si="10">L27+K28</f>
         <v>23</v>
       </c>
       <c r="M28" s="76">
@@ -5784,74 +5298,74 @@
         <v>23</v>
       </c>
       <c r="O28" s="82"/>
-      <c r="Q28" s="141"/>
-      <c r="R28" s="142"/>
-      <c r="S28" s="142"/>
-      <c r="T28" s="142"/>
+      <c r="Q28" s="128"/>
+      <c r="R28" s="129"/>
+      <c r="S28" s="129"/>
+      <c r="T28" s="129"/>
     </row>
     <row r="29" spans="5:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F29" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G29" s="79">
-        <f t="shared" ref="G29:N29" si="10">42-G28</f>
+        <f t="shared" ref="G29:N29" si="11">42-G28</f>
         <v>31.5</v>
       </c>
       <c r="H29" s="79">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>31.5</v>
       </c>
       <c r="I29" s="79">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>21.5</v>
       </c>
       <c r="J29" s="79">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
       <c r="K29" s="79">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
       <c r="L29" s="79">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
-      <c r="M29" s="135">
+      <c r="M29" s="122">
         <f>42-M28</f>
         <v>19</v>
       </c>
       <c r="N29" s="80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
       <c r="O29" s="81"/>
-      <c r="Q29" s="141"/>
-      <c r="R29" s="142"/>
-      <c r="S29" s="142"/>
-      <c r="T29" s="142"/>
+      <c r="Q29" s="128"/>
+      <c r="R29" s="129"/>
+      <c r="S29" s="129"/>
+      <c r="T29" s="129"/>
     </row>
     <row r="30" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="Q30" s="141"/>
-      <c r="R30" s="142"/>
-      <c r="S30" s="142"/>
-      <c r="T30" s="142"/>
+      <c r="Q30" s="128"/>
+      <c r="R30" s="129"/>
+      <c r="S30" s="129"/>
+      <c r="T30" s="129"/>
     </row>
     <row r="31" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F31" s="109" t="s">
+      <c r="F31" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="G31" s="110"/>
-      <c r="H31" s="110"/>
-      <c r="I31" s="110"/>
-      <c r="J31" s="110"/>
-      <c r="K31" s="110"/>
-      <c r="L31" s="110"/>
-      <c r="M31" s="110"/>
-      <c r="Q31" s="141"/>
-      <c r="R31" s="142"/>
-      <c r="S31" s="142"/>
-      <c r="T31" s="142"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="97"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="97"/>
+      <c r="L31" s="97"/>
+      <c r="M31" s="97"/>
+      <c r="Q31" s="128"/>
+      <c r="R31" s="129"/>
+      <c r="S31" s="129"/>
+      <c r="T31" s="129"/>
     </row>
     <row r="32" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F32" s="63" t="s">
@@ -5876,10 +5390,10 @@
         <v>44542</v>
       </c>
       <c r="M32" s="71"/>
-      <c r="Q32" s="141"/>
-      <c r="R32" s="142"/>
-      <c r="S32" s="142"/>
-      <c r="T32" s="142"/>
+      <c r="Q32" s="128"/>
+      <c r="R32" s="129"/>
+      <c r="S32" s="129"/>
+      <c r="T32" s="129"/>
     </row>
     <row r="33" spans="6:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F33" s="65" t="s">
@@ -5903,19 +5417,19 @@
       <c r="L33" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="M33" s="112" t="s">
+      <c r="M33" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="Q33" s="141"/>
-      <c r="R33" s="142"/>
-      <c r="S33" s="142"/>
-      <c r="T33" s="142"/>
+      <c r="Q33" s="128"/>
+      <c r="R33" s="129"/>
+      <c r="S33" s="129"/>
+      <c r="T33" s="129"/>
     </row>
     <row r="34" spans="6:20" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F34" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="G34" s="123" t="s">
+      <c r="G34" s="110" t="s">
         <v>61</v>
       </c>
       <c r="H34" s="92"/>
@@ -5923,43 +5437,43 @@
       <c r="J34" s="92"/>
       <c r="K34" s="93"/>
       <c r="L34" s="93"/>
-      <c r="M34" s="120"/>
-      <c r="Q34" s="144"/>
-      <c r="R34" s="142"/>
-      <c r="S34" s="142"/>
-      <c r="T34" s="142"/>
+      <c r="M34" s="107"/>
+      <c r="Q34" s="131"/>
+      <c r="R34" s="129"/>
+      <c r="S34" s="129"/>
+      <c r="T34" s="129"/>
     </row>
     <row r="35" spans="6:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F35" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="G35" s="137"/>
-      <c r="H35" s="130"/>
-      <c r="I35" s="129"/>
-      <c r="J35" s="130"/>
-      <c r="K35" s="129"/>
-      <c r="L35" s="138"/>
+      <c r="G35" s="124"/>
+      <c r="H35" s="117"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="117"/>
+      <c r="K35" s="116"/>
+      <c r="L35" s="125"/>
       <c r="M35" s="74">
-        <f>SUM(G35:L35)</f>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="141"/>
-      <c r="R35" s="142"/>
-      <c r="S35" s="142"/>
-      <c r="T35" s="142"/>
+        <f t="shared" ref="M35:M41" si="12">SUM(G35:L35)</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="128"/>
+      <c r="R35" s="129"/>
+      <c r="S35" s="129"/>
+      <c r="T35" s="129"/>
     </row>
     <row r="36" spans="6:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F36" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="G36" s="139"/>
+      <c r="G36" s="126"/>
       <c r="H36" s="86"/>
       <c r="I36" s="86"/>
       <c r="J36" s="87"/>
       <c r="K36" s="86"/>
       <c r="L36" s="74"/>
       <c r="M36" s="74">
-        <f>SUM(G36:L36)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5967,14 +5481,14 @@
       <c r="F37" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="G37" s="139"/>
+      <c r="G37" s="126"/>
       <c r="H37" s="86"/>
       <c r="I37" s="86"/>
       <c r="J37" s="87"/>
       <c r="K37" s="86"/>
       <c r="L37" s="74"/>
       <c r="M37" s="74">
-        <f>SUM(G37:L37)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5982,14 +5496,14 @@
       <c r="F38" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="139"/>
+      <c r="G38" s="126"/>
       <c r="H38" s="86"/>
       <c r="I38" s="86"/>
       <c r="J38" s="87"/>
       <c r="K38" s="87"/>
       <c r="L38" s="74"/>
       <c r="M38" s="74">
-        <f>SUM(G38:L38)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5997,14 +5511,14 @@
       <c r="F39" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="G39" s="139"/>
+      <c r="G39" s="126"/>
       <c r="H39" s="86"/>
       <c r="I39" s="86"/>
       <c r="J39" s="87"/>
       <c r="K39" s="86"/>
       <c r="L39" s="74"/>
       <c r="M39" s="74">
-        <f>SUM(G39:L39)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6012,14 +5526,14 @@
       <c r="F40" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="G40" s="139"/>
+      <c r="G40" s="126"/>
       <c r="H40" s="86"/>
       <c r="I40" s="86"/>
       <c r="J40" s="87"/>
       <c r="K40" s="86"/>
       <c r="L40" s="74"/>
       <c r="M40" s="74">
-        <f>SUM(G40:L40)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6027,14 +5541,14 @@
       <c r="F41" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="G41" s="140"/>
+      <c r="G41" s="127"/>
       <c r="H41" s="89"/>
       <c r="I41" s="89"/>
       <c r="J41" s="90"/>
       <c r="K41" s="89"/>
       <c r="L41" s="91"/>
       <c r="M41" s="91">
-        <f>SUM(G41:L41)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6043,31 +5557,31 @@
         <v>56</v>
       </c>
       <c r="G42" s="76">
-        <f t="shared" ref="G42:M42" si="11">SUM(G35:G41)</f>
+        <f t="shared" ref="G42:M42" si="13">SUM(G35:G41)</f>
         <v>0</v>
       </c>
       <c r="H42" s="76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I42" s="76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J42" s="76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K42" s="76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L42" s="84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M42" s="85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -6080,23 +5594,23 @@
         <v>0</v>
       </c>
       <c r="H43" s="76">
-        <f t="shared" ref="H43" si="12">H42+G43</f>
+        <f t="shared" ref="H43" si="14">H42+G43</f>
         <v>0</v>
       </c>
       <c r="I43" s="76">
-        <f t="shared" ref="I43" si="13">I42+H43</f>
+        <f t="shared" ref="I43" si="15">I42+H43</f>
         <v>0</v>
       </c>
       <c r="J43" s="76">
-        <f t="shared" ref="J43" si="14">J42+I43</f>
+        <f t="shared" ref="J43" si="16">J42+I43</f>
         <v>0</v>
       </c>
       <c r="K43" s="76">
-        <f t="shared" ref="K43" si="15">K42+J43</f>
+        <f t="shared" ref="K43" si="17">K42+J43</f>
         <v>0</v>
       </c>
       <c r="L43" s="78">
-        <f t="shared" ref="L43" si="16">L42+K43</f>
+        <f t="shared" ref="L43" si="18">L42+K43</f>
         <v>0</v>
       </c>
       <c r="M43" s="82"/>
@@ -6106,27 +5620,27 @@
         <v>67</v>
       </c>
       <c r="G44" s="79">
-        <f t="shared" ref="G44:L44" si="17">42-G43</f>
+        <f t="shared" ref="G44:L44" si="19">42-G43</f>
         <v>42</v>
       </c>
       <c r="H44" s="79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>42</v>
       </c>
       <c r="I44" s="79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>42</v>
       </c>
       <c r="J44" s="79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>42</v>
       </c>
       <c r="K44" s="79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>42</v>
       </c>
       <c r="L44" s="80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>42</v>
       </c>
       <c r="M44" s="81"/>

--- a/dokumentation/backlog/product_backlog.xlsx
+++ b/dokumentation/backlog/product_backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jou\Desktop\Ohtu\lukuvinkkikirjasto\dokumentation\backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FDC1D4-91B9-4D5B-A636-A88F99A45696}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE748B93-6D3A-4CCD-BAEC-61F8D7E2B135}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="18411" windowWidth="33120" windowHeight="9635" xr2:uid="{FA14CCED-6E8A-4DE5-8793-904A69EC664A}"/>
+    <workbookView xWindow="-103" yWindow="18411" windowWidth="33120" windowHeight="9635" activeTab="5" xr2:uid="{FA14CCED-6E8A-4DE5-8793-904A69EC664A}"/>
   </bookViews>
   <sheets>
     <sheet name="Product backlog" sheetId="1" r:id="rId1"/>
@@ -2083,6 +2083,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2108,7 +2109,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3162,7 +3162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473B676C-11FA-4BDC-AFE5-A5ADDA242B11}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -3176,19 +3176,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="132" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="134" t="s">
+      <c r="A1" s="133" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="134" t="s">
+      <c r="C1" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="134" t="s">
+      <c r="D1" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="135" t="s">
+      <c r="E1" s="136" t="s">
         <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -3200,11 +3200,11 @@
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="133"/>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
+      <c r="A2" s="134"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
       <c r="G2" s="5"/>
       <c r="H2" s="6" t="s">
         <v>69</v>
@@ -3399,7 +3399,7 @@
       <c r="A15" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="145" t="s">
+      <c r="B15" s="132" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="22" t="s">
@@ -3547,25 +3547,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A1" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="140" t="s">
+      <c r="A1" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="136" t="s">
+      <c r="C1" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="136" t="s">
+      <c r="D1" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="142" t="s">
+      <c r="E1" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="144" t="s">
+      <c r="F1" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="136" t="s">
+      <c r="G1" s="137" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="31" t="s">
@@ -3597,13 +3597,13 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="139"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
+      <c r="A2" s="140"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
       <c r="H2" s="33">
         <v>0</v>
       </c>
@@ -4081,25 +4081,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A1" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="140" t="s">
+      <c r="A1" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="136" t="s">
+      <c r="C1" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="136" t="s">
+      <c r="D1" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="142" t="s">
+      <c r="E1" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="144" t="s">
+      <c r="F1" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="136" t="s">
+      <c r="G1" s="137" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="31" t="s">
@@ -4131,13 +4131,13 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="139"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
+      <c r="A2" s="140"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
       <c r="H2" s="33">
         <v>0</v>
       </c>
@@ -4459,7 +4459,7 @@
   </sheetPr>
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>

--- a/dokumentation/backlog/product_backlog.xlsx
+++ b/dokumentation/backlog/product_backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jou\Desktop\Ohtu\lukuvinkkikirjasto\dokumentation\backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE748B93-6D3A-4CCD-BAEC-61F8D7E2B135}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FF9599-C4FA-41C5-A5F3-CD503A761D4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="18411" windowWidth="33120" windowHeight="9635" activeTab="5" xr2:uid="{FA14CCED-6E8A-4DE5-8793-904A69EC664A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="5" xr2:uid="{FA14CCED-6E8A-4DE5-8793-904A69EC664A}"/>
   </bookViews>
   <sheets>
     <sheet name="Product backlog" sheetId="1" r:id="rId1"/>
@@ -988,7 +988,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="76">
   <si>
     <t>Priority</t>
   </si>
@@ -1214,6 +1214,9 @@
   </si>
   <si>
     <t>In progress</t>
+  </si>
+  <si>
+    <t>25.11.2021</t>
   </si>
 </sst>
 </file>
@@ -1360,7 +1363,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1831,12 +1834,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2108,6 +2120,10 @@
     <xf numFmtId="165" fontId="3" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3163,7 +3179,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3224,7 +3240,9 @@
       <c r="D3" s="22">
         <v>1</v>
       </c>
-      <c r="E3" s="24"/>
+      <c r="E3" s="24" t="s">
+        <v>75</v>
+      </c>
       <c r="G3" s="5"/>
       <c r="H3" s="59" t="s">
         <v>70</v>
@@ -3264,7 +3282,9 @@
       <c r="D5" s="25">
         <v>1</v>
       </c>
-      <c r="E5" s="27"/>
+      <c r="E5" s="24" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="22">
@@ -3311,7 +3331,7 @@
       </c>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="22">
         <v>1</v>
       </c>
@@ -3327,19 +3347,19 @@
       <c r="E9" s="24"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="22">
+      <c r="A10" s="146">
         <v>2</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="146" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="146">
         <v>2</v>
       </c>
-      <c r="E10" s="24"/>
+      <c r="E10" s="147"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="25">
@@ -3514,11 +3534,12 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C17:C19 C3:C16" xr:uid="{572D174E-3D24-47B4-9DC7-1936D460425B}">
+    <dataValidation type="list" allowBlank="1" sqref="C3:C19" xr:uid="{572D174E-3D24-47B4-9DC7-1936D460425B}">
       <formula1>"Not started,In progress,Done"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4459,8 +4480,8 @@
   </sheetPr>
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/dokumentation/backlog/product_backlog.xlsx
+++ b/dokumentation/backlog/product_backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jou\Desktop\Ohtu\lukuvinkkikirjasto\dokumentation\backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FF9599-C4FA-41C5-A5F3-CD503A761D4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96B053A-96FF-43F7-B853-6476DA76E690}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="5" xr2:uid="{FA14CCED-6E8A-4DE5-8793-904A69EC664A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="3" xr2:uid="{FA14CCED-6E8A-4DE5-8793-904A69EC664A}"/>
   </bookViews>
   <sheets>
     <sheet name="Product backlog" sheetId="1" r:id="rId1"/>
@@ -47,6 +47,40 @@
     <author>Jou</author>
   </authors>
   <commentList>
+    <comment ref="L14" authorId="0" shapeId="0" xr:uid="{1B327506-EF76-4CB2-8FF8-2972F0F916B2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jou:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Google docks ei toiminut niin kuin piti -&gt; selvitystä</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Jou</author>
+  </authors>
+  <commentList>
     <comment ref="H5" authorId="0" shapeId="0" xr:uid="{6F2AF2E7-EE89-4EC5-86AF-A0B8F592D4ED}">
       <text>
         <r>
@@ -695,7 +729,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J21" authorId="0" shapeId="0" xr:uid="{C00B6164-F28C-4806-9CBB-09D9D28C75AC}">
+    <comment ref="J21" authorId="0" shapeId="0" xr:uid="{0D49EE97-AAF2-41EC-9323-F1857D11173F}">
       <text>
         <r>
           <rPr>
@@ -767,6 +801,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="K22" authorId="0" shapeId="0" xr:uid="{EDDFE989-F26C-4BAA-BA06-BF196EEC31A9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jou:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Dokumentaation kunnostaminen, jotta saadaan toimimaan oikein, torstain dailyn pöytäkirjan puhtaaksi kirjoittaminen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N22" authorId="0" shapeId="0" xr:uid="{88C38178-6CA4-4CA0-90E6-A71DE2A89C80}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jou:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Gitin päivitys, backlogin päivitys, dokumentaation päivitys/tarkistus, että kaikki toimii</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G23" authorId="0" shapeId="0" xr:uid="{232AAC1F-C891-42D6-9CD7-5F7449F75620}">
       <text>
         <r>
@@ -791,7 +873,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="J23" authorId="0" shapeId="0" xr:uid="{36652B78-702B-48C7-9817-92317463D060}">
+    <comment ref="I23" authorId="0" shapeId="0" xr:uid="{C1B5539E-10AE-46E5-8A30-63E9B73DC65C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jou:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Herokun pystyttäminen ja actioneiden päivitys deployta varten</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J23" authorId="0" shapeId="0" xr:uid="{8CEF5EC9-F282-4EF2-8E3F-4935C1E875E8}">
       <text>
         <r>
           <rPr>
@@ -863,7 +969,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J24" authorId="0" shapeId="0" xr:uid="{1432BA6F-5667-461A-B495-A225238DB7EF}">
+    <comment ref="J24" authorId="0" shapeId="0" xr:uid="{7E473729-CBBF-4AE0-9744-F38C9541B9AF}">
       <text>
         <r>
           <rPr>
@@ -911,7 +1017,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J25" authorId="0" shapeId="0" xr:uid="{6F3A1BCE-66FC-4467-BBB1-FC596F0FBA34}">
+    <comment ref="J25" authorId="0" shapeId="0" xr:uid="{B8BAF202-FC8B-4A97-B74A-29F807B28A2F}">
       <text>
         <r>
           <rPr>
@@ -959,7 +1065,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="J26" authorId="0" shapeId="0" xr:uid="{4C8D9343-D34B-4DC8-A7B0-98394DAED1C2}">
+    <comment ref="I26" authorId="0" shapeId="0" xr:uid="{E9E6C0D3-D1C6-47B8-8103-ED293EDC070A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Jou:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Userstory tagien teko</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J26" authorId="0" shapeId="0" xr:uid="{651C21FE-4B92-4631-9403-808595317FDB}">
       <text>
         <r>
           <rPr>
@@ -988,7 +1118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="112">
   <si>
     <t>Priority</t>
   </si>
@@ -1107,9 +1237,6 @@
     <t>Käyttäjänä voin merkata lukuvinkin luetuksi</t>
   </si>
   <si>
-    <t>Käyttäjänä voin liätä vinkkiin kommentin</t>
-  </si>
-  <si>
     <t>Käyttäjänä voin luoda käyttäjätilin</t>
   </si>
   <si>
@@ -1120,9 +1247,6 @@
   </si>
   <si>
     <t>käyttäjänä voin poistaa oman käyttäjätilini</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>Date when completed</t>
@@ -1216,18 +1340,131 @@
     <t>In progress</t>
   </si>
   <si>
-    <t>25.11.2021</t>
+    <t>Käyttäjänä voin lisätä linkkiin kommentin</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>25/11/2021</t>
+  </si>
+  <si>
+    <t>01/12/2021</t>
+  </si>
+  <si>
+    <t>Dokumentaatio</t>
+  </si>
+  <si>
+    <t>Prio 1</t>
+  </si>
+  <si>
+    <t>Prio 1/prio 2</t>
+  </si>
+  <si>
+    <t>Kaikki</t>
+  </si>
+  <si>
+    <t>Teoriaan tutustuminen</t>
+  </si>
+  <si>
+    <t>Mikä on docker</t>
+  </si>
+  <si>
+    <t>Lopullisen backlogin luonti</t>
+  </si>
+  <si>
+    <t>Lopullisen tuntikirjanpidon luonti</t>
+  </si>
+  <si>
+    <t>Lopullisten sprintlogien luonti</t>
+  </si>
+  <si>
+    <t>Burndown kaaviot</t>
+  </si>
+  <si>
+    <t>Ohjelmassa pystytään lisäämään lukuvinkki: kirja</t>
+  </si>
+  <si>
+    <t>Ohjelmassa pystytään luomaan lukuvinkin</t>
+  </si>
+  <si>
+    <t>Ohjelmassa voidaan selata lukuvinkkejä</t>
+  </si>
+  <si>
+    <t>(siirtyy sprintille kaksi)</t>
+  </si>
+  <si>
+    <t>Kehitysympäristön pystytys, jossa ohjelma toimii</t>
+  </si>
+  <si>
+    <t>Tietokannan suunnittelu</t>
+  </si>
+  <si>
+    <t>Testaus</t>
+  </si>
+  <si>
+    <t>CI-putken pystytys</t>
+  </si>
+  <si>
+    <t>Luokkakaavion luonti</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>Prio 2</t>
+  </si>
+  <si>
+    <t>prio 2</t>
+  </si>
+  <si>
+    <t>Docker -kontin luonti</t>
+  </si>
+  <si>
+    <t>Kontti</t>
+  </si>
+  <si>
+    <t>CI-putki</t>
+  </si>
+  <si>
+    <t>Alt.</t>
+  </si>
+  <si>
+    <t>Käyttäjä profiilin luonti</t>
+  </si>
+  <si>
+    <t>Käyttäjä voi kirjautua</t>
+  </si>
+  <si>
+    <t>Käyttäjä voi lisätä lukuvinkille tunnisteen</t>
+  </si>
+  <si>
+    <t>Käyttäjä pystyy lisäämään erilaisia lukuvinkkejä</t>
+  </si>
+  <si>
+    <t>Coverage kattavuus</t>
+  </si>
+  <si>
+    <t>Dokumentointi</t>
+  </si>
+  <si>
+    <t>Pöytäkirjojen päivitys</t>
+  </si>
+  <si>
+    <t>Google docksin yhteyden kunnostus</t>
+  </si>
+  <si>
+    <t>CI-putken laajentaminen Herokuun</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="d\.m\.yyyy"/>
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="[$]dd/mm/yyyy;@" x16r2:formatCode16="[$-en-FI,1]dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1294,8 +1531,27 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1356,14 +1612,8 @@
         <bgColor rgb="FFFCE5CD"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="43">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1485,17 +1735,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -1809,21 +2048,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -1848,7 +2072,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1869,39 +2093,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1917,58 +2110,53 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -1982,7 +2170,7 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1998,91 +2186,88 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2095,7 +2280,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2121,16 +2309,521 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{C63B17B3-9BF1-436B-A53B-10F6F620838A}"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="60">
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF38761D"/>
+          <bgColor rgb="FF38761D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF38761D"/>
+          <bgColor rgb="FF38761D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF38761D"/>
+          <bgColor rgb="FF38761D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF38761D"/>
+          <bgColor rgb="FF38761D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF38761D"/>
+          <bgColor rgb="FF38761D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF38761D"/>
+          <bgColor rgb="FF38761D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF38761D"/>
+          <bgColor rgb="FF38761D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF38761D"/>
+          <bgColor rgb="FF38761D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF38761D"/>
+          <bgColor rgb="FF38761D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF38761D"/>
+          <bgColor rgb="FF38761D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF38761D"/>
+          <bgColor rgb="FF38761D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF38761D"/>
+          <bgColor rgb="FF38761D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF38761D"/>
+          <bgColor rgb="FF38761D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF38761D"/>
+          <bgColor rgb="FF38761D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF38761D"/>
+          <bgColor rgb="FF38761D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
@@ -2479,25 +3172,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6.5</c:v>
+                  <c:v>7.33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5</c:v>
+                  <c:v>2.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>8.93</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5</c:v>
+                  <c:v>7.33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.5</c:v>
+                  <c:v>7.33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5</c:v>
+                  <c:v>2.33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5</c:v>
+                  <c:v>6.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2879,6 +3572,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3176,10 +3873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473B676C-11FA-4BDC-AFE5-A5ADDA242B11}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3192,19 +3889,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="133" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="135" t="s">
+      <c r="A1" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="135" t="s">
+      <c r="C1" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="135" t="s">
+      <c r="D1" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="136" t="s">
+      <c r="E1" s="118" t="s">
         <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -3216,53 +3913,55 @@
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="134"/>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
       <c r="G2" s="5"/>
       <c r="H2" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="22">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="179" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="14">
         <v>1</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="114" t="s">
         <v>75</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="59" t="s">
-        <v>70</v>
+      <c r="H3" s="41" t="s">
+        <v>68</v>
       </c>
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="22">
+      <c r="A4" s="14">
         <v>1</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="14">
         <v>1</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="114" t="s">
+        <v>75</v>
+      </c>
       <c r="G4" s="8"/>
       <c r="H4" s="9" t="s">
         <v>8</v>
@@ -3270,215 +3969,216 @@
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="25">
+      <c r="A5" s="15">
         <v>1</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="180" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="15">
+        <v>1</v>
+      </c>
+      <c r="E5" s="114" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="14">
+        <v>1</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="14">
+        <v>2</v>
+      </c>
+      <c r="E6" s="128" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="14">
+        <v>1</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="14">
+        <v>2</v>
+      </c>
+      <c r="E7" s="114" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="14">
+        <v>1</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="14">
+        <v>2</v>
+      </c>
+      <c r="E8" s="114" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="14">
+        <v>1</v>
+      </c>
+      <c r="B9" s="179" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="14">
+        <v>2</v>
+      </c>
+      <c r="E9" s="114" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="113">
+        <v>2</v>
+      </c>
+      <c r="B10" s="181" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="113">
+        <v>2</v>
+      </c>
+      <c r="E10" s="129"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="15">
+        <v>2</v>
+      </c>
+      <c r="B11" s="176" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="15">
+        <v>2</v>
+      </c>
+      <c r="E11" s="130"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="14"/>
+      <c r="B12" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="131"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="17"/>
+      <c r="B13" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="114"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="14"/>
+      <c r="B14" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="114"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="14"/>
+      <c r="B15" s="141" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="25">
-        <v>1</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="22">
-        <v>1</v>
-      </c>
-      <c r="B6" s="22" t="s">
+      <c r="C15" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="22">
-        <v>2</v>
-      </c>
-      <c r="E6" s="24"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="22">
-        <v>1</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="22">
-        <v>2</v>
-      </c>
-      <c r="E7" s="24"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="22">
-        <v>1</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="22">
-        <v>2</v>
-      </c>
-      <c r="E8" s="24"/>
-    </row>
-    <row r="9" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="22">
-        <v>1</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="22">
-        <v>2</v>
-      </c>
-      <c r="E9" s="24"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="146">
-        <v>2</v>
-      </c>
-      <c r="B10" s="146" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="146" t="s">
+      <c r="D15" s="14"/>
+      <c r="E15" s="114"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="14"/>
+      <c r="B16" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="114"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="14"/>
+      <c r="B17" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="146">
-        <v>2</v>
-      </c>
-      <c r="E10" s="147"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="25">
-        <v>2</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="25">
-        <v>2</v>
-      </c>
-      <c r="E11" s="27"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="28"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="24"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="132" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="24"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="24"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="22" t="s">
+      <c r="C17" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="114"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="14"/>
+      <c r="B18" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="24"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
+      <c r="C18" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="131"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="22" t="s">
+      <c r="A19" s="14"/>
+      <c r="B19" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="24"/>
+      <c r="C19" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="114"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E20" s="132"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E21" s="132"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E22" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3489,47 +4189,47 @@
     <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:C17 C19">
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="7" operator="equal">
       <formula>"Not started"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C17 C19">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="8" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C17 C19">
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="9" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C19">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="4" operator="equal">
       <formula>"Not started"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C19">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="5" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C19">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="6" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C16">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="1" operator="equal">
       <formula>"Not started"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C16">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C16">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="3" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3545,10 +4245,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CCD2F30-7625-433A-B0F7-3F3EB70DD0E4}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:P12"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3557,7 +4257,7 @@
     <col min="2" max="2" width="45.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.1328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.86328125" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.86328125" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.86328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.796875" bestFit="1" customWidth="1"/>
@@ -3568,343 +4268,345 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A1" s="139" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="141" t="s">
+      <c r="A1" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="137" t="s">
+      <c r="C1" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="137" t="s">
+      <c r="D1" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="143" t="s">
+      <c r="E1" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="145" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="137" t="s">
+      <c r="F1" s="127" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="140"/>
-      <c r="B2" s="142"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="33">
-        <v>0</v>
-      </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A2" s="122"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="164">
+        <v>0</v>
+      </c>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="165"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
+      <c r="A3" s="32">
         <v>1</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="33">
+        <v>44522</v>
+      </c>
+      <c r="F3" s="33">
+        <v>44522</v>
+      </c>
+      <c r="G3" s="166" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="155"/>
+      <c r="I3" s="35">
+        <f t="shared" ref="I3:O3" si="0">H3</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M3" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N3" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O3" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P3" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A4" s="14"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="25">
+        <v>44522</v>
+      </c>
+      <c r="F4" s="25">
+        <v>44522</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="39"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="167"/>
+      <c r="P4" s="24"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="157"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="158"/>
+      <c r="P5" s="29"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A6" s="32">
+        <v>1</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="33">
+        <v>44522</v>
+      </c>
+      <c r="F6" s="33">
+        <v>44522</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="34"/>
+      <c r="I6" s="35">
+        <f t="shared" ref="I6:K6" si="1">H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="35">
+        <v>0</v>
+      </c>
+      <c r="M6" s="35">
+        <v>0</v>
+      </c>
+      <c r="N6" s="35">
+        <v>0</v>
+      </c>
+      <c r="O6" s="35">
+        <f t="shared" ref="O6:P6" si="2">N6</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="30"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A8" s="32">
+        <v>1</v>
+      </c>
+      <c r="B8" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C8" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E8" s="33">
         <v>44522</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F8" s="33">
         <v>44522</v>
       </c>
-      <c r="G3" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="12">
-        <f t="shared" ref="I3:O3" si="0">H3</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K3" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L3" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M3" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N3" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O3" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P3" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A4" s="1"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="1" t="s">
+      <c r="G8" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35">
+        <f t="shared" ref="I8:P10" si="3">H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E9" s="25">
         <v>44522</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F9" s="25">
         <v>44522</v>
       </c>
-      <c r="G4" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="40"/>
-    </row>
-    <row r="5" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="16"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="38">
-        <v>44522</v>
-      </c>
-      <c r="F6" s="38">
-        <v>44522</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20">
-        <f t="shared" ref="I6:K6" si="1">H6</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="20">
-        <v>0</v>
-      </c>
-      <c r="M6" s="20">
-        <v>0</v>
-      </c>
-      <c r="N6" s="20">
-        <v>0</v>
-      </c>
-      <c r="O6" s="20">
-        <f t="shared" ref="O6:P6" si="2">N6</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="46"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="49">
-        <v>44522</v>
-      </c>
-      <c r="F8" s="49">
-        <v>44522</v>
-      </c>
-      <c r="G8" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="51">
-        <f t="shared" ref="I8:P10" si="3">H8</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="51">
+      <c r="G9" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="51">
+      <c r="J9" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L8" s="51">
+      <c r="K9" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="51">
+      <c r="L9" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N8" s="51">
+      <c r="M9" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O8" s="51">
+      <c r="N9" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P8" s="52">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B9" s="29"/>
-      <c r="C9" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="41">
-        <v>44522</v>
-      </c>
-      <c r="F9" s="41">
-        <v>44522</v>
-      </c>
-      <c r="G9" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="40">
+      <c r="O9" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3914,47 +4616,48 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B10" s="29"/>
-      <c r="C10" s="22" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="25">
         <v>44522</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="25">
         <v>44522</v>
       </c>
-      <c r="G10" s="47" t="s">
-        <v>48</v>
+      <c r="G10" s="31" t="s">
+        <v>46</v>
       </c>
       <c r="H10" s="11"/>
-      <c r="I10" s="40">
+      <c r="I10" s="24">
         <f>H10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="40">
-        <v>0</v>
-      </c>
-      <c r="K10" s="40">
+      <c r="J10" s="24">
+        <v>0</v>
+      </c>
+      <c r="K10" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L10" s="40">
+      <c r="L10" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="40">
+      <c r="M10" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N10" s="40">
+      <c r="N10" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O10" s="40">
+      <c r="O10" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3964,73 +4667,56 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="46"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A12" s="1">
+      <c r="A11" s="32">
         <v>2</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B11" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="22" t="s">
+      <c r="C11" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E11" s="33">
         <v>44522</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F11" s="33">
         <v>44522</v>
       </c>
-      <c r="G12" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="40">
-        <f t="shared" ref="I12" si="4">H12</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="40">
-        <v>0</v>
-      </c>
-      <c r="K12" s="40">
-        <f t="shared" ref="K12:P12" si="5">J12</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="40">
+      <c r="G11" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="34"/>
+      <c r="I11" s="35">
+        <f t="shared" ref="I11" si="4">H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="35">
+        <v>0</v>
+      </c>
+      <c r="K11" s="35">
+        <f t="shared" ref="K11:P11" si="5">J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M12" s="40">
+      <c r="M11" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N12" s="40">
+      <c r="N11" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O12" s="40">
+      <c r="O11" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P11" s="36">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4045,18 +4731,18 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:D12">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+  <conditionalFormatting sqref="D3:D11">
+    <cfRule type="cellIs" dxfId="50" priority="1" operator="equal">
       <formula>"Not started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D12">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+  <conditionalFormatting sqref="D3:D11">
+    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D12">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+  <conditionalFormatting sqref="D3:D11">
+    <cfRule type="cellIs" dxfId="48" priority="3" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4064,7 +4750,7 @@
     <dataValidation type="list" allowBlank="1" showDropDown="1" sqref="D5" xr:uid="{C2468C84-4683-40DE-A836-82BD3C7D3A70}">
       <formula1>"Not started,In progress,Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D12 D6 D8:D10 D3:D4" xr:uid="{40512220-4D31-4A83-9DA0-3514B8B6DDBB}">
+    <dataValidation type="list" allowBlank="1" sqref="D11 D6 D8:D10 D3:D4" xr:uid="{40512220-4D31-4A83-9DA0-3514B8B6DDBB}">
       <formula1>"Not started,In progress,Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4075,21 +4761,2020 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5534F58-219B-4B6F-A095-2DF6C0CD1B63}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="38.9296875" customWidth="1"/>
+    <col min="3" max="3" width="51.3984375" customWidth="1"/>
+    <col min="4" max="4" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.53125" customWidth="1"/>
+    <col min="6" max="6" width="19.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.9296875" customWidth="1"/>
+    <col min="10" max="10" width="3.86328125" customWidth="1"/>
+    <col min="11" max="11" width="4.1328125" customWidth="1"/>
+    <col min="12" max="12" width="4.46484375" customWidth="1"/>
+    <col min="13" max="13" width="3.86328125" customWidth="1"/>
+    <col min="14" max="14" width="4" customWidth="1"/>
+    <col min="15" max="15" width="4.86328125" customWidth="1"/>
+    <col min="16" max="16" width="5.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A1" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="123" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="125" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="127" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="119" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="169" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="122"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="21"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A3" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="22">
+        <v>44522</v>
+      </c>
+      <c r="F3" s="22">
+        <v>44525</v>
+      </c>
+      <c r="G3" s="137" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="39">
+        <v>3</v>
+      </c>
+      <c r="I3" s="12">
+        <f t="shared" ref="I3:O3" si="0">H3</f>
+        <v>3</v>
+      </c>
+      <c r="J3" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K3" s="12">
+        <f>J3-3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M3" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N3" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O3" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P3" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A4" s="1"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="136"/>
+      <c r="P4" s="24"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A5" s="138" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="33">
+        <v>44522</v>
+      </c>
+      <c r="F5" s="33">
+        <v>44525</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="145">
+        <v>3</v>
+      </c>
+      <c r="I5" s="35">
+        <f>H5</f>
+        <v>3</v>
+      </c>
+      <c r="J5" s="35">
+        <f>I5</f>
+        <v>3</v>
+      </c>
+      <c r="K5" s="35">
+        <f t="shared" ref="K5" si="1">J5</f>
+        <v>3</v>
+      </c>
+      <c r="L5" s="35">
+        <f>K5-3</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="35">
+        <f t="shared" ref="M5" si="2">L5</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="35">
+        <f t="shared" ref="N5" si="3">M5</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="35">
+        <f t="shared" ref="O5" si="4">N5</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="36">
+        <f t="shared" ref="P5" si="5">O5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="30"/>
+    </row>
+    <row r="7" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="138" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="33">
+        <v>44522</v>
+      </c>
+      <c r="F7" s="33">
+        <v>44525</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="34">
+        <v>3</v>
+      </c>
+      <c r="I7" s="35">
+        <f t="shared" ref="I7:P7" si="6">H7</f>
+        <v>3</v>
+      </c>
+      <c r="J7" s="35">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="K7" s="35">
+        <f>J7</f>
+        <v>3</v>
+      </c>
+      <c r="L7" s="35">
+        <f>K7-3</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="30"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A9" s="138" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="133" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="22">
+        <v>44523</v>
+      </c>
+      <c r="F9" s="22">
+        <v>44524</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="145">
+        <v>5.5</v>
+      </c>
+      <c r="I9" s="35">
+        <f>H9</f>
+        <v>5.5</v>
+      </c>
+      <c r="J9" s="35">
+        <f>I9-2</f>
+        <v>3.5</v>
+      </c>
+      <c r="K9" s="35">
+        <f>J9-(0.5)</f>
+        <v>3</v>
+      </c>
+      <c r="L9" s="35">
+        <f>K9-(1+2)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="35">
+        <f t="shared" ref="M9" si="7">L9</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="35">
+        <f t="shared" ref="N9" si="8">M9</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="35">
+        <f t="shared" ref="O9" si="9">N9</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="36">
+        <f t="shared" ref="P9" si="10">O9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A10" s="141"/>
+      <c r="B10" s="133"/>
+      <c r="C10" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="13"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A11" s="138" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="138" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="33">
+        <v>44523</v>
+      </c>
+      <c r="F11" s="33">
+        <v>44525</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="145">
+        <v>6</v>
+      </c>
+      <c r="I11" s="35">
+        <f>H11</f>
+        <v>6</v>
+      </c>
+      <c r="J11" s="35">
+        <f>I11</f>
+        <v>6</v>
+      </c>
+      <c r="K11" s="35">
+        <f t="shared" ref="K11" si="11">J11</f>
+        <v>6</v>
+      </c>
+      <c r="L11" s="35">
+        <f>K11-(1.5)</f>
+        <v>4.5</v>
+      </c>
+      <c r="M11" s="35">
+        <f>L11-2</f>
+        <v>2.5</v>
+      </c>
+      <c r="N11" s="35">
+        <f t="shared" ref="N11" si="12">M11</f>
+        <v>2.5</v>
+      </c>
+      <c r="O11" s="35">
+        <f>N11-3</f>
+        <v>-0.5</v>
+      </c>
+      <c r="P11" s="36">
+        <f t="shared" ref="P11" si="13">O11</f>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A12" s="141"/>
+      <c r="B12" s="141"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="13"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A13" s="138" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="33">
+        <v>44523</v>
+      </c>
+      <c r="F13" s="33">
+        <v>44528</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="34">
+        <v>5</v>
+      </c>
+      <c r="I13" s="35">
+        <f t="shared" ref="I13" si="14">H13</f>
+        <v>5</v>
+      </c>
+      <c r="J13" s="35">
+        <f>I13-0</f>
+        <v>5</v>
+      </c>
+      <c r="K13" s="35">
+        <f t="shared" ref="K13" si="15">J13</f>
+        <v>5</v>
+      </c>
+      <c r="L13" s="35">
+        <f>K13-2</f>
+        <v>3</v>
+      </c>
+      <c r="M13" s="35">
+        <f t="shared" ref="M13" si="16">L13</f>
+        <v>3</v>
+      </c>
+      <c r="N13" s="35">
+        <f t="shared" ref="N13" si="17">M13</f>
+        <v>3</v>
+      </c>
+      <c r="O13" s="35">
+        <f>N13-(1.5)</f>
+        <v>1.5</v>
+      </c>
+      <c r="P13" s="36">
+        <f t="shared" ref="P13" si="18">O13</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A14" s="141"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="25">
+        <v>44523</v>
+      </c>
+      <c r="F14" s="144" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="40"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="13"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A15" s="141"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="25">
+        <v>44523</v>
+      </c>
+      <c r="F15" s="144" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="40"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="13"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="C16" s="168" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="143">
+        <v>44523</v>
+      </c>
+      <c r="F16" s="142">
+        <v>44525</v>
+      </c>
+      <c r="G16" s="141"/>
+      <c r="H16" s="140"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="13"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A17" s="138" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="33">
+        <v>44523</v>
+      </c>
+      <c r="F17" s="33">
+        <v>44528</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="145">
+        <v>3</v>
+      </c>
+      <c r="I17" s="35">
+        <f>H17</f>
+        <v>3</v>
+      </c>
+      <c r="J17" s="35">
+        <f>I17</f>
+        <v>3</v>
+      </c>
+      <c r="K17" s="35">
+        <f t="shared" ref="K17" si="19">J17</f>
+        <v>3</v>
+      </c>
+      <c r="L17" s="35">
+        <f t="shared" ref="L17" si="20">K17</f>
+        <v>3</v>
+      </c>
+      <c r="M17" s="35">
+        <f t="shared" ref="M17" si="21">L17</f>
+        <v>3</v>
+      </c>
+      <c r="N17" s="35">
+        <f t="shared" ref="N17" si="22">M17</f>
+        <v>3</v>
+      </c>
+      <c r="O17" s="35">
+        <f>N17-2</f>
+        <v>1</v>
+      </c>
+      <c r="P17" s="36">
+        <f t="shared" ref="P17" si="23">O17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="H18" s="140"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="13"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A19" s="138" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="138" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="33">
+        <v>44525</v>
+      </c>
+      <c r="F19" s="33">
+        <v>44528</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="145">
+        <v>3</v>
+      </c>
+      <c r="I19" s="35">
+        <f>H19</f>
+        <v>3</v>
+      </c>
+      <c r="J19" s="35">
+        <f>I19</f>
+        <v>3</v>
+      </c>
+      <c r="K19" s="35">
+        <f t="shared" ref="K19" si="24">J19</f>
+        <v>3</v>
+      </c>
+      <c r="L19" s="35">
+        <f t="shared" ref="L19" si="25">K19</f>
+        <v>3</v>
+      </c>
+      <c r="M19" s="35">
+        <f t="shared" ref="M19" si="26">L19</f>
+        <v>3</v>
+      </c>
+      <c r="N19" s="35">
+        <f t="shared" ref="N19" si="27">M19</f>
+        <v>3</v>
+      </c>
+      <c r="O19" s="35">
+        <f>N19-4</f>
+        <v>-1</v>
+      </c>
+      <c r="P19" s="36">
+        <f t="shared" ref="P19" si="28">O19</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A20" s="141"/>
+      <c r="B20" s="141"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="13"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A21" s="138" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="33">
+        <v>44522</v>
+      </c>
+      <c r="F21" s="33">
+        <v>44523</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="145">
+        <v>3</v>
+      </c>
+      <c r="I21" s="35">
+        <f>H21-3</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="35">
+        <f>I21</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="35">
+        <f t="shared" ref="K21" si="29">J21</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="35">
+        <f t="shared" ref="L21" si="30">K21</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="35">
+        <f t="shared" ref="M21" si="31">L21</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="35">
+        <f t="shared" ref="N21" si="32">M21</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="35">
+        <f t="shared" ref="O21" si="33">N21</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="36">
+        <f t="shared" ref="P21" si="34">O21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="H22" s="140"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="13"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D3:D10 D16 D19:D20">
+    <cfRule type="cellIs" dxfId="47" priority="19" operator="equal">
+      <formula>"Not started"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D10 D16 D19:D20">
+    <cfRule type="cellIs" dxfId="46" priority="20" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D10 D16 D19:D20">
+    <cfRule type="cellIs" dxfId="45" priority="21" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:D15">
+    <cfRule type="cellIs" dxfId="44" priority="16" operator="equal">
+      <formula>"Not started"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:D15">
+    <cfRule type="cellIs" dxfId="43" priority="17" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:D15">
+    <cfRule type="cellIs" dxfId="42" priority="18" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="cellIs" dxfId="41" priority="13" operator="equal">
+      <formula>"Not started"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="cellIs" dxfId="40" priority="14" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="cellIs" dxfId="39" priority="15" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="38" priority="7" operator="equal">
+      <formula>"Not started"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="36" priority="9" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:D12">
+    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
+      <formula>"Not started"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:D12">
+    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:D12">
+    <cfRule type="cellIs" dxfId="33" priority="6" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:D20">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
+      <formula>"Not started"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:D20">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:D20">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" sqref="D5 D7 D3 D19:D21 D9:D17" xr:uid="{30BB0BC1-4D19-4552-912A-662D8CE9FF0E}">
+      <formula1>"Not started,In progress,Done"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showDropDown="1" sqref="D4" xr:uid="{752EC698-F781-48DB-B9FB-AEDB07C0BD17}">
+      <formula1>"Not started,In progress,Done"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBC25B3-7FA7-4A4A-BB67-58ADB4195BFF}">
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.86328125" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.9296875" customWidth="1"/>
+    <col min="10" max="10" width="5.59765625" customWidth="1"/>
+    <col min="11" max="11" width="6.53125" customWidth="1"/>
+    <col min="12" max="12" width="5.3984375" customWidth="1"/>
+    <col min="13" max="13" width="5.59765625" customWidth="1"/>
+    <col min="14" max="14" width="6.53125" customWidth="1"/>
+    <col min="15" max="15" width="8.3984375" style="16" customWidth="1"/>
+    <col min="16" max="16" width="8.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="123" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="125" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="127" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="119" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="170" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="183" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A2" s="148"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="153"/>
+      <c r="Q2" s="171"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A3" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="134" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="33">
+        <v>44529</v>
+      </c>
+      <c r="F3" s="33">
+        <v>44531</v>
+      </c>
+      <c r="G3" s="154" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="155">
+        <v>2.5</v>
+      </c>
+      <c r="I3" s="35">
+        <f t="shared" ref="I3:O3" si="0">H3</f>
+        <v>2.5</v>
+      </c>
+      <c r="J3" s="35">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="K3" s="35">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="L3" s="35">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="M3" s="35">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="N3" s="35">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="O3" s="35">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="P3" s="35">
+        <f>O3</f>
+        <v>2.5</v>
+      </c>
+      <c r="Q3" s="174">
+        <f>P3</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A4" s="26"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="176"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="156"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="175" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="139"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="173"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A5" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="33">
+        <v>44529</v>
+      </c>
+      <c r="F5" s="33">
+        <v>44531</v>
+      </c>
+      <c r="G5" s="154" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="155">
+        <v>2.5</v>
+      </c>
+      <c r="I5" s="35">
+        <f t="shared" ref="I5" si="1">H5</f>
+        <v>2.5</v>
+      </c>
+      <c r="J5" s="35">
+        <f t="shared" ref="J5" si="2">I5</f>
+        <v>2.5</v>
+      </c>
+      <c r="K5" s="35">
+        <f t="shared" ref="K5" si="3">J5</f>
+        <v>2.5</v>
+      </c>
+      <c r="L5" s="35">
+        <f t="shared" ref="L5" si="4">K5</f>
+        <v>2.5</v>
+      </c>
+      <c r="M5" s="35">
+        <f t="shared" ref="M5" si="5">L5</f>
+        <v>2.5</v>
+      </c>
+      <c r="N5" s="35">
+        <f t="shared" ref="N5" si="6">M5</f>
+        <v>2.5</v>
+      </c>
+      <c r="O5" s="24">
+        <f t="shared" ref="O5" si="7">N5</f>
+        <v>2.5</v>
+      </c>
+      <c r="P5" s="35">
+        <f>O5</f>
+        <v>2.5</v>
+      </c>
+      <c r="Q5" s="174">
+        <f>P5</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A6" s="26"/>
+      <c r="B6" s="159"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="156"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="175" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="139"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="172"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A7" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="134" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="33">
+        <v>44529</v>
+      </c>
+      <c r="F7" s="33">
+        <v>44531</v>
+      </c>
+      <c r="G7" s="154" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="155">
+        <v>4</v>
+      </c>
+      <c r="I7" s="35">
+        <f t="shared" ref="I7" si="8">H7</f>
+        <v>4</v>
+      </c>
+      <c r="J7" s="35">
+        <f t="shared" ref="J7" si="9">I7</f>
+        <v>4</v>
+      </c>
+      <c r="K7" s="35">
+        <f t="shared" ref="K7" si="10">J7</f>
+        <v>4</v>
+      </c>
+      <c r="L7" s="35">
+        <f t="shared" ref="L7" si="11">K7</f>
+        <v>4</v>
+      </c>
+      <c r="M7" s="35">
+        <f t="shared" ref="M7" si="12">L7</f>
+        <v>4</v>
+      </c>
+      <c r="N7" s="35">
+        <f t="shared" ref="N7" si="13">M7</f>
+        <v>4</v>
+      </c>
+      <c r="O7" s="35">
+        <f t="shared" ref="O7" si="14">N7</f>
+        <v>4</v>
+      </c>
+      <c r="P7" s="35">
+        <f>O7</f>
+        <v>4</v>
+      </c>
+      <c r="Q7" s="174">
+        <f>P7</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A8" s="26"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="176"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="156"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="157"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="173"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A9" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="134" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="33">
+        <v>44529</v>
+      </c>
+      <c r="F9" s="33">
+        <v>44525</v>
+      </c>
+      <c r="G9" s="154" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="155">
+        <v>3</v>
+      </c>
+      <c r="I9" s="35">
+        <f t="shared" ref="I9" si="15">H9</f>
+        <v>3</v>
+      </c>
+      <c r="J9" s="35">
+        <f t="shared" ref="J9" si="16">I9</f>
+        <v>3</v>
+      </c>
+      <c r="K9" s="35">
+        <f t="shared" ref="K9" si="17">J9</f>
+        <v>3</v>
+      </c>
+      <c r="L9" s="35">
+        <f t="shared" ref="L9" si="18">K9</f>
+        <v>3</v>
+      </c>
+      <c r="M9" s="35">
+        <f t="shared" ref="M9" si="19">L9</f>
+        <v>3</v>
+      </c>
+      <c r="N9" s="35">
+        <f t="shared" ref="N9" si="20">M9</f>
+        <v>3</v>
+      </c>
+      <c r="O9" s="24">
+        <f t="shared" ref="O9" si="21">N9</f>
+        <v>3</v>
+      </c>
+      <c r="P9" s="35">
+        <f>O9</f>
+        <v>3</v>
+      </c>
+      <c r="Q9" s="174">
+        <f>P9</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A10" s="31"/>
+      <c r="B10" s="133"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="39"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="172"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A11" s="26"/>
+      <c r="B11" s="159"/>
+      <c r="C11" s="176"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="175" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="139"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="172"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A12" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="138" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="33">
+        <v>44529</v>
+      </c>
+      <c r="F12" s="33"/>
+      <c r="G12" s="154" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="155">
+        <v>4</v>
+      </c>
+      <c r="I12" s="35">
+        <f t="shared" ref="I12" si="22">H12</f>
+        <v>4</v>
+      </c>
+      <c r="J12" s="35">
+        <f t="shared" ref="J12" si="23">I12</f>
+        <v>4</v>
+      </c>
+      <c r="K12" s="35">
+        <f t="shared" ref="K12" si="24">J12</f>
+        <v>4</v>
+      </c>
+      <c r="L12" s="35">
+        <f t="shared" ref="L12" si="25">K12</f>
+        <v>4</v>
+      </c>
+      <c r="M12" s="35">
+        <f t="shared" ref="M12" si="26">L12</f>
+        <v>4</v>
+      </c>
+      <c r="N12" s="35">
+        <f t="shared" ref="N12" si="27">M12</f>
+        <v>4</v>
+      </c>
+      <c r="O12" s="35">
+        <f t="shared" ref="O12" si="28">N12</f>
+        <v>4</v>
+      </c>
+      <c r="P12" s="35">
+        <f>O12</f>
+        <v>4</v>
+      </c>
+      <c r="Q12" s="174">
+        <f>P12</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A13" s="26"/>
+      <c r="B13" s="159"/>
+      <c r="C13" s="176"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="173"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A14" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="160" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="33">
+        <v>44529</v>
+      </c>
+      <c r="F14" s="182">
+        <v>44533</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="155">
+        <v>4</v>
+      </c>
+      <c r="I14" s="35">
+        <f t="shared" ref="I14" si="29">H14</f>
+        <v>4</v>
+      </c>
+      <c r="J14" s="35">
+        <f t="shared" ref="J14" si="30">I14</f>
+        <v>4</v>
+      </c>
+      <c r="K14" s="35">
+        <f t="shared" ref="K14" si="31">J14</f>
+        <v>4</v>
+      </c>
+      <c r="L14" s="35">
+        <f>K14-2+3</f>
+        <v>5</v>
+      </c>
+      <c r="M14" s="35">
+        <f>L14-1</f>
+        <v>4</v>
+      </c>
+      <c r="N14" s="35">
+        <f t="shared" ref="N14" si="32">M14</f>
+        <v>4</v>
+      </c>
+      <c r="O14" s="35">
+        <f t="shared" ref="O14" si="33">N14</f>
+        <v>4</v>
+      </c>
+      <c r="P14" s="35">
+        <f>O14-(3.6)</f>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="Q14" s="174">
+        <f>P14</f>
+        <v>0.39999999999999991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A15" s="16"/>
+      <c r="B15" s="160"/>
+      <c r="C15" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="25">
+        <v>44523</v>
+      </c>
+      <c r="F15" s="182">
+        <v>44536</v>
+      </c>
+      <c r="G15" s="135"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="172"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A16" s="16"/>
+      <c r="B16" s="160"/>
+      <c r="C16" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="25">
+        <v>44523</v>
+      </c>
+      <c r="F16" s="182">
+        <v>44536</v>
+      </c>
+      <c r="G16" s="135"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="172"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A17" s="16"/>
+      <c r="B17" s="160"/>
+      <c r="C17" s="141" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="25">
+        <v>44532</v>
+      </c>
+      <c r="F17" s="182">
+        <v>44536</v>
+      </c>
+      <c r="G17" s="135"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="172"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A18" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="134" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="33">
+        <v>44529</v>
+      </c>
+      <c r="F18" s="33"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="177">
+        <v>2</v>
+      </c>
+      <c r="I18" s="35">
+        <f t="shared" ref="I18" si="34">H18</f>
+        <v>2</v>
+      </c>
+      <c r="J18" s="35">
+        <f t="shared" ref="J18" si="35">I18</f>
+        <v>2</v>
+      </c>
+      <c r="K18" s="35">
+        <f t="shared" ref="K18" si="36">J18</f>
+        <v>2</v>
+      </c>
+      <c r="L18" s="35">
+        <f t="shared" ref="L18" si="37">K18</f>
+        <v>2</v>
+      </c>
+      <c r="M18" s="35">
+        <f t="shared" ref="M18" si="38">L18</f>
+        <v>2</v>
+      </c>
+      <c r="N18" s="35">
+        <f t="shared" ref="N18" si="39">M18</f>
+        <v>2</v>
+      </c>
+      <c r="O18" s="35">
+        <f t="shared" ref="O18" si="40">N18</f>
+        <v>2</v>
+      </c>
+      <c r="P18" s="35">
+        <f>O18</f>
+        <v>2</v>
+      </c>
+      <c r="Q18" s="174">
+        <f>P18</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A19" s="16"/>
+      <c r="B19" s="160"/>
+      <c r="C19" s="176"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="157"/>
+      <c r="H19" s="139"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="172"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A20" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="134" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="33">
+        <v>44529</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="178">
+        <v>2</v>
+      </c>
+      <c r="I20" s="12">
+        <f t="shared" ref="I20" si="41">H20</f>
+        <v>2</v>
+      </c>
+      <c r="J20" s="12">
+        <f t="shared" ref="J20" si="42">I20</f>
+        <v>2</v>
+      </c>
+      <c r="K20" s="12">
+        <f t="shared" ref="K20" si="43">J20</f>
+        <v>2</v>
+      </c>
+      <c r="L20" s="12">
+        <f t="shared" ref="L20" si="44">K20</f>
+        <v>2</v>
+      </c>
+      <c r="M20" s="12">
+        <f t="shared" ref="M20" si="45">L20</f>
+        <v>2</v>
+      </c>
+      <c r="N20" s="12">
+        <f t="shared" ref="N20" si="46">M20</f>
+        <v>2</v>
+      </c>
+      <c r="O20" s="35">
+        <f t="shared" ref="O20" si="47">N20</f>
+        <v>2</v>
+      </c>
+      <c r="P20" s="35">
+        <f>O20</f>
+        <v>2</v>
+      </c>
+      <c r="Q20" s="174">
+        <f>P20</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="C21" s="38"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="135"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="172"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A22" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="138" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="37"/>
+      <c r="D22" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="33">
+        <v>44529</v>
+      </c>
+      <c r="F22" s="33"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="177">
+        <v>2</v>
+      </c>
+      <c r="I22" s="35">
+        <f t="shared" ref="I22" si="48">H22</f>
+        <v>2</v>
+      </c>
+      <c r="J22" s="35">
+        <f t="shared" ref="J22" si="49">I22</f>
+        <v>2</v>
+      </c>
+      <c r="K22" s="35">
+        <f t="shared" ref="K22" si="50">J22</f>
+        <v>2</v>
+      </c>
+      <c r="L22" s="35">
+        <f t="shared" ref="L22" si="51">K22</f>
+        <v>2</v>
+      </c>
+      <c r="M22" s="35">
+        <f t="shared" ref="M22" si="52">L22</f>
+        <v>2</v>
+      </c>
+      <c r="N22" s="35">
+        <f t="shared" ref="N22" si="53">M22</f>
+        <v>2</v>
+      </c>
+      <c r="O22" s="35">
+        <f t="shared" ref="O22" si="54">N22</f>
+        <v>2</v>
+      </c>
+      <c r="P22" s="35">
+        <f>O22</f>
+        <v>2</v>
+      </c>
+      <c r="Q22" s="174">
+        <f>P22</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="C23" s="38"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="135"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="172"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="C24" s="38"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="C25" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D3:D4 D15:D16">
+    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
+      <formula>"Not started"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D4 D15:D16">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D4 D15:D16">
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D6">
+    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
+      <formula>"Not started"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D6">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D6">
+    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:D8">
+    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
+      <formula>"Not started"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:D8">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:D8">
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:D11">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+      <formula>"Not started"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:D11">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:D11">
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:D19">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+      <formula>"Not started"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:D19">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:D19">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:D21">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+      <formula>"Not started"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:D21">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:D21">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D14">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+      <formula>"Not started"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D14">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D14">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D23">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>"Not started"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D23">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D23">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Not started"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" sqref="D4 D6 D8 D21 D19 D11 D23 D13" xr:uid="{FEC2DCB7-FACB-4B80-B473-B145FA71DBF4}">
+      <formula1>"Not started,In progress,Done"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="D3 D5 D7 D9:D10 D20 D12 D22 D14:D18" xr:uid="{DA396903-EE81-45F0-A36F-DC47E47C91CB}">
+      <formula1>"Not started,In progress,Done"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED251E3-6BA1-4669-9F96-81959B6FFDC5}">
+  <dimension ref="A1:P4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.9296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.86328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.3984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.265625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2.19921875" bestFit="1" customWidth="1"/>
@@ -4101,314 +6786,148 @@
     <col min="16" max="16" width="3.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A1" s="139" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="141" t="s">
+    <row r="1" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="137" t="s">
+      <c r="C1" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="137" t="s">
+      <c r="D1" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="143" t="s">
+      <c r="E1" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="145" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="137" t="s">
+      <c r="F1" s="127" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="140"/>
-      <c r="B2" s="142"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="33">
-        <v>0</v>
-      </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
+      <c r="A2" s="122"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="21"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="54"/>
+      <c r="A3" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>88</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="55"/>
+      <c r="E3" s="22">
+        <v>44522</v>
+      </c>
+      <c r="F3" s="22">
+        <v>44525</v>
+      </c>
+      <c r="G3" s="137" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="39">
+        <v>3</v>
+      </c>
       <c r="I3" s="12">
         <f t="shared" ref="I3:O3" si="0">H3</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K3" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L3" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M3" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N3" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O3" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P3" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
-      <c r="E4" s="36"/>
+      <c r="E4" s="25"/>
       <c r="F4" s="14"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="16"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="20">
-        <f t="shared" ref="I5:K5" si="1">H5</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="20">
-        <v>0</v>
-      </c>
-      <c r="M5" s="20">
-        <v>0</v>
-      </c>
-      <c r="N5" s="20">
-        <v>0</v>
-      </c>
-      <c r="O5" s="20">
-        <f t="shared" ref="O5:P5" si="2">N5</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="46"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="51">
-        <f t="shared" ref="I7:P7" si="3">H7</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="51">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="52">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="46"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="40">
-        <f t="shared" ref="I9" si="4">H9</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="40">
-        <v>0</v>
-      </c>
-      <c r="K9" s="40">
-        <f t="shared" ref="K9:P9" si="5">J9</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G4" s="135"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="136"/>
+      <c r="P4" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4420,55 +6939,29 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:D9">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="D3:D4">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"Not started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D9">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="D3:D4">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D9">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+  <conditionalFormatting sqref="D3:D4">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="D9 D5 D7 D3" xr:uid="{30BB0BC1-4D19-4552-912A-662D8CE9FF0E}">
+    <dataValidation type="list" allowBlank="1" sqref="D3" xr:uid="{FF6D3835-FAFB-466F-B605-95CC0751F810}">
       <formula1>"Not started,In progress,Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" sqref="D4" xr:uid="{752EC698-F781-48DB-B9FB-AEDB07C0BD17}">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" sqref="D4" xr:uid="{6E10F5DA-02D2-4146-94E7-D40720831B5B}">
       <formula1>"Not started,In progress,Done"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBC25B3-7FA7-4A4A-BB67-58ADB4195BFF}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED251E3-6BA1-4669-9F96-81959B6FFDC5}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4480,1191 +6973,1211 @@
   </sheetPr>
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="16.86328125" style="60" customWidth="1"/>
-    <col min="5" max="5" width="22.53125" style="60" customWidth="1"/>
-    <col min="6" max="6" width="18.86328125" style="60" customWidth="1"/>
-    <col min="7" max="7" width="17.53125" style="60" customWidth="1"/>
-    <col min="8" max="8" width="17.86328125" style="60" customWidth="1"/>
-    <col min="9" max="12" width="14.3984375" style="60"/>
-    <col min="13" max="13" width="20.265625" style="60" customWidth="1"/>
-    <col min="14" max="14" width="19.73046875" style="60" customWidth="1"/>
-    <col min="15" max="15" width="22.3984375" style="60" customWidth="1"/>
-    <col min="16" max="16384" width="14.3984375" style="60"/>
+    <col min="1" max="4" width="16.86328125" style="42" customWidth="1"/>
+    <col min="5" max="5" width="22.53125" style="42" customWidth="1"/>
+    <col min="6" max="6" width="18.86328125" style="42" customWidth="1"/>
+    <col min="7" max="7" width="17.53125" style="42" customWidth="1"/>
+    <col min="8" max="8" width="17.86328125" style="42" customWidth="1"/>
+    <col min="9" max="12" width="14.3984375" style="42"/>
+    <col min="13" max="13" width="20.265625" style="42" customWidth="1"/>
+    <col min="14" max="14" width="19.73046875" style="42" customWidth="1"/>
+    <col min="15" max="15" width="22.3984375" style="42" customWidth="1"/>
+    <col min="16" max="16384" width="14.3984375" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="67">
-        <v>0</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="94" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="95"/>
+      <c r="A1" s="49">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="77"/>
     </row>
     <row r="2" spans="1:20" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="65" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="85">
+        <v>44522</v>
+      </c>
+      <c r="H2" s="86">
+        <v>44523</v>
+      </c>
+      <c r="I2" s="86">
+        <v>44524</v>
+      </c>
+      <c r="J2" s="86">
+        <v>44525</v>
+      </c>
+      <c r="K2" s="86">
+        <v>44526</v>
+      </c>
+      <c r="L2" s="86">
+        <v>44527</v>
+      </c>
+      <c r="M2" s="86">
+        <v>44528</v>
+      </c>
+      <c r="N2" s="80"/>
+    </row>
+    <row r="3" spans="1:20" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="81" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="103">
-        <v>44522</v>
-      </c>
-      <c r="H2" s="104">
-        <v>44523</v>
-      </c>
-      <c r="I2" s="104">
-        <v>44524</v>
-      </c>
-      <c r="J2" s="104">
-        <v>44525</v>
-      </c>
-      <c r="K2" s="104">
-        <v>44526</v>
-      </c>
-      <c r="L2" s="104">
-        <v>44527</v>
-      </c>
-      <c r="M2" s="104">
-        <v>44528</v>
-      </c>
-      <c r="N2" s="98"/>
-    </row>
-    <row r="3" spans="1:20" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="105" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="92" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="92" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="92" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="92" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="93" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="99" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="108" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="101" t="s">
+      <c r="I4" s="83"/>
+      <c r="J4" s="83" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="83"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="65"/>
+    </row>
+    <row r="5" spans="1:20" ht="12.75" x14ac:dyDescent="0.35">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" s="101"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="83"/>
-    </row>
-    <row r="5" spans="1:20" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A5" s="62"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="72">
-        <v>0</v>
-      </c>
-      <c r="H5" s="86">
+      <c r="G5" s="54">
+        <v>0</v>
+      </c>
+      <c r="H5" s="68">
         <v>0.5</v>
       </c>
-      <c r="I5" s="87">
+      <c r="I5" s="69">
         <v>2</v>
       </c>
-      <c r="J5" s="86">
+      <c r="J5" s="68">
         <v>4</v>
       </c>
-      <c r="K5" s="87"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="74">
+      <c r="K5" s="69"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="56">
         <f t="shared" ref="N5:N11" si="0">SUM(G5:M5)</f>
         <v>6.5</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A6" s="62"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="75">
-        <v>0</v>
-      </c>
-      <c r="H6" s="86">
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="57">
+        <v>0</v>
+      </c>
+      <c r="H6" s="68">
         <v>0.5</v>
       </c>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86">
+      <c r="I6" s="68"/>
+      <c r="J6" s="68">
         <v>1</v>
       </c>
-      <c r="K6" s="87"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="74">
+      <c r="K6" s="69"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="56">
         <v>2</v>
       </c>
-      <c r="N6" s="74">
+      <c r="N6" s="56">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A7" s="62"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="77">
-        <v>0</v>
-      </c>
-      <c r="H7" s="86">
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="59">
+        <v>0</v>
+      </c>
+      <c r="H7" s="68">
         <v>0.5</v>
       </c>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86">
+      <c r="I7" s="68"/>
+      <c r="J7" s="68">
         <v>2</v>
       </c>
-      <c r="K7" s="87"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="74">
+      <c r="K7" s="69"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="56">
         <v>1.5</v>
       </c>
-      <c r="N7" s="74">
+      <c r="N7" s="56">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A8" s="62"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="65" t="s">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="77">
-        <v>0</v>
-      </c>
-      <c r="H8" s="86">
+      <c r="G8" s="59">
+        <v>0</v>
+      </c>
+      <c r="H8" s="68">
         <v>0.5</v>
       </c>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86">
+      <c r="I8" s="68"/>
+      <c r="J8" s="68">
         <v>4</v>
       </c>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="74">
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="56">
         <v>4</v>
       </c>
-      <c r="N8" s="74">
+      <c r="N8" s="56">
         <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A9" s="62"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="77">
-        <v>0</v>
-      </c>
-      <c r="H9" s="86">
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="59">
+        <v>0</v>
+      </c>
+      <c r="H9" s="68">
         <v>0.5</v>
       </c>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86">
+      <c r="I9" s="68"/>
+      <c r="J9" s="68">
         <v>2.5</v>
       </c>
-      <c r="K9" s="87"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="74">
+      <c r="K9" s="69"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="56">
         <v>3</v>
       </c>
-      <c r="N9" s="74">
+      <c r="N9" s="56">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="77">
-        <v>0</v>
-      </c>
-      <c r="H10" s="86">
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="59">
+        <v>0</v>
+      </c>
+      <c r="H10" s="68">
         <v>2.5</v>
       </c>
-      <c r="I10" s="86">
+      <c r="I10" s="68">
         <v>1.5</v>
       </c>
-      <c r="J10" s="86">
+      <c r="J10" s="68">
         <v>3</v>
       </c>
-      <c r="K10" s="87"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74">
+      <c r="K10" s="69"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A11" s="62"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="88">
-        <v>0</v>
-      </c>
-      <c r="H11" s="86">
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="70">
+        <v>0</v>
+      </c>
+      <c r="H11" s="68">
         <v>0.5</v>
       </c>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89">
+      <c r="I11" s="71"/>
+      <c r="J11" s="71">
         <v>4</v>
       </c>
-      <c r="K11" s="90">
+      <c r="K11" s="72">
         <v>2</v>
       </c>
-      <c r="L11" s="89"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="91">
+      <c r="L11" s="71"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73">
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="62"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="76">
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="58">
         <f t="shared" ref="G12:N12" si="1">SUM(G5:G11)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="117">
+      <c r="H12" s="99">
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
-      <c r="I12" s="76">
+      <c r="I12" s="58">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
-      <c r="J12" s="76">
+      <c r="J12" s="58">
         <f t="shared" si="1"/>
         <v>20.5</v>
       </c>
-      <c r="K12" s="76">
+      <c r="K12" s="58">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L12" s="76">
+      <c r="L12" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M12" s="84">
+      <c r="M12" s="66">
         <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
-      <c r="N12" s="85">
+      <c r="N12" s="67">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A13" s="68"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="76">
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="58">
         <f>G12</f>
         <v>0</v>
       </c>
-      <c r="H13" s="76">
+      <c r="H13" s="58">
         <f t="shared" ref="H13:M13" si="2">H12+G13</f>
         <v>5.5</v>
       </c>
-      <c r="I13" s="76">
+      <c r="I13" s="58">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="J13" s="76">
+      <c r="J13" s="58">
         <f t="shared" si="2"/>
         <v>29.5</v>
       </c>
-      <c r="K13" s="76">
+      <c r="K13" s="58">
         <f t="shared" si="2"/>
         <v>31.5</v>
       </c>
-      <c r="L13" s="76">
+      <c r="L13" s="58">
         <f t="shared" si="2"/>
         <v>31.5</v>
       </c>
-      <c r="M13" s="78">
+      <c r="M13" s="60">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="N13" s="82"/>
+      <c r="N13" s="64"/>
     </row>
     <row r="14" spans="1:20" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="66"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="79">
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="61">
         <f t="shared" ref="G14:M14" si="3">42-G13</f>
         <v>42</v>
       </c>
-      <c r="H14" s="79">
+      <c r="H14" s="61">
         <f t="shared" si="3"/>
         <v>36.5</v>
       </c>
-      <c r="I14" s="79">
+      <c r="I14" s="61">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="J14" s="79">
+      <c r="J14" s="61">
         <f t="shared" si="3"/>
         <v>12.5</v>
       </c>
-      <c r="K14" s="79">
+      <c r="K14" s="61">
         <f t="shared" si="3"/>
         <v>10.5</v>
       </c>
-      <c r="L14" s="79">
+      <c r="L14" s="61">
         <f t="shared" si="3"/>
         <v>10.5</v>
       </c>
-      <c r="M14" s="80">
+      <c r="M14" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N14" s="81"/>
+      <c r="N14" s="63"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="67"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
     </row>
     <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E16" s="69"/>
-      <c r="F16" s="96" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="106"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="106"/>
-      <c r="M16" s="106"/>
-      <c r="N16" s="106"/>
-      <c r="O16" s="97"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="130"/>
-      <c r="R16" s="129"/>
-      <c r="S16" s="129"/>
-      <c r="T16" s="129"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="88"/>
+      <c r="N16" s="88"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="111"/>
+      <c r="R16" s="110"/>
+      <c r="S16" s="110"/>
+      <c r="T16" s="110"/>
     </row>
     <row r="17" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E17" s="69"/>
-      <c r="F17" s="65" t="s">
+      <c r="E17" s="51"/>
+      <c r="F17" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="85">
+        <v>44529</v>
+      </c>
+      <c r="H17" s="86">
+        <v>44530</v>
+      </c>
+      <c r="I17" s="86">
+        <v>44531</v>
+      </c>
+      <c r="J17" s="86">
+        <v>44532</v>
+      </c>
+      <c r="K17" s="86">
+        <v>44533</v>
+      </c>
+      <c r="L17" s="86">
+        <v>44534</v>
+      </c>
+      <c r="M17" s="86">
+        <v>44535</v>
+      </c>
+      <c r="N17" s="86">
+        <v>44535</v>
+      </c>
+      <c r="O17" s="80"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="111"/>
+      <c r="R17" s="110"/>
+      <c r="S17" s="110"/>
+      <c r="T17" s="110"/>
+    </row>
+    <row r="18" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E18" s="51"/>
+      <c r="F18" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="91" t="s">
+        <v>14</v>
+      </c>
+      <c r="O18" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="112"/>
+      <c r="R18" s="110"/>
+      <c r="S18" s="110"/>
+      <c r="T18" s="110"/>
+    </row>
+    <row r="19" spans="5:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="51"/>
+      <c r="F19" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="103">
-        <v>44529</v>
-      </c>
-      <c r="H17" s="104">
-        <v>44530</v>
-      </c>
-      <c r="I17" s="104">
-        <v>44531</v>
-      </c>
-      <c r="J17" s="104">
-        <v>44532</v>
-      </c>
-      <c r="K17" s="104">
-        <v>44533</v>
-      </c>
-      <c r="L17" s="104">
-        <v>44534</v>
-      </c>
-      <c r="M17" s="104">
-        <v>44535</v>
-      </c>
-      <c r="N17" s="104">
-        <v>44535</v>
-      </c>
-      <c r="O17" s="98"/>
-      <c r="P17" s="69"/>
-      <c r="Q17" s="130"/>
-      <c r="R17" s="129"/>
-      <c r="S17" s="129"/>
-      <c r="T17" s="129"/>
-    </row>
-    <row r="18" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E18" s="69"/>
-      <c r="F18" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="105" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="92" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="92" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="92" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" s="92" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="93" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="N18" s="109" t="s">
-        <v>14</v>
-      </c>
-      <c r="O18" s="99" t="s">
-        <v>58</v>
-      </c>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="131"/>
-      <c r="R18" s="129"/>
-      <c r="S18" s="129"/>
-      <c r="T18" s="129"/>
-    </row>
-    <row r="19" spans="5:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E19" s="69"/>
-      <c r="F19" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="112" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" s="113"/>
-      <c r="I19" s="113"/>
-      <c r="J19" s="113" t="s">
+      <c r="K19" s="95"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="104"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="112"/>
+      <c r="R19" s="110"/>
+      <c r="S19" s="110"/>
+      <c r="T19" s="110"/>
+    </row>
+    <row r="20" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="51"/>
+      <c r="F20" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="K19" s="113"/>
-      <c r="L19" s="114"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="123"/>
-      <c r="O19" s="83"/>
-      <c r="P19" s="69"/>
-      <c r="Q19" s="131"/>
-      <c r="R19" s="129"/>
-      <c r="S19" s="129"/>
-      <c r="T19" s="129"/>
-    </row>
-    <row r="20" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="69"/>
-      <c r="F20" s="65" t="s">
+      <c r="G20" s="97">
+        <v>1.5</v>
+      </c>
+      <c r="H20" s="98"/>
+      <c r="I20" s="99">
+        <v>5</v>
+      </c>
+      <c r="J20" s="98">
+        <v>0.83</v>
+      </c>
+      <c r="K20" s="99"/>
+      <c r="L20" s="98"/>
+      <c r="M20" s="98"/>
+      <c r="N20" s="100"/>
+      <c r="O20" s="56">
+        <f t="shared" ref="O20:O26" si="4">SUM(G20:N20)</f>
+        <v>7.33</v>
+      </c>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="112"/>
+      <c r="R20" s="110"/>
+      <c r="S20" s="110"/>
+      <c r="T20" s="110"/>
+    </row>
+    <row r="21" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="51"/>
+      <c r="F21" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="101">
+        <v>1.5</v>
+      </c>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68">
+        <v>0.83</v>
+      </c>
+      <c r="K21" s="69"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="102"/>
+      <c r="O21" s="56">
+        <f t="shared" si="4"/>
+        <v>2.33</v>
+      </c>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="109"/>
+      <c r="R21" s="110"/>
+      <c r="S21" s="110"/>
+      <c r="T21" s="110"/>
+    </row>
+    <row r="22" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="51"/>
+      <c r="F22" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="101">
+        <v>1.5</v>
+      </c>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68">
+        <v>2.83</v>
+      </c>
+      <c r="K22" s="69">
+        <v>1</v>
+      </c>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="102">
+        <v>3.6</v>
+      </c>
+      <c r="O22" s="56">
+        <f t="shared" si="4"/>
+        <v>8.93</v>
+      </c>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="109"/>
+      <c r="R22" s="110"/>
+      <c r="S22" s="110"/>
+      <c r="T22" s="110"/>
+    </row>
+    <row r="23" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="51"/>
+      <c r="F23" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="101">
+        <v>1.5</v>
+      </c>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68">
+        <v>5</v>
+      </c>
+      <c r="J23" s="68">
+        <v>0.83</v>
+      </c>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="102"/>
+      <c r="O23" s="56">
+        <f t="shared" si="4"/>
+        <v>7.33</v>
+      </c>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="109"/>
+      <c r="R23" s="110"/>
+      <c r="S23" s="110"/>
+      <c r="T23" s="110"/>
+    </row>
+    <row r="24" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E24" s="51"/>
+      <c r="F24" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="101">
+        <v>1.5</v>
+      </c>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68">
+        <v>5</v>
+      </c>
+      <c r="J24" s="68">
+        <v>0.83</v>
+      </c>
+      <c r="K24" s="69"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="102"/>
+      <c r="O24" s="56">
+        <f t="shared" si="4"/>
+        <v>7.33</v>
+      </c>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="109"/>
+      <c r="R24" s="110"/>
+      <c r="S24" s="110"/>
+      <c r="T24" s="110"/>
+    </row>
+    <row r="25" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E25" s="51"/>
+      <c r="F25" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="101">
+        <v>1.5</v>
+      </c>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68">
+        <v>0.83</v>
+      </c>
+      <c r="K25" s="69"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="102"/>
+      <c r="O25" s="56">
+        <f t="shared" si="4"/>
+        <v>2.33</v>
+      </c>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="109"/>
+      <c r="R25" s="110"/>
+      <c r="S25" s="110"/>
+      <c r="T25" s="110"/>
+    </row>
+    <row r="26" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E26" s="51"/>
+      <c r="F26" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="115">
+      <c r="G26" s="101">
         <v>1.5</v>
       </c>
-      <c r="H20" s="116"/>
-      <c r="I20" s="117">
-        <v>5</v>
-      </c>
-      <c r="J20" s="116"/>
-      <c r="K20" s="117"/>
-      <c r="L20" s="116"/>
-      <c r="M20" s="116"/>
-      <c r="N20" s="118"/>
-      <c r="O20" s="74">
-        <f t="shared" ref="O20:O26" si="4">SUM(G20:N20)</f>
-        <v>6.5</v>
-      </c>
-      <c r="P20" s="69"/>
-      <c r="Q20" s="131"/>
-      <c r="R20" s="129"/>
-      <c r="S20" s="129"/>
-      <c r="T20" s="129"/>
-    </row>
-    <row r="21" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="69"/>
-      <c r="F21" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="119">
-        <v>1.5</v>
-      </c>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="87"/>
-      <c r="L21" s="86"/>
-      <c r="M21" s="86"/>
-      <c r="N21" s="120"/>
-      <c r="O21" s="74">
+      <c r="H26" s="68"/>
+      <c r="I26" s="68">
+        <v>4</v>
+      </c>
+      <c r="J26" s="68">
+        <v>0.83</v>
+      </c>
+      <c r="K26" s="69"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="103"/>
+      <c r="O26" s="73">
         <f t="shared" si="4"/>
-        <v>1.5</v>
-      </c>
-      <c r="P21" s="69"/>
-      <c r="Q21" s="128"/>
-      <c r="R21" s="129"/>
-      <c r="S21" s="129"/>
-      <c r="T21" s="129"/>
-    </row>
-    <row r="22" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E22" s="69"/>
-      <c r="F22" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="119">
-        <v>1.5</v>
-      </c>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="86">
-        <v>2.5</v>
-      </c>
-      <c r="K22" s="87"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="120"/>
-      <c r="O22" s="74">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="P22" s="69"/>
-      <c r="Q22" s="128"/>
-      <c r="R22" s="129"/>
-      <c r="S22" s="129"/>
-      <c r="T22" s="129"/>
-    </row>
-    <row r="23" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E23" s="69"/>
-      <c r="F23" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="119">
-        <v>1.5</v>
-      </c>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="120"/>
-      <c r="O23" s="74">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
-      </c>
-      <c r="P23" s="69"/>
-      <c r="Q23" s="128"/>
-      <c r="R23" s="129"/>
-      <c r="S23" s="129"/>
-      <c r="T23" s="129"/>
-    </row>
-    <row r="24" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E24" s="69"/>
-      <c r="F24" s="65" t="s">
+        <v>6.33</v>
+      </c>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="109"/>
+      <c r="R26" s="110"/>
+      <c r="S26" s="110"/>
+      <c r="T26" s="110"/>
+    </row>
+    <row r="27" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F27" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="119">
-        <v>1.5</v>
-      </c>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86">
-        <v>5</v>
-      </c>
-      <c r="J24" s="86"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="120"/>
-      <c r="O24" s="74">
-        <f t="shared" si="4"/>
-        <v>6.5</v>
-      </c>
-      <c r="P24" s="69"/>
-      <c r="Q24" s="128"/>
-      <c r="R24" s="129"/>
-      <c r="S24" s="129"/>
-      <c r="T24" s="129"/>
-    </row>
-    <row r="25" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E25" s="69"/>
-      <c r="F25" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25" s="119">
-        <v>1.5</v>
-      </c>
-      <c r="H25" s="86"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="87"/>
-      <c r="L25" s="86"/>
-      <c r="M25" s="86"/>
-      <c r="N25" s="120"/>
-      <c r="O25" s="74">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
-      </c>
-      <c r="P25" s="69"/>
-      <c r="Q25" s="128"/>
-      <c r="R25" s="129"/>
-      <c r="S25" s="129"/>
-      <c r="T25" s="129"/>
-    </row>
-    <row r="26" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E26" s="69"/>
-      <c r="F26" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26" s="119">
-        <v>1.5</v>
-      </c>
-      <c r="H26" s="89"/>
-      <c r="I26" s="89"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="89"/>
-      <c r="N26" s="121"/>
-      <c r="O26" s="91">
-        <f t="shared" si="4"/>
-        <v>1.5</v>
-      </c>
-      <c r="P26" s="69"/>
-      <c r="Q26" s="128"/>
-      <c r="R26" s="129"/>
-      <c r="S26" s="129"/>
-      <c r="T26" s="129"/>
-    </row>
-    <row r="27" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F27" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="111">
+      <c r="G27" s="93">
         <f t="shared" ref="G27:O27" si="5">SUM(G20:G26)</f>
         <v>10.5</v>
       </c>
-      <c r="H27" s="76">
+      <c r="H27" s="99">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I27" s="76">
+      <c r="I27" s="99">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="J27" s="76">
+        <v>19</v>
+      </c>
+      <c r="J27" s="99">
         <f t="shared" si="5"/>
-        <v>2.5</v>
-      </c>
-      <c r="K27" s="76">
+        <v>7.8100000000000005</v>
+      </c>
+      <c r="K27" s="99">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="76">
+        <v>1</v>
+      </c>
+      <c r="L27" s="99">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M27" s="76">
+      <c r="M27" s="99">
         <f>SUM(M20:M26)</f>
         <v>0</v>
       </c>
-      <c r="N27" s="84">
+      <c r="N27" s="66">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="85">
+        <v>3.6</v>
+      </c>
+      <c r="O27" s="67">
         <f t="shared" si="5"/>
-        <v>23</v>
-      </c>
-      <c r="Q27" s="128"/>
-      <c r="R27" s="129"/>
-      <c r="S27" s="129"/>
-      <c r="T27" s="129"/>
+        <v>41.91</v>
+      </c>
+      <c r="Q27" s="109"/>
+      <c r="R27" s="110"/>
+      <c r="S27" s="110"/>
+      <c r="T27" s="110"/>
     </row>
     <row r="28" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F28" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" s="76">
+      <c r="F28" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="58">
         <f>G27</f>
         <v>10.5</v>
       </c>
-      <c r="H28" s="76">
+      <c r="H28" s="72">
         <f t="shared" ref="H28" si="6">H27+G28</f>
         <v>10.5</v>
       </c>
-      <c r="I28" s="76">
+      <c r="I28" s="72">
         <f t="shared" ref="I28" si="7">I27+H28</f>
-        <v>20.5</v>
-      </c>
-      <c r="J28" s="76">
+        <v>29.5</v>
+      </c>
+      <c r="J28" s="72">
         <f t="shared" ref="J28" si="8">J27+I28</f>
-        <v>23</v>
-      </c>
-      <c r="K28" s="76">
+        <v>37.31</v>
+      </c>
+      <c r="K28" s="72">
         <f t="shared" ref="K28" si="9">K27+J28</f>
-        <v>23</v>
-      </c>
-      <c r="L28" s="76">
+        <v>38.31</v>
+      </c>
+      <c r="L28" s="72">
         <f t="shared" ref="L28" si="10">L27+K28</f>
-        <v>23</v>
-      </c>
-      <c r="M28" s="76">
+        <v>38.31</v>
+      </c>
+      <c r="M28" s="72">
         <f>L28+M27</f>
-        <v>23</v>
-      </c>
-      <c r="N28" s="78">
+        <v>38.31</v>
+      </c>
+      <c r="N28" s="60">
         <f>M28+N27</f>
-        <v>23</v>
-      </c>
-      <c r="O28" s="82"/>
-      <c r="Q28" s="128"/>
-      <c r="R28" s="129"/>
-      <c r="S28" s="129"/>
-      <c r="T28" s="129"/>
+        <v>41.910000000000004</v>
+      </c>
+      <c r="O28" s="64"/>
+      <c r="Q28" s="109"/>
+      <c r="R28" s="110"/>
+      <c r="S28" s="110"/>
+      <c r="T28" s="110"/>
     </row>
     <row r="29" spans="5:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F29" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" s="79">
+      <c r="F29" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" s="61">
         <f t="shared" ref="G29:N29" si="11">42-G28</f>
         <v>31.5</v>
       </c>
-      <c r="H29" s="79">
+      <c r="H29" s="62">
         <f t="shared" si="11"/>
         <v>31.5</v>
       </c>
-      <c r="I29" s="79">
+      <c r="I29" s="62">
         <f t="shared" si="11"/>
-        <v>21.5</v>
-      </c>
-      <c r="J29" s="79">
+        <v>12.5</v>
+      </c>
+      <c r="J29" s="62">
         <f t="shared" si="11"/>
+        <v>4.6899999999999977</v>
+      </c>
+      <c r="K29" s="62">
+        <f t="shared" si="11"/>
+        <v>3.6899999999999977</v>
+      </c>
+      <c r="L29" s="62">
+        <f t="shared" si="11"/>
+        <v>3.6899999999999977</v>
+      </c>
+      <c r="M29" s="62">
+        <f>42-M28</f>
+        <v>3.6899999999999977</v>
+      </c>
+      <c r="N29" s="62">
+        <f t="shared" si="11"/>
+        <v>8.9999999999996305E-2</v>
+      </c>
+      <c r="O29" s="63"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="110"/>
+      <c r="S29" s="110"/>
+      <c r="T29" s="110"/>
+    </row>
+    <row r="30" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q30" s="109"/>
+      <c r="R30" s="110"/>
+      <c r="S30" s="110"/>
+      <c r="T30" s="110"/>
+    </row>
+    <row r="31" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F31" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79"/>
+      <c r="Q31" s="109"/>
+      <c r="R31" s="110"/>
+      <c r="S31" s="110"/>
+      <c r="T31" s="110"/>
+    </row>
+    <row r="32" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F32" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="52">
+        <v>44537</v>
+      </c>
+      <c r="H32" s="52">
+        <v>44538</v>
+      </c>
+      <c r="I32" s="52">
+        <v>44539</v>
+      </c>
+      <c r="J32" s="52">
+        <v>44540</v>
+      </c>
+      <c r="K32" s="52">
+        <v>44541</v>
+      </c>
+      <c r="L32" s="52">
+        <v>44542</v>
+      </c>
+      <c r="M32" s="53"/>
+      <c r="Q32" s="109"/>
+      <c r="R32" s="110"/>
+      <c r="S32" s="110"/>
+      <c r="T32" s="110"/>
+    </row>
+    <row r="33" spans="6:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F33" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="K29" s="79">
-        <f t="shared" si="11"/>
-        <v>19</v>
-      </c>
-      <c r="L29" s="79">
-        <f t="shared" si="11"/>
-        <v>19</v>
-      </c>
-      <c r="M29" s="122">
-        <f>42-M28</f>
-        <v>19</v>
-      </c>
-      <c r="N29" s="80">
-        <f t="shared" si="11"/>
-        <v>19</v>
-      </c>
-      <c r="O29" s="81"/>
-      <c r="Q29" s="128"/>
-      <c r="R29" s="129"/>
-      <c r="S29" s="129"/>
-      <c r="T29" s="129"/>
-    </row>
-    <row r="30" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="Q30" s="128"/>
-      <c r="R30" s="129"/>
-      <c r="S30" s="129"/>
-      <c r="T30" s="129"/>
-    </row>
-    <row r="31" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F31" s="96" t="s">
-        <v>72</v>
-      </c>
-      <c r="G31" s="97"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="97"/>
-      <c r="L31" s="97"/>
-      <c r="M31" s="97"/>
-      <c r="Q31" s="128"/>
-      <c r="R31" s="129"/>
-      <c r="S31" s="129"/>
-      <c r="T31" s="129"/>
-    </row>
-    <row r="32" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F32" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="G32" s="70">
-        <v>44537</v>
-      </c>
-      <c r="H32" s="70">
-        <v>44538</v>
-      </c>
-      <c r="I32" s="70">
-        <v>44539</v>
-      </c>
-      <c r="J32" s="70">
-        <v>44540</v>
-      </c>
-      <c r="K32" s="70">
-        <v>44541</v>
-      </c>
-      <c r="L32" s="70">
-        <v>44542</v>
-      </c>
-      <c r="M32" s="71"/>
-      <c r="Q32" s="128"/>
-      <c r="R32" s="129"/>
-      <c r="S32" s="129"/>
-      <c r="T32" s="129"/>
-    </row>
-    <row r="33" spans="6:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F33" s="65" t="s">
+      <c r="L33" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q33" s="109"/>
+      <c r="R33" s="110"/>
+      <c r="S33" s="110"/>
+      <c r="T33" s="110"/>
+    </row>
+    <row r="34" spans="6:20" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F34" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="G33" s="92" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="92" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="92" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" s="92" t="s">
-        <v>18</v>
-      </c>
-      <c r="K33" s="93" t="s">
-        <v>19</v>
-      </c>
-      <c r="L33" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="M33" s="99" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q33" s="128"/>
-      <c r="R33" s="129"/>
-      <c r="S33" s="129"/>
-      <c r="T33" s="129"/>
-    </row>
-    <row r="34" spans="6:20" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F34" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="G34" s="110" t="s">
-        <v>61</v>
-      </c>
-      <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="92"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="93"/>
-      <c r="M34" s="107"/>
-      <c r="Q34" s="131"/>
-      <c r="R34" s="129"/>
-      <c r="S34" s="129"/>
-      <c r="T34" s="129"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="89"/>
+      <c r="Q34" s="112"/>
+      <c r="R34" s="110"/>
+      <c r="S34" s="110"/>
+      <c r="T34" s="110"/>
     </row>
     <row r="35" spans="6:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F35" s="65" t="s">
+      <c r="F35" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35" s="105"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="98"/>
+      <c r="J35" s="99"/>
+      <c r="K35" s="98"/>
+      <c r="L35" s="106"/>
+      <c r="M35" s="56">
+        <f t="shared" ref="M35:M41" si="12">SUM(G35:L35)</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="109"/>
+      <c r="R35" s="110"/>
+      <c r="S35" s="110"/>
+      <c r="T35" s="110"/>
+    </row>
+    <row r="36" spans="6:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F36" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" s="107"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="6:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F37" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="107"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="6:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F38" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="107"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="56">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="6:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F39" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="G39" s="107"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="68"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="6:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F40" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="G40" s="107"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="69"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="6:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F41" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="G35" s="124"/>
-      <c r="H35" s="117"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="117"/>
-      <c r="K35" s="116"/>
-      <c r="L35" s="125"/>
-      <c r="M35" s="74">
-        <f t="shared" ref="M35:M41" si="12">SUM(G35:L35)</f>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="128"/>
-      <c r="R35" s="129"/>
-      <c r="S35" s="129"/>
-      <c r="T35" s="129"/>
-    </row>
-    <row r="36" spans="6:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F36" s="65" t="s">
+      <c r="G41" s="108"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="72"/>
+      <c r="K41" s="71"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="73">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="6:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F42" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="G42" s="58">
+        <f t="shared" ref="G42:M42" si="13">SUM(G35:G41)</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="58">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="58">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="58">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="58">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="66">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="67">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="6:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F43" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G43" s="58">
+        <f>G42</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="58">
+        <f t="shared" ref="H43" si="14">H42+G43</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="58">
+        <f t="shared" ref="I43" si="15">I42+H43</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="58">
+        <f t="shared" ref="J43" si="16">J42+I43</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="58">
+        <f t="shared" ref="K43" si="17">K42+J43</f>
+        <v>0</v>
+      </c>
+      <c r="L43" s="60">
+        <f t="shared" ref="L43" si="18">L42+K43</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="64"/>
+    </row>
+    <row r="44" spans="6:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F44" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="G36" s="126"/>
-      <c r="H36" s="86"/>
-      <c r="I36" s="86"/>
-      <c r="J36" s="87"/>
-      <c r="K36" s="86"/>
-      <c r="L36" s="74"/>
-      <c r="M36" s="74">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="6:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F37" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="G37" s="126"/>
-      <c r="H37" s="86"/>
-      <c r="I37" s="86"/>
-      <c r="J37" s="87"/>
-      <c r="K37" s="86"/>
-      <c r="L37" s="74"/>
-      <c r="M37" s="74">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="6:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F38" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" s="126"/>
-      <c r="H38" s="86"/>
-      <c r="I38" s="86"/>
-      <c r="J38" s="87"/>
-      <c r="K38" s="87"/>
-      <c r="L38" s="74"/>
-      <c r="M38" s="74">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="6:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F39" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="G39" s="126"/>
-      <c r="H39" s="86"/>
-      <c r="I39" s="86"/>
-      <c r="J39" s="87"/>
-      <c r="K39" s="86"/>
-      <c r="L39" s="74"/>
-      <c r="M39" s="74">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="6:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F40" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="G40" s="126"/>
-      <c r="H40" s="86"/>
-      <c r="I40" s="86"/>
-      <c r="J40" s="87"/>
-      <c r="K40" s="86"/>
-      <c r="L40" s="74"/>
-      <c r="M40" s="74">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="6:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F41" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="G41" s="127"/>
-      <c r="H41" s="89"/>
-      <c r="I41" s="89"/>
-      <c r="J41" s="90"/>
-      <c r="K41" s="89"/>
-      <c r="L41" s="91"/>
-      <c r="M41" s="91">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="6:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F42" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="G42" s="76">
-        <f t="shared" ref="G42:M42" si="13">SUM(G35:G41)</f>
-        <v>0</v>
-      </c>
-      <c r="H42" s="76">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="76">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="76">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="76">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L42" s="84">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M42" s="85">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="6:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F43" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="G43" s="76">
-        <f>G42</f>
-        <v>0</v>
-      </c>
-      <c r="H43" s="76">
-        <f t="shared" ref="H43" si="14">H42+G43</f>
-        <v>0</v>
-      </c>
-      <c r="I43" s="76">
-        <f t="shared" ref="I43" si="15">I42+H43</f>
-        <v>0</v>
-      </c>
-      <c r="J43" s="76">
-        <f t="shared" ref="J43" si="16">J42+I43</f>
-        <v>0</v>
-      </c>
-      <c r="K43" s="76">
-        <f t="shared" ref="K43" si="17">K42+J43</f>
-        <v>0</v>
-      </c>
-      <c r="L43" s="78">
-        <f t="shared" ref="L43" si="18">L42+K43</f>
-        <v>0</v>
-      </c>
-      <c r="M43" s="82"/>
-    </row>
-    <row r="44" spans="6:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F44" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="G44" s="79">
+      <c r="G44" s="61">
         <f t="shared" ref="G44:L44" si="19">42-G43</f>
         <v>42</v>
       </c>
-      <c r="H44" s="79">
+      <c r="H44" s="61">
         <f t="shared" si="19"/>
         <v>42</v>
       </c>
-      <c r="I44" s="79">
+      <c r="I44" s="61">
         <f t="shared" si="19"/>
         <v>42</v>
       </c>
-      <c r="J44" s="79">
+      <c r="J44" s="61">
         <f t="shared" si="19"/>
         <v>42</v>
       </c>
-      <c r="K44" s="79">
+      <c r="K44" s="61">
         <f t="shared" si="19"/>
         <v>42</v>
       </c>
-      <c r="L44" s="80">
+      <c r="L44" s="62">
         <f t="shared" si="19"/>
         <v>42</v>
       </c>
-      <c r="M44" s="81"/>
+      <c r="M44" s="63"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dokumentation/backlog/product_backlog.xlsx
+++ b/dokumentation/backlog/product_backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jou\Desktop\Ohtu\lukuvinkkikirjasto\dokumentation\backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96B053A-96FF-43F7-B853-6476DA76E690}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D12740C-17DA-4952-8A57-BB4D4B2B7260}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="3" xr2:uid="{FA14CCED-6E8A-4DE5-8793-904A69EC664A}"/>
   </bookViews>
@@ -1118,7 +1118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="112">
   <si>
     <t>Priority</t>
   </si>
@@ -1462,7 +1462,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$]dd/mm/yyyy;@" x16r2:formatCode16="[$-en-FI,1]dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$]dd/mm/yyyy;@" x16r2:formatCode16="[$-en-FI,1]dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -2072,7 +2072,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2109,14 +2109,14 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2128,7 +2128,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2167,10 +2167,10 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2221,15 +2221,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2274,7 +2274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2283,31 +2283,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2337,18 +2312,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2359,16 +2329,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2376,9 +2340,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2413,6 +2374,39 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3572,10 +3566,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3889,19 +3879,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="117" t="s">
+      <c r="A1" s="161" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="117" t="s">
+      <c r="C1" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="163" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="118" t="s">
+      <c r="E1" s="164" t="s">
         <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -3913,11 +3903,11 @@
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="116"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
+      <c r="A2" s="162"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
       <c r="G2" s="5"/>
       <c r="H2" s="6" t="s">
         <v>67</v>
@@ -3928,7 +3918,7 @@
       <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="179" t="s">
+      <c r="B3" s="156" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -3950,7 +3940,7 @@
       <c r="A4" s="14">
         <v>1</v>
       </c>
-      <c r="B4" s="179" t="s">
+      <c r="B4" s="156" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -3972,7 +3962,7 @@
       <c r="A5" s="15">
         <v>1</v>
       </c>
-      <c r="B5" s="180" t="s">
+      <c r="B5" s="157" t="s">
         <v>71</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -3998,7 +3988,7 @@
       <c r="D6" s="14">
         <v>2</v>
       </c>
-      <c r="E6" s="128" t="s">
+      <c r="E6" s="115" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4040,7 +4030,7 @@
       <c r="A9" s="14">
         <v>1</v>
       </c>
-      <c r="B9" s="179" t="s">
+      <c r="B9" s="156" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="14" t="s">
@@ -4057,7 +4047,7 @@
       <c r="A10" s="113">
         <v>2</v>
       </c>
-      <c r="B10" s="181" t="s">
+      <c r="B10" s="158" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="113" t="s">
@@ -4066,13 +4056,13 @@
       <c r="D10" s="113">
         <v>2</v>
       </c>
-      <c r="E10" s="129"/>
+      <c r="E10" s="116"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="15">
         <v>2</v>
       </c>
-      <c r="B11" s="176" t="s">
+      <c r="B11" s="153" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -4081,7 +4071,7 @@
       <c r="D11" s="15">
         <v>2</v>
       </c>
-      <c r="E11" s="130"/>
+      <c r="E11" s="117"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="14"/>
@@ -4092,7 +4082,7 @@
         <v>40</v>
       </c>
       <c r="D12" s="16"/>
-      <c r="E12" s="131"/>
+      <c r="E12" s="118"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="17"/>
@@ -4118,7 +4108,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="14"/>
-      <c r="B15" s="141" t="s">
+      <c r="B15" s="128" t="s">
         <v>73</v>
       </c>
       <c r="C15" s="14" t="s">
@@ -4158,7 +4148,7 @@
         <v>40</v>
       </c>
       <c r="D18" s="16"/>
-      <c r="E18" s="131"/>
+      <c r="E18" s="118"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="14"/>
@@ -4172,13 +4162,13 @@
       <c r="E19" s="114"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E20" s="132"/>
+      <c r="E20" s="119"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E21" s="132"/>
+      <c r="E21" s="119"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E22" s="132"/>
+      <c r="E22" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4245,10 +4235,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CCD2F30-7625-433A-B0F7-3F3EB70DD0E4}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4268,25 +4258,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A1" s="121" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="123" t="s">
+      <c r="A1" s="167" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="119" t="s">
+      <c r="D1" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="125" t="s">
+      <c r="E1" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="127" t="s">
+      <c r="F1" s="173" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="119" t="s">
+      <c r="G1" s="165" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="18" t="s">
@@ -4318,24 +4308,24 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A2" s="122"/>
-      <c r="B2" s="161"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="164">
-        <v>0</v>
-      </c>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
-      <c r="M2" s="165"/>
-      <c r="N2" s="165"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="165"/>
+      <c r="A2" s="168"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="142">
+        <v>0</v>
+      </c>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="143"/>
+      <c r="P2" s="143"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="32">
@@ -4356,10 +4346,10 @@
       <c r="F3" s="33">
         <v>44522</v>
       </c>
-      <c r="G3" s="166" t="s">
+      <c r="G3" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="155"/>
+      <c r="H3" s="137"/>
       <c r="I3" s="35">
         <f t="shared" ref="I3:O3" si="0">H3</f>
         <v>0</v>
@@ -4393,129 +4383,226 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A4" s="14"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="14" t="s">
+      <c r="A4" s="32">
+        <v>1</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="33">
         <v>44522</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="33">
         <v>44522</v>
       </c>
-      <c r="G4" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="39"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="167"/>
-      <c r="P4" s="24"/>
+      <c r="G4" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35">
+        <f t="shared" ref="I4:K4" si="1">H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="35">
+        <v>0</v>
+      </c>
+      <c r="M4" s="35">
+        <v>0</v>
+      </c>
+      <c r="N4" s="35">
+        <v>0</v>
+      </c>
+      <c r="O4" s="35">
+        <f t="shared" ref="O4:P4" si="2">N4</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="157"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="158"/>
-      <c r="P5" s="29"/>
+      <c r="A5" s="32">
+        <v>1</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="33">
+        <v>44522</v>
+      </c>
+      <c r="F5" s="33">
+        <v>44522</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35">
+        <f t="shared" ref="I5:P7" si="3">H5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A6" s="32">
-        <v>1</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="32" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="25">
         <v>44522</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="25">
         <v>44522</v>
       </c>
-      <c r="G6" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="35">
-        <f t="shared" ref="I6:K6" si="1">H6</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="35">
-        <v>0</v>
-      </c>
-      <c r="M6" s="35">
-        <v>0</v>
-      </c>
-      <c r="N6" s="35">
-        <v>0</v>
-      </c>
-      <c r="O6" s="35">
-        <f t="shared" ref="O6:P6" si="2">N6</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="36">
-        <f t="shared" si="2"/>
+      <c r="G6" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="13">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="30"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="25">
+        <v>44522</v>
+      </c>
+      <c r="F7" s="25">
+        <v>44522</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="24">
+        <f>H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="24">
+        <v>0</v>
+      </c>
+      <c r="K7" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="32">
-        <v>1</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>22</v>
+        <v>2</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>44</v>
       </c>
       <c r="D8" s="32" t="s">
         <v>4</v>
@@ -4527,196 +4614,37 @@
         <v>44522</v>
       </c>
       <c r="G8" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" s="34"/>
       <c r="I8" s="35">
-        <f t="shared" ref="I8:P10" si="3">H8</f>
+        <f t="shared" ref="I8" si="4">H8</f>
         <v>0</v>
       </c>
       <c r="J8" s="35">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K8" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="K8:P8" si="5">J8</f>
         <v>0</v>
       </c>
       <c r="L8" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M8" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N8" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O8" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P8" s="36">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="25">
-        <v>44522</v>
-      </c>
-      <c r="F9" s="25">
-        <v>44522</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="25">
-        <v>44522</v>
-      </c>
-      <c r="F10" s="25">
-        <v>44522</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="24">
-        <f>H10</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="24">
-        <v>0</v>
-      </c>
-      <c r="K10" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A11" s="32">
-        <v>2</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="33">
-        <v>44522</v>
-      </c>
-      <c r="F11" s="33">
-        <v>44522</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="34"/>
-      <c r="I11" s="35">
-        <f t="shared" ref="I11" si="4">H11</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="35">
-        <v>0</v>
-      </c>
-      <c r="K11" s="35">
-        <f t="shared" ref="K11:P11" si="5">J11</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="36">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4731,26 +4659,23 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:D11">
+  <conditionalFormatting sqref="D3:D8">
     <cfRule type="cellIs" dxfId="50" priority="1" operator="equal">
       <formula>"Not started"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D11">
+  <conditionalFormatting sqref="D3:D8">
     <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D11">
+  <conditionalFormatting sqref="D3:D8">
     <cfRule type="cellIs" dxfId="48" priority="3" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showDropDown="1" sqref="D5" xr:uid="{C2468C84-4683-40DE-A836-82BD3C7D3A70}">
-      <formula1>"Not started,In progress,Done"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D11 D6 D8:D10 D3:D4" xr:uid="{40512220-4D31-4A83-9DA0-3514B8B6DDBB}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="D8 D4 D5:D7 D3" xr:uid="{40512220-4D31-4A83-9DA0-3514B8B6DDBB}">
       <formula1>"Not started,In progress,Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4764,7 +4689,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4788,25 +4713,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A1" s="121" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="123" t="s">
+      <c r="A1" s="167" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="119" t="s">
+      <c r="D1" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="125" t="s">
+      <c r="E1" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="127" t="s">
+      <c r="F1" s="173" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="119" t="s">
+      <c r="G1" s="165" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="18" t="s">
@@ -4833,18 +4758,18 @@
       <c r="O1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="169" t="s">
+      <c r="P1" s="146" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="122"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
+      <c r="A2" s="168"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
       <c r="H2" s="20"/>
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
@@ -4852,7 +4777,7 @@
       <c r="L2" s="21"/>
       <c r="M2" s="21"/>
       <c r="N2" s="21"/>
-      <c r="O2" s="146"/>
+      <c r="O2" s="133"/>
       <c r="P2" s="21"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
@@ -4874,7 +4799,7 @@
       <c r="F3" s="22">
         <v>44525</v>
       </c>
-      <c r="G3" s="137" t="s">
+      <c r="G3" s="124" t="s">
         <v>62</v>
       </c>
       <c r="H3" s="39">
@@ -4919,7 +4844,7 @@
       <c r="D4" s="14"/>
       <c r="E4" s="25"/>
       <c r="F4" s="14"/>
-      <c r="G4" s="135"/>
+      <c r="G4" s="122"/>
       <c r="H4" s="39"/>
       <c r="I4" s="24"/>
       <c r="J4" s="24"/>
@@ -4927,11 +4852,11 @@
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
       <c r="N4" s="24"/>
-      <c r="O4" s="136"/>
+      <c r="O4" s="123"/>
       <c r="P4" s="24"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A5" s="138" t="s">
+      <c r="A5" s="125" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="37" t="s">
@@ -4952,7 +4877,7 @@
       <c r="G5" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="145">
+      <c r="H5" s="132">
         <v>3</v>
       </c>
       <c r="I5" s="35">
@@ -5006,7 +4931,7 @@
       <c r="P6" s="30"/>
     </row>
     <row r="7" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="138" t="s">
+      <c r="A7" s="125" t="s">
         <v>78</v>
       </c>
       <c r="B7" s="37" t="s">
@@ -5081,10 +5006,10 @@
       <c r="P8" s="30"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A9" s="138" t="s">
+      <c r="A9" s="125" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="133" t="s">
+      <c r="B9" s="120" t="s">
         <v>66</v>
       </c>
       <c r="C9" s="31" t="s">
@@ -5102,7 +5027,7 @@
       <c r="G9" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="145">
+      <c r="H9" s="132">
         <v>5.5</v>
       </c>
       <c r="I9" s="35">
@@ -5139,8 +5064,8 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A10" s="141"/>
-      <c r="B10" s="133"/>
+      <c r="A10" s="128"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="31" t="s">
         <v>96</v>
       </c>
@@ -5159,10 +5084,10 @@
       <c r="P10" s="13"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A11" s="138" t="s">
+      <c r="A11" s="125" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="138" t="s">
+      <c r="B11" s="125" t="s">
         <v>93</v>
       </c>
       <c r="C11" s="37" t="s">
@@ -5180,7 +5105,7 @@
       <c r="G11" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="145">
+      <c r="H11" s="132">
         <v>6</v>
       </c>
       <c r="I11" s="35">
@@ -5208,17 +5133,17 @@
         <v>2.5</v>
       </c>
       <c r="O11" s="35">
-        <f>N11-3</f>
-        <v>-0.5</v>
+        <f>N11-(2.5)</f>
+        <v>0</v>
       </c>
       <c r="P11" s="36">
         <f t="shared" ref="P11" si="13">O11</f>
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A12" s="141"/>
-      <c r="B12" s="141"/>
+      <c r="A12" s="128"/>
+      <c r="B12" s="128"/>
       <c r="C12" s="31"/>
       <c r="D12" s="14"/>
       <c r="E12" s="25"/>
@@ -5237,7 +5162,7 @@
       <c r="P12" s="13"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="125" t="s">
         <v>79</v>
       </c>
       <c r="B13" s="37" t="s">
@@ -5295,7 +5220,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A14" s="141"/>
+      <c r="A14" s="128"/>
       <c r="B14" s="31"/>
       <c r="C14" s="31" t="s">
         <v>85</v>
@@ -5306,7 +5231,7 @@
       <c r="E14" s="25">
         <v>44523</v>
       </c>
-      <c r="F14" s="144" t="s">
+      <c r="F14" s="131" t="s">
         <v>90</v>
       </c>
       <c r="G14" s="40"/>
@@ -5321,7 +5246,7 @@
       <c r="P14" s="13"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A15" s="141"/>
+      <c r="A15" s="128"/>
       <c r="B15" s="31"/>
       <c r="C15" s="31" t="s">
         <v>86</v>
@@ -5332,7 +5257,7 @@
       <c r="E15" s="25">
         <v>44523</v>
       </c>
-      <c r="F15" s="144" t="s">
+      <c r="F15" s="131" t="s">
         <v>90</v>
       </c>
       <c r="G15" s="40"/>
@@ -5347,20 +5272,20 @@
       <c r="P15" s="13"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="C16" s="168" t="s">
+      <c r="C16" s="145" t="s">
         <v>84</v>
       </c>
       <c r="D16" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="143">
+      <c r="E16" s="130">
         <v>44523</v>
       </c>
-      <c r="F16" s="142">
+      <c r="F16" s="129">
         <v>44525</v>
       </c>
-      <c r="G16" s="141"/>
-      <c r="H16" s="140"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="127"/>
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
       <c r="K16" s="24"/>
@@ -5371,7 +5296,7 @@
       <c r="P16" s="13"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A17" s="138" t="s">
+      <c r="A17" s="125" t="s">
         <v>79</v>
       </c>
       <c r="B17" s="37" t="s">
@@ -5392,44 +5317,44 @@
       <c r="G17" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="H17" s="145">
-        <v>3</v>
+      <c r="H17" s="132">
+        <v>2</v>
       </c>
       <c r="I17" s="35">
         <f>H17</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J17" s="35">
         <f>I17</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K17" s="35">
         <f t="shared" ref="K17" si="19">J17</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17" s="35">
         <f t="shared" ref="L17" si="20">K17</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M17" s="35">
         <f t="shared" ref="M17" si="21">L17</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N17" s="35">
         <f t="shared" ref="N17" si="22">M17</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O17" s="35">
         <f>N17-2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="36">
         <f t="shared" ref="P17" si="23">O17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="H18" s="140"/>
+      <c r="H18" s="127"/>
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
       <c r="K18" s="24"/>
@@ -5440,10 +5365,10 @@
       <c r="P18" s="13"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A19" s="138" t="s">
+      <c r="A19" s="125" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="138" t="s">
+      <c r="B19" s="125" t="s">
         <v>100</v>
       </c>
       <c r="C19" s="37" t="s">
@@ -5461,7 +5386,7 @@
       <c r="G19" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="145">
+      <c r="H19" s="132">
         <v>3</v>
       </c>
       <c r="I19" s="35">
@@ -5489,17 +5414,17 @@
         <v>3</v>
       </c>
       <c r="O19" s="35">
-        <f>N19-4</f>
-        <v>-1</v>
+        <f>N19-4+1</f>
+        <v>0</v>
       </c>
       <c r="P19" s="36">
         <f t="shared" ref="P19" si="28">O19</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A20" s="141"/>
-      <c r="B20" s="141"/>
+      <c r="A20" s="128"/>
+      <c r="B20" s="128"/>
       <c r="C20" s="31"/>
       <c r="D20" s="14"/>
       <c r="E20" s="25"/>
@@ -5516,7 +5441,7 @@
       <c r="P20" s="13"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A21" s="138" t="s">
+      <c r="A21" s="125" t="s">
         <v>98</v>
       </c>
       <c r="B21" s="37" t="s">
@@ -5537,7 +5462,7 @@
       <c r="G21" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="H21" s="145">
+      <c r="H21" s="132">
         <v>3</v>
       </c>
       <c r="I21" s="35">
@@ -5574,7 +5499,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="H22" s="140"/>
+      <c r="H22" s="127"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
@@ -5705,7 +5630,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5713,9 +5638,9 @@
     <col min="1" max="1" width="10.46484375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.86328125" customWidth="1"/>
     <col min="3" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.06640625" customWidth="1"/>
+    <col min="6" max="6" width="20.86328125" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" customWidth="1"/>
     <col min="8" max="8" width="7.796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.9296875" customWidth="1"/>
@@ -5729,25 +5654,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="123" t="s">
+      <c r="A1" s="178" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="119" t="s">
+      <c r="D1" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="125" t="s">
+      <c r="E1" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="127" t="s">
+      <c r="F1" s="173" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="119" t="s">
+      <c r="G1" s="165" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="18" t="s">
@@ -5771,40 +5696,40 @@
       <c r="N1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="170" t="s">
+      <c r="O1" s="147" t="s">
         <v>20</v>
       </c>
       <c r="P1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="183" t="s">
+      <c r="Q1" s="160" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A2" s="148"/>
-      <c r="B2" s="149"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="153"/>
-      <c r="Q2" s="171"/>
+      <c r="A2" s="179"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="143"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="148"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="121" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="37" t="s">
@@ -5819,10 +5744,10 @@
       <c r="F3" s="33">
         <v>44531</v>
       </c>
-      <c r="G3" s="154" t="s">
+      <c r="G3" s="136" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="155">
+      <c r="H3" s="137">
         <v>2.5</v>
       </c>
       <c r="I3" s="35">
@@ -5834,45 +5759,45 @@
         <v>2.5</v>
       </c>
       <c r="K3" s="35">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
+        <f>J3-(2.5)</f>
+        <v>0</v>
       </c>
       <c r="L3" s="35">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="M3" s="35">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="N3" s="35">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="O3" s="35">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="P3" s="35">
         <f>O3</f>
-        <v>2.5</v>
-      </c>
-      <c r="Q3" s="174">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="151">
         <f>P3</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="26"/>
-      <c r="B4" s="159"/>
-      <c r="C4" s="176"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="153"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="156"/>
+      <c r="E4" s="138"/>
       <c r="F4" s="15"/>
-      <c r="G4" s="175" t="s">
+      <c r="G4" s="152" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="139"/>
+      <c r="H4" s="126"/>
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
@@ -5881,13 +5806,13 @@
       <c r="N4" s="29"/>
       <c r="O4" s="29"/>
       <c r="P4" s="29"/>
-      <c r="Q4" s="173"/>
+      <c r="Q4" s="150"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="134" t="s">
+      <c r="B5" s="121" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="37" t="s">
@@ -5902,10 +5827,10 @@
       <c r="F5" s="33">
         <v>44531</v>
       </c>
-      <c r="G5" s="154" t="s">
+      <c r="G5" s="136" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="155">
+      <c r="H5" s="137">
         <v>2.5</v>
       </c>
       <c r="I5" s="35">
@@ -5917,45 +5842,45 @@
         <v>2.5</v>
       </c>
       <c r="K5" s="35">
-        <f t="shared" ref="K5" si="3">J5</f>
-        <v>2.5</v>
+        <f>J5-(2.5)</f>
+        <v>0</v>
       </c>
       <c r="L5" s="35">
-        <f t="shared" ref="L5" si="4">K5</f>
-        <v>2.5</v>
+        <f t="shared" ref="L5" si="3">K5</f>
+        <v>0</v>
       </c>
       <c r="M5" s="35">
-        <f t="shared" ref="M5" si="5">L5</f>
-        <v>2.5</v>
+        <f t="shared" ref="M5" si="4">L5</f>
+        <v>0</v>
       </c>
       <c r="N5" s="35">
-        <f t="shared" ref="N5" si="6">M5</f>
-        <v>2.5</v>
+        <f t="shared" ref="N5" si="5">M5</f>
+        <v>0</v>
       </c>
       <c r="O5" s="24">
-        <f t="shared" ref="O5" si="7">N5</f>
-        <v>2.5</v>
+        <f t="shared" ref="O5" si="6">N5</f>
+        <v>0</v>
       </c>
       <c r="P5" s="35">
         <f>O5</f>
-        <v>2.5</v>
-      </c>
-      <c r="Q5" s="174">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="151">
         <f>P5</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="26"/>
-      <c r="B6" s="159"/>
-      <c r="C6" s="176"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="153"/>
       <c r="D6" s="15"/>
-      <c r="E6" s="156"/>
+      <c r="E6" s="138"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="175" t="s">
+      <c r="G6" s="152" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="139"/>
+      <c r="H6" s="126"/>
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
       <c r="K6" s="29"/>
@@ -5964,13 +5889,13 @@
       <c r="N6" s="29"/>
       <c r="O6" s="24"/>
       <c r="P6" s="29"/>
-      <c r="Q6" s="172"/>
+      <c r="Q6" s="149"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="121" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="37" t="s">
@@ -5985,58 +5910,58 @@
       <c r="F7" s="33">
         <v>44531</v>
       </c>
-      <c r="G7" s="154" t="s">
+      <c r="G7" s="136" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="155">
+      <c r="H7" s="137">
         <v>4</v>
       </c>
       <c r="I7" s="35">
-        <f t="shared" ref="I7" si="8">H7</f>
+        <f t="shared" ref="I7" si="7">H7</f>
         <v>4</v>
       </c>
       <c r="J7" s="35">
-        <f t="shared" ref="J7" si="9">I7</f>
+        <f t="shared" ref="J7" si="8">I7</f>
         <v>4</v>
       </c>
       <c r="K7" s="35">
-        <f t="shared" ref="K7" si="10">J7</f>
-        <v>4</v>
+        <f>J7-4</f>
+        <v>0</v>
       </c>
       <c r="L7" s="35">
-        <f t="shared" ref="L7" si="11">K7</f>
-        <v>4</v>
+        <f t="shared" ref="L7" si="9">K7</f>
+        <v>0</v>
       </c>
       <c r="M7" s="35">
-        <f t="shared" ref="M7" si="12">L7</f>
-        <v>4</v>
+        <f t="shared" ref="M7" si="10">L7</f>
+        <v>0</v>
       </c>
       <c r="N7" s="35">
-        <f t="shared" ref="N7" si="13">M7</f>
-        <v>4</v>
+        <f t="shared" ref="N7" si="11">M7</f>
+        <v>0</v>
       </c>
       <c r="O7" s="35">
-        <f t="shared" ref="O7" si="14">N7</f>
-        <v>4</v>
+        <f t="shared" ref="O7" si="12">N7</f>
+        <v>0</v>
       </c>
       <c r="P7" s="35">
         <f>O7</f>
-        <v>4</v>
-      </c>
-      <c r="Q7" s="174">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="151">
         <f>P7</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="26"/>
-      <c r="B8" s="159"/>
-      <c r="C8" s="176"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="153"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="156"/>
+      <c r="E8" s="138"/>
       <c r="F8" s="15"/>
-      <c r="G8" s="157"/>
-      <c r="H8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="126"/>
       <c r="I8" s="29"/>
       <c r="J8" s="29"/>
       <c r="K8" s="29"/>
@@ -6045,13 +5970,13 @@
       <c r="N8" s="29"/>
       <c r="O8" s="29"/>
       <c r="P8" s="29"/>
-      <c r="Q8" s="173"/>
+      <c r="Q8" s="150"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="134" t="s">
+      <c r="B9" s="121" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="37" t="s">
@@ -6066,52 +5991,52 @@
       <c r="F9" s="33">
         <v>44525</v>
       </c>
-      <c r="G9" s="154" t="s">
+      <c r="G9" s="136" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="155">
-        <v>3</v>
+      <c r="H9" s="137">
+        <v>5</v>
       </c>
       <c r="I9" s="35">
-        <f t="shared" ref="I9" si="15">H9</f>
-        <v>3</v>
+        <f t="shared" ref="I9" si="13">H9</f>
+        <v>5</v>
       </c>
       <c r="J9" s="35">
-        <f t="shared" ref="J9" si="16">I9</f>
-        <v>3</v>
+        <f t="shared" ref="J9" si="14">I9</f>
+        <v>5</v>
       </c>
       <c r="K9" s="35">
-        <f t="shared" ref="K9" si="17">J9</f>
-        <v>3</v>
+        <f t="shared" ref="K9" si="15">J9</f>
+        <v>5</v>
       </c>
       <c r="L9" s="35">
-        <f t="shared" ref="L9" si="18">K9</f>
-        <v>3</v>
+        <f t="shared" ref="L9" si="16">K9</f>
+        <v>5</v>
       </c>
       <c r="M9" s="35">
-        <f t="shared" ref="M9" si="19">L9</f>
-        <v>3</v>
+        <f t="shared" ref="M9" si="17">L9</f>
+        <v>5</v>
       </c>
       <c r="N9" s="35">
-        <f t="shared" ref="N9" si="20">M9</f>
-        <v>3</v>
+        <f t="shared" ref="N9" si="18">M9</f>
+        <v>5</v>
       </c>
       <c r="O9" s="24">
-        <f t="shared" ref="O9" si="21">N9</f>
-        <v>3</v>
+        <f t="shared" ref="O9" si="19">N9</f>
+        <v>5</v>
       </c>
       <c r="P9" s="35">
         <f>O9</f>
-        <v>3</v>
-      </c>
-      <c r="Q9" s="174">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="151">
         <f>P9</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" s="31"/>
-      <c r="B10" s="133"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="31"/>
       <c r="D10" s="14"/>
       <c r="E10" s="25"/>
@@ -6128,19 +6053,19 @@
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
       <c r="P10" s="24"/>
-      <c r="Q10" s="172"/>
+      <c r="Q10" s="149"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" s="26"/>
-      <c r="B11" s="159"/>
-      <c r="C11" s="176"/>
+      <c r="B11" s="140"/>
+      <c r="C11" s="153"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="156"/>
+      <c r="E11" s="138"/>
       <c r="F11" s="15"/>
-      <c r="G11" s="175" t="s">
+      <c r="G11" s="152" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="139"/>
+      <c r="H11" s="126"/>
       <c r="I11" s="29"/>
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
@@ -6149,77 +6074,79 @@
       <c r="N11" s="29"/>
       <c r="O11" s="24"/>
       <c r="P11" s="29"/>
-      <c r="Q11" s="172"/>
+      <c r="Q11" s="149"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="138" t="s">
+      <c r="B12" s="125" t="s">
         <v>101</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>111</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="E12" s="33">
         <v>44529</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="154" t="s">
+      <c r="F12" s="33">
+        <v>44531</v>
+      </c>
+      <c r="G12" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="155">
+      <c r="H12" s="137">
         <v>4</v>
       </c>
       <c r="I12" s="35">
-        <f t="shared" ref="I12" si="22">H12</f>
+        <f t="shared" ref="I12" si="20">H12</f>
         <v>4</v>
       </c>
       <c r="J12" s="35">
-        <f t="shared" ref="J12" si="23">I12</f>
+        <f t="shared" ref="J12" si="21">I12</f>
         <v>4</v>
       </c>
       <c r="K12" s="35">
-        <f t="shared" ref="K12" si="24">J12</f>
-        <v>4</v>
+        <f>J12-4</f>
+        <v>0</v>
       </c>
       <c r="L12" s="35">
-        <f t="shared" ref="L12" si="25">K12</f>
-        <v>4</v>
+        <f t="shared" ref="L12" si="22">K12</f>
+        <v>0</v>
       </c>
       <c r="M12" s="35">
-        <f t="shared" ref="M12" si="26">L12</f>
-        <v>4</v>
+        <f t="shared" ref="M12" si="23">L12</f>
+        <v>0</v>
       </c>
       <c r="N12" s="35">
-        <f t="shared" ref="N12" si="27">M12</f>
-        <v>4</v>
+        <f t="shared" ref="N12" si="24">M12</f>
+        <v>0</v>
       </c>
       <c r="O12" s="35">
-        <f t="shared" ref="O12" si="28">N12</f>
-        <v>4</v>
+        <f t="shared" ref="O12" si="25">N12</f>
+        <v>0</v>
       </c>
       <c r="P12" s="35">
         <f>O12</f>
-        <v>4</v>
-      </c>
-      <c r="Q12" s="174">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="151">
         <f>P12</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" s="26"/>
-      <c r="B13" s="159"/>
-      <c r="C13" s="176"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="153"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="156"/>
+      <c r="E13" s="138"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="157"/>
-      <c r="H13" s="139"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="126"/>
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
@@ -6228,13 +6155,13 @@
       <c r="N13" s="29"/>
       <c r="O13" s="29"/>
       <c r="P13" s="29"/>
-      <c r="Q13" s="173"/>
+      <c r="Q13" s="150"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="160" t="s">
+      <c r="B14" s="141" t="s">
         <v>108</v>
       </c>
       <c r="C14" s="31" t="s">
@@ -6246,25 +6173,25 @@
       <c r="E14" s="33">
         <v>44529</v>
       </c>
-      <c r="F14" s="182">
+      <c r="F14" s="159">
         <v>44533</v>
       </c>
       <c r="G14" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="155">
+      <c r="H14" s="137">
         <v>4</v>
       </c>
       <c r="I14" s="35">
-        <f t="shared" ref="I14" si="29">H14</f>
+        <f t="shared" ref="I14" si="26">H14</f>
         <v>4</v>
       </c>
       <c r="J14" s="35">
-        <f t="shared" ref="J14" si="30">I14</f>
+        <f t="shared" ref="J14" si="27">I14</f>
         <v>4</v>
       </c>
       <c r="K14" s="35">
-        <f t="shared" ref="K14" si="31">J14</f>
+        <f t="shared" ref="K14" si="28">J14</f>
         <v>4</v>
       </c>
       <c r="L14" s="35">
@@ -6276,25 +6203,25 @@
         <v>4</v>
       </c>
       <c r="N14" s="35">
-        <f t="shared" ref="N14" si="32">M14</f>
+        <f t="shared" ref="N14" si="29">M14</f>
         <v>4</v>
       </c>
       <c r="O14" s="35">
-        <f t="shared" ref="O14" si="33">N14</f>
+        <f t="shared" ref="O14" si="30">N14</f>
         <v>4</v>
       </c>
       <c r="P14" s="35">
-        <f>O14-(3.6)</f>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="Q14" s="174">
+        <f>O14-4</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="151">
         <f>P14</f>
-        <v>0.39999999999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" s="16"/>
-      <c r="B15" s="160"/>
+      <c r="B15" s="141"/>
       <c r="C15" s="31" t="s">
         <v>85</v>
       </c>
@@ -6304,10 +6231,10 @@
       <c r="E15" s="25">
         <v>44523</v>
       </c>
-      <c r="F15" s="182">
+      <c r="F15" s="159">
         <v>44536</v>
       </c>
-      <c r="G15" s="135"/>
+      <c r="G15" s="122"/>
       <c r="H15" s="39"/>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
@@ -6317,11 +6244,11 @@
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
-      <c r="Q15" s="172"/>
+      <c r="Q15" s="149"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" s="16"/>
-      <c r="B16" s="160"/>
+      <c r="B16" s="141"/>
       <c r="C16" s="31" t="s">
         <v>86</v>
       </c>
@@ -6331,10 +6258,10 @@
       <c r="E16" s="25">
         <v>44523</v>
       </c>
-      <c r="F16" s="182">
+      <c r="F16" s="159">
         <v>44536</v>
       </c>
-      <c r="G16" s="135"/>
+      <c r="G16" s="122"/>
       <c r="H16" s="39"/>
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
@@ -6344,12 +6271,12 @@
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
-      <c r="Q16" s="172"/>
+      <c r="Q16" s="149"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" s="16"/>
-      <c r="B17" s="160"/>
-      <c r="C17" s="141" t="s">
+      <c r="B17" s="141"/>
+      <c r="C17" s="128" t="s">
         <v>110</v>
       </c>
       <c r="D17" s="32" t="s">
@@ -6358,10 +6285,10 @@
       <c r="E17" s="25">
         <v>44532</v>
       </c>
-      <c r="F17" s="182">
+      <c r="F17" s="159">
         <v>44536</v>
       </c>
-      <c r="G17" s="135"/>
+      <c r="G17" s="122"/>
       <c r="H17" s="39"/>
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
@@ -6371,13 +6298,13 @@
       <c r="N17" s="24"/>
       <c r="O17" s="24"/>
       <c r="P17" s="24"/>
-      <c r="Q17" s="172"/>
+      <c r="Q17" s="149"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="134" t="s">
+      <c r="B18" s="121" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="37"/>
@@ -6388,56 +6315,56 @@
         <v>44529</v>
       </c>
       <c r="F18" s="33"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="177">
+      <c r="G18" s="136"/>
+      <c r="H18" s="154">
         <v>2</v>
       </c>
       <c r="I18" s="35">
-        <f t="shared" ref="I18" si="34">H18</f>
+        <f t="shared" ref="I18" si="31">H18</f>
         <v>2</v>
       </c>
       <c r="J18" s="35">
-        <f t="shared" ref="J18" si="35">I18</f>
+        <f t="shared" ref="J18" si="32">I18</f>
         <v>2</v>
       </c>
       <c r="K18" s="35">
-        <f t="shared" ref="K18" si="36">J18</f>
+        <f t="shared" ref="K18" si="33">J18</f>
         <v>2</v>
       </c>
       <c r="L18" s="35">
-        <f t="shared" ref="L18" si="37">K18</f>
+        <f t="shared" ref="L18" si="34">K18</f>
         <v>2</v>
       </c>
       <c r="M18" s="35">
-        <f t="shared" ref="M18" si="38">L18</f>
+        <f t="shared" ref="M18" si="35">L18</f>
         <v>2</v>
       </c>
       <c r="N18" s="35">
-        <f t="shared" ref="N18" si="39">M18</f>
+        <f t="shared" ref="N18" si="36">M18</f>
         <v>2</v>
       </c>
       <c r="O18" s="35">
-        <f t="shared" ref="O18" si="40">N18</f>
+        <f t="shared" ref="O18" si="37">N18</f>
         <v>2</v>
       </c>
       <c r="P18" s="35">
         <f>O18</f>
         <v>2</v>
       </c>
-      <c r="Q18" s="174">
+      <c r="Q18" s="151">
         <f>P18</f>
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19" s="16"/>
-      <c r="B19" s="160"/>
-      <c r="C19" s="176"/>
+      <c r="B19" s="141"/>
+      <c r="C19" s="153"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="156"/>
+      <c r="E19" s="138"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="139"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="126"/>
       <c r="I19" s="29"/>
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
@@ -6446,13 +6373,13 @@
       <c r="N19" s="29"/>
       <c r="O19" s="24"/>
       <c r="P19" s="29"/>
-      <c r="Q19" s="172"/>
+      <c r="Q19" s="149"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="134" t="s">
+      <c r="B20" s="121" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="38"/>
@@ -6464,42 +6391,42 @@
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="40"/>
-      <c r="H20" s="178">
+      <c r="H20" s="155">
         <v>2</v>
       </c>
       <c r="I20" s="12">
-        <f t="shared" ref="I20" si="41">H20</f>
+        <f t="shared" ref="I20" si="38">H20</f>
         <v>2</v>
       </c>
       <c r="J20" s="12">
-        <f t="shared" ref="J20" si="42">I20</f>
+        <f t="shared" ref="J20" si="39">I20</f>
         <v>2</v>
       </c>
       <c r="K20" s="12">
-        <f t="shared" ref="K20" si="43">J20</f>
+        <f t="shared" ref="K20" si="40">J20</f>
         <v>2</v>
       </c>
       <c r="L20" s="12">
-        <f t="shared" ref="L20" si="44">K20</f>
+        <f t="shared" ref="L20" si="41">K20</f>
         <v>2</v>
       </c>
       <c r="M20" s="12">
-        <f t="shared" ref="M20" si="45">L20</f>
+        <f t="shared" ref="M20" si="42">L20</f>
         <v>2</v>
       </c>
       <c r="N20" s="12">
-        <f t="shared" ref="N20" si="46">M20</f>
+        <f t="shared" ref="N20" si="43">M20</f>
         <v>2</v>
       </c>
       <c r="O20" s="35">
-        <f t="shared" ref="O20" si="47">N20</f>
+        <f t="shared" ref="O20" si="44">N20</f>
         <v>2</v>
       </c>
       <c r="P20" s="35">
         <f>O20</f>
         <v>2</v>
       </c>
-      <c r="Q20" s="174">
+      <c r="Q20" s="151">
         <f>P20</f>
         <v>2</v>
       </c>
@@ -6509,7 +6436,7 @@
       <c r="D21" s="14"/>
       <c r="E21" s="25"/>
       <c r="F21" s="14"/>
-      <c r="G21" s="135"/>
+      <c r="G21" s="122"/>
       <c r="H21" s="39"/>
       <c r="I21" s="24"/>
       <c r="J21" s="24"/>
@@ -6519,13 +6446,13 @@
       <c r="N21" s="24"/>
       <c r="O21" s="24"/>
       <c r="P21" s="24"/>
-      <c r="Q21" s="172"/>
+      <c r="Q21" s="149"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="138" t="s">
+      <c r="B22" s="125" t="s">
         <v>107</v>
       </c>
       <c r="C22" s="37"/>
@@ -6536,43 +6463,43 @@
         <v>44529</v>
       </c>
       <c r="F22" s="33"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="177">
+      <c r="G22" s="136"/>
+      <c r="H22" s="154">
         <v>2</v>
       </c>
       <c r="I22" s="35">
-        <f t="shared" ref="I22" si="48">H22</f>
+        <f t="shared" ref="I22" si="45">H22</f>
         <v>2</v>
       </c>
       <c r="J22" s="35">
-        <f t="shared" ref="J22" si="49">I22</f>
+        <f t="shared" ref="J22" si="46">I22</f>
         <v>2</v>
       </c>
       <c r="K22" s="35">
-        <f t="shared" ref="K22" si="50">J22</f>
+        <f t="shared" ref="K22" si="47">J22</f>
         <v>2</v>
       </c>
       <c r="L22" s="35">
-        <f t="shared" ref="L22" si="51">K22</f>
+        <f t="shared" ref="L22" si="48">K22</f>
         <v>2</v>
       </c>
       <c r="M22" s="35">
-        <f t="shared" ref="M22" si="52">L22</f>
+        <f t="shared" ref="M22" si="49">L22</f>
         <v>2</v>
       </c>
       <c r="N22" s="35">
-        <f t="shared" ref="N22" si="53">M22</f>
+        <f t="shared" ref="N22" si="50">M22</f>
         <v>2</v>
       </c>
       <c r="O22" s="35">
-        <f t="shared" ref="O22" si="54">N22</f>
+        <f t="shared" ref="O22" si="51">N22</f>
         <v>2</v>
       </c>
       <c r="P22" s="35">
         <f>O22</f>
         <v>2</v>
       </c>
-      <c r="Q22" s="174">
+      <c r="Q22" s="151">
         <f>P22</f>
         <v>2</v>
       </c>
@@ -6582,7 +6509,7 @@
       <c r="D23" s="14"/>
       <c r="E23" s="25"/>
       <c r="F23" s="14"/>
-      <c r="G23" s="135"/>
+      <c r="G23" s="122"/>
       <c r="H23" s="39"/>
       <c r="I23" s="24"/>
       <c r="J23" s="24"/>
@@ -6592,7 +6519,7 @@
       <c r="N23" s="24"/>
       <c r="O23" s="24"/>
       <c r="P23" s="24"/>
-      <c r="Q23" s="172"/>
+      <c r="Q23" s="149"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="C24" s="38"/>
@@ -6731,17 +6658,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"Not started"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6760,10 +6687,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED251E3-6BA1-4669-9F96-81959B6FFDC5}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6771,163 +6698,144 @@
     <col min="1" max="1" width="9.53125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.9296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.9296875" customWidth="1"/>
     <col min="5" max="5" width="15.86328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.3984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.19921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.9296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.86328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.73046875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.9296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.9296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.86328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.73046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.9296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="121" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="123" t="s">
+    <row r="1" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="167" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="119" t="s">
+      <c r="D1" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="125" t="s">
+      <c r="E1" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="127" t="s">
+      <c r="F1" s="173" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="119" t="s">
+      <c r="G1" s="165" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="18" t="s">
         <v>13</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N1" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="122"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
+      <c r="O1" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="168"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
       <c r="H2" s="20"/>
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
       <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="21"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="N2" s="133"/>
+      <c r="O2" s="21"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>88</v>
-      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="22">
-        <v>44522</v>
-      </c>
-      <c r="F3" s="22">
-        <v>44525</v>
-      </c>
-      <c r="G3" s="137" t="s">
-        <v>62</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="124"/>
       <c r="H3" s="39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" s="12">
-        <f t="shared" ref="I3:O3" si="0">H3</f>
-        <v>3</v>
+        <f>H3</f>
+        <v>0</v>
       </c>
       <c r="J3" s="12">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" ref="J3:N3" si="0">I3</f>
+        <v>0</v>
       </c>
       <c r="K3" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L3" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M3" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N3" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O3" s="12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="P3" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="O3" s="13">
+        <f>N3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="25"/>
       <c r="F4" s="14"/>
-      <c r="G4" s="135"/>
+      <c r="G4" s="122"/>
       <c r="H4" s="39"/>
       <c r="I4" s="24"/>
       <c r="J4" s="24"/>
       <c r="K4" s="24"/>
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="136"/>
-      <c r="P4" s="24"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6940,17 +6848,17 @@
     <mergeCell ref="F1:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D4">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Not started"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D4">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D4">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/dokumentation/backlog/product_backlog.xlsx
+++ b/dokumentation/backlog/product_backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jou\Desktop\Ohtu\lukuvinkkikirjasto\dokumentation\backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D12740C-17DA-4952-8A57-BB4D4B2B7260}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6CDA70-68BA-4BE2-8968-0F375DEEF453}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="3" xr2:uid="{FA14CCED-6E8A-4DE5-8793-904A69EC664A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="5" xr2:uid="{FA14CCED-6E8A-4DE5-8793-904A69EC664A}"/>
   </bookViews>
   <sheets>
     <sheet name="Product backlog" sheetId="1" r:id="rId1"/>
@@ -294,6 +294,30 @@
           </rPr>
           <t xml:space="preserve">
 Dokumentoinni kirjausta</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M7" authorId="0" shapeId="0" xr:uid="{C34557E8-5877-43FF-9768-2721734E4119}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jou:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Dokumentoinnin tekoa</t>
         </r>
       </text>
     </comment>
@@ -1551,7 +1575,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1610,6 +1634,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor rgb="FFFCE5CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2072,7 +2102,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2238,7 +2268,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2263,7 +2292,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2374,6 +2402,9 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2407,6 +2438,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3566,6 +3599,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3879,19 +3916,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="161" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="163" t="s">
+      <c r="A1" s="160" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="163" t="s">
+      <c r="C1" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="163" t="s">
+      <c r="D1" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="164" t="s">
+      <c r="E1" s="163" t="s">
         <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -3903,11 +3940,11 @@
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="162"/>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
+      <c r="A2" s="161"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
       <c r="G2" s="5"/>
       <c r="H2" s="6" t="s">
         <v>67</v>
@@ -3918,7 +3955,7 @@
       <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="156" t="s">
+      <c r="B3" s="154" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -3927,7 +3964,7 @@
       <c r="D3" s="14">
         <v>1</v>
       </c>
-      <c r="E3" s="114" t="s">
+      <c r="E3" s="112" t="s">
         <v>75</v>
       </c>
       <c r="G3" s="5"/>
@@ -3940,7 +3977,7 @@
       <c r="A4" s="14">
         <v>1</v>
       </c>
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="154" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -3949,7 +3986,7 @@
       <c r="D4" s="14">
         <v>1</v>
       </c>
-      <c r="E4" s="114" t="s">
+      <c r="E4" s="112" t="s">
         <v>75</v>
       </c>
       <c r="G4" s="8"/>
@@ -3962,7 +3999,7 @@
       <c r="A5" s="15">
         <v>1</v>
       </c>
-      <c r="B5" s="157" t="s">
+      <c r="B5" s="155" t="s">
         <v>71</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -3971,7 +4008,7 @@
       <c r="D5" s="15">
         <v>1</v>
       </c>
-      <c r="E5" s="114" t="s">
+      <c r="E5" s="112" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3988,7 +4025,7 @@
       <c r="D6" s="14">
         <v>2</v>
       </c>
-      <c r="E6" s="115" t="s">
+      <c r="E6" s="113" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4005,7 +4042,7 @@
       <c r="D7" s="14">
         <v>2</v>
       </c>
-      <c r="E7" s="114" t="s">
+      <c r="E7" s="112" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4022,7 +4059,7 @@
       <c r="D8" s="14">
         <v>2</v>
       </c>
-      <c r="E8" s="114" t="s">
+      <c r="E8" s="112" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4030,7 +4067,7 @@
       <c r="A9" s="14">
         <v>1</v>
       </c>
-      <c r="B9" s="156" t="s">
+      <c r="B9" s="154" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="14" t="s">
@@ -4039,30 +4076,30 @@
       <c r="D9" s="14">
         <v>2</v>
       </c>
-      <c r="E9" s="114" t="s">
+      <c r="E9" s="112" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="113">
+      <c r="A10" s="111">
         <v>2</v>
       </c>
-      <c r="B10" s="158" t="s">
+      <c r="B10" s="156" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="113" t="s">
+      <c r="C10" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="113">
+      <c r="D10" s="111">
         <v>2</v>
       </c>
-      <c r="E10" s="116"/>
+      <c r="E10" s="114"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="15">
         <v>2</v>
       </c>
-      <c r="B11" s="153" t="s">
+      <c r="B11" s="151" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -4071,7 +4108,7 @@
       <c r="D11" s="15">
         <v>2</v>
       </c>
-      <c r="E11" s="117"/>
+      <c r="E11" s="115"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="14"/>
@@ -4082,7 +4119,7 @@
         <v>40</v>
       </c>
       <c r="D12" s="16"/>
-      <c r="E12" s="118"/>
+      <c r="E12" s="116"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="17"/>
@@ -4093,7 +4130,7 @@
         <v>40</v>
       </c>
       <c r="D13" s="14"/>
-      <c r="E13" s="114"/>
+      <c r="E13" s="112"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="14"/>
@@ -4104,18 +4141,18 @@
         <v>40</v>
       </c>
       <c r="D14" s="14"/>
-      <c r="E14" s="114"/>
+      <c r="E14" s="112"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="14"/>
-      <c r="B15" s="128" t="s">
+      <c r="B15" s="126" t="s">
         <v>73</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="14"/>
-      <c r="E15" s="114"/>
+      <c r="E15" s="112"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="14"/>
@@ -4126,7 +4163,7 @@
         <v>40</v>
       </c>
       <c r="D16" s="14"/>
-      <c r="E16" s="114"/>
+      <c r="E16" s="112"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="14"/>
@@ -4137,7 +4174,7 @@
         <v>40</v>
       </c>
       <c r="D17" s="14"/>
-      <c r="E17" s="114"/>
+      <c r="E17" s="112"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="14"/>
@@ -4148,7 +4185,7 @@
         <v>40</v>
       </c>
       <c r="D18" s="16"/>
-      <c r="E18" s="118"/>
+      <c r="E18" s="116"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="14"/>
@@ -4159,16 +4196,16 @@
         <v>40</v>
       </c>
       <c r="D19" s="14"/>
-      <c r="E19" s="114"/>
+      <c r="E19" s="112"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E20" s="119"/>
+      <c r="E20" s="117"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E21" s="119"/>
+      <c r="E21" s="117"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E22" s="119"/>
+      <c r="E22" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4238,7 +4275,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4258,25 +4295,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A1" s="167" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="169" t="s">
+      <c r="A1" s="166" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="165" t="s">
+      <c r="C1" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="165" t="s">
+      <c r="D1" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="171" t="s">
+      <c r="E1" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="173" t="s">
+      <c r="F1" s="172" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="165" t="s">
+      <c r="G1" s="164" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="18" t="s">
@@ -4308,24 +4345,24 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A2" s="168"/>
-      <c r="B2" s="170"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="142">
-        <v>0</v>
-      </c>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="143"/>
-      <c r="P2" s="143"/>
+      <c r="A2" s="167"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="140">
+        <v>0</v>
+      </c>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="141"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="141"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="32">
@@ -4346,41 +4383,18 @@
       <c r="F3" s="33">
         <v>44522</v>
       </c>
-      <c r="G3" s="144" t="s">
+      <c r="G3" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="137"/>
-      <c r="I3" s="35">
-        <f t="shared" ref="I3:O3" si="0">H3</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K3" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L3" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M3" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N3" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O3" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P3" s="36">
-        <v>0</v>
-      </c>
+      <c r="H3" s="135"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="36"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="32">
@@ -4405,35 +4419,14 @@
         <v>52</v>
       </c>
       <c r="H4" s="34"/>
-      <c r="I4" s="35">
-        <f t="shared" ref="I4:K4" si="1">H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L4" s="35">
-        <v>0</v>
-      </c>
-      <c r="M4" s="35">
-        <v>0</v>
-      </c>
-      <c r="N4" s="35">
-        <v>0</v>
-      </c>
-      <c r="O4" s="35">
-        <f t="shared" ref="O4:P4" si="2">N4</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="36">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="36"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" s="32">
@@ -4458,38 +4451,14 @@
         <v>46</v>
       </c>
       <c r="H5" s="34"/>
-      <c r="I5" s="35">
-        <f t="shared" ref="I5:P7" si="3">H5</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="36">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" s="16"/>
@@ -4510,38 +4479,14 @@
         <v>46</v>
       </c>
       <c r="H6" s="11"/>
-      <c r="I6" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="13"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="16"/>
@@ -4562,37 +4507,14 @@
         <v>46</v>
       </c>
       <c r="H7" s="11"/>
-      <c r="I7" s="24">
-        <f>H7</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="24">
-        <v>0</v>
-      </c>
-      <c r="K7" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="13"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="32">
@@ -4617,37 +4539,14 @@
         <v>45</v>
       </c>
       <c r="H8" s="34"/>
-      <c r="I8" s="35">
-        <f t="shared" ref="I8" si="4">H8</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="35">
-        <v>0</v>
-      </c>
-      <c r="K8" s="35">
-        <f t="shared" ref="K8:P8" si="5">J8</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="36">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4697,7 +4596,7 @@
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="38.9296875" customWidth="1"/>
     <col min="3" max="3" width="51.3984375" customWidth="1"/>
-    <col min="4" max="4" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" customWidth="1"/>
     <col min="5" max="5" width="21.53125" customWidth="1"/>
     <col min="6" max="6" width="19.796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
@@ -4713,25 +4612,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A1" s="167" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="169" t="s">
+      <c r="A1" s="166" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="165" t="s">
+      <c r="C1" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="165" t="s">
+      <c r="D1" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="171" t="s">
+      <c r="E1" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="173" t="s">
+      <c r="F1" s="172" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="165" t="s">
+      <c r="G1" s="164" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="18" t="s">
@@ -4758,18 +4657,18 @@
       <c r="O1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="146" t="s">
+      <c r="P1" s="144" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="168"/>
-      <c r="B2" s="175"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
+      <c r="A2" s="167"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
       <c r="H2" s="20"/>
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
@@ -4777,7 +4676,7 @@
       <c r="L2" s="21"/>
       <c r="M2" s="21"/>
       <c r="N2" s="21"/>
-      <c r="O2" s="133"/>
+      <c r="O2" s="131"/>
       <c r="P2" s="21"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
@@ -4799,7 +4698,7 @@
       <c r="F3" s="22">
         <v>44525</v>
       </c>
-      <c r="G3" s="124" t="s">
+      <c r="G3" s="122" t="s">
         <v>62</v>
       </c>
       <c r="H3" s="39">
@@ -4844,7 +4743,7 @@
       <c r="D4" s="14"/>
       <c r="E4" s="25"/>
       <c r="F4" s="14"/>
-      <c r="G4" s="122"/>
+      <c r="G4" s="120"/>
       <c r="H4" s="39"/>
       <c r="I4" s="24"/>
       <c r="J4" s="24"/>
@@ -4852,11 +4751,11 @@
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
       <c r="N4" s="24"/>
-      <c r="O4" s="123"/>
+      <c r="O4" s="121"/>
       <c r="P4" s="24"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="123" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="37" t="s">
@@ -4877,7 +4776,7 @@
       <c r="G5" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="132">
+      <c r="H5" s="130">
         <v>3</v>
       </c>
       <c r="I5" s="35">
@@ -4931,7 +4830,7 @@
       <c r="P6" s="30"/>
     </row>
     <row r="7" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="123" t="s">
         <v>78</v>
       </c>
       <c r="B7" s="37" t="s">
@@ -5006,10 +4905,10 @@
       <c r="P8" s="30"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="123" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="118" t="s">
         <v>66</v>
       </c>
       <c r="C9" s="31" t="s">
@@ -5027,7 +4926,7 @@
       <c r="G9" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="132">
+      <c r="H9" s="130">
         <v>5.5</v>
       </c>
       <c r="I9" s="35">
@@ -5064,8 +4963,8 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A10" s="128"/>
-      <c r="B10" s="120"/>
+      <c r="A10" s="126"/>
+      <c r="B10" s="118"/>
       <c r="C10" s="31" t="s">
         <v>96</v>
       </c>
@@ -5084,10 +4983,10 @@
       <c r="P10" s="13"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A11" s="125" t="s">
+      <c r="A11" s="123" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="125" t="s">
+      <c r="B11" s="123" t="s">
         <v>93</v>
       </c>
       <c r="C11" s="37" t="s">
@@ -5105,7 +5004,7 @@
       <c r="G11" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="132">
+      <c r="H11" s="130">
         <v>6</v>
       </c>
       <c r="I11" s="35">
@@ -5142,8 +5041,8 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A12" s="128"/>
-      <c r="B12" s="128"/>
+      <c r="A12" s="126"/>
+      <c r="B12" s="126"/>
       <c r="C12" s="31"/>
       <c r="D12" s="14"/>
       <c r="E12" s="25"/>
@@ -5162,7 +5061,7 @@
       <c r="P12" s="13"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A13" s="125" t="s">
+      <c r="A13" s="123" t="s">
         <v>79</v>
       </c>
       <c r="B13" s="37" t="s">
@@ -5220,7 +5119,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A14" s="128"/>
+      <c r="A14" s="126"/>
       <c r="B14" s="31"/>
       <c r="C14" s="31" t="s">
         <v>85</v>
@@ -5231,7 +5130,7 @@
       <c r="E14" s="25">
         <v>44523</v>
       </c>
-      <c r="F14" s="131" t="s">
+      <c r="F14" s="129" t="s">
         <v>90</v>
       </c>
       <c r="G14" s="40"/>
@@ -5246,7 +5145,7 @@
       <c r="P14" s="13"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A15" s="128"/>
+      <c r="A15" s="126"/>
       <c r="B15" s="31"/>
       <c r="C15" s="31" t="s">
         <v>86</v>
@@ -5257,7 +5156,7 @@
       <c r="E15" s="25">
         <v>44523</v>
       </c>
-      <c r="F15" s="131" t="s">
+      <c r="F15" s="129" t="s">
         <v>90</v>
       </c>
       <c r="G15" s="40"/>
@@ -5272,20 +5171,20 @@
       <c r="P15" s="13"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="C16" s="145" t="s">
+      <c r="C16" s="143" t="s">
         <v>84</v>
       </c>
       <c r="D16" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="130">
+      <c r="E16" s="128">
         <v>44523</v>
       </c>
-      <c r="F16" s="129">
+      <c r="F16" s="127">
         <v>44525</v>
       </c>
-      <c r="G16" s="128"/>
-      <c r="H16" s="127"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="125"/>
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
       <c r="K16" s="24"/>
@@ -5296,7 +5195,7 @@
       <c r="P16" s="13"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A17" s="125" t="s">
+      <c r="A17" s="123" t="s">
         <v>79</v>
       </c>
       <c r="B17" s="37" t="s">
@@ -5317,7 +5216,7 @@
       <c r="G17" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="H17" s="132">
+      <c r="H17" s="130">
         <v>2</v>
       </c>
       <c r="I17" s="35">
@@ -5354,7 +5253,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="H18" s="127"/>
+      <c r="H18" s="125"/>
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
       <c r="K18" s="24"/>
@@ -5365,10 +5264,10 @@
       <c r="P18" s="13"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A19" s="125" t="s">
+      <c r="A19" s="123" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="125" t="s">
+      <c r="B19" s="123" t="s">
         <v>100</v>
       </c>
       <c r="C19" s="37" t="s">
@@ -5386,7 +5285,7 @@
       <c r="G19" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="132">
+      <c r="H19" s="130">
         <v>3</v>
       </c>
       <c r="I19" s="35">
@@ -5423,8 +5322,8 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A20" s="128"/>
-      <c r="B20" s="128"/>
+      <c r="A20" s="126"/>
+      <c r="B20" s="126"/>
       <c r="C20" s="31"/>
       <c r="D20" s="14"/>
       <c r="E20" s="25"/>
@@ -5441,7 +5340,7 @@
       <c r="P20" s="13"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A21" s="125" t="s">
+      <c r="A21" s="123" t="s">
         <v>98</v>
       </c>
       <c r="B21" s="37" t="s">
@@ -5462,7 +5361,7 @@
       <c r="G21" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="H21" s="132">
+      <c r="H21" s="130">
         <v>3</v>
       </c>
       <c r="I21" s="35">
@@ -5499,7 +5398,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="H22" s="127"/>
+      <c r="H22" s="125"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
@@ -5629,7 +5528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBC25B3-7FA7-4A4A-BB67-58ADB4195BFF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
@@ -5654,25 +5553,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="178" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="169" t="s">
+      <c r="A1" s="177" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="165" t="s">
+      <c r="C1" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="165" t="s">
+      <c r="D1" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="171" t="s">
+      <c r="E1" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="173" t="s">
+      <c r="F1" s="172" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="165" t="s">
+      <c r="G1" s="164" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="18" t="s">
@@ -5696,40 +5595,40 @@
       <c r="N1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="147" t="s">
+      <c r="O1" s="145" t="s">
         <v>20</v>
       </c>
       <c r="P1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="160" t="s">
+      <c r="Q1" s="158" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A2" s="179"/>
-      <c r="B2" s="180"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="143"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="148"/>
+      <c r="A2" s="178"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="141"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="146"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="119" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="37" t="s">
@@ -5744,10 +5643,10 @@
       <c r="F3" s="33">
         <v>44531</v>
       </c>
-      <c r="G3" s="136" t="s">
+      <c r="G3" s="134" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="137">
+      <c r="H3" s="135">
         <v>2.5</v>
       </c>
       <c r="I3" s="35">
@@ -5782,22 +5681,22 @@
         <f>O3</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="151">
+      <c r="Q3" s="149">
         <f>P3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="26"/>
-      <c r="B4" s="140"/>
-      <c r="C4" s="153"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="151"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="138"/>
+      <c r="E4" s="136"/>
       <c r="F4" s="15"/>
-      <c r="G4" s="152" t="s">
+      <c r="G4" s="150" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="126"/>
+      <c r="H4" s="124"/>
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
@@ -5806,13 +5705,13 @@
       <c r="N4" s="29"/>
       <c r="O4" s="29"/>
       <c r="P4" s="29"/>
-      <c r="Q4" s="150"/>
+      <c r="Q4" s="148"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="119" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="37" t="s">
@@ -5827,10 +5726,10 @@
       <c r="F5" s="33">
         <v>44531</v>
       </c>
-      <c r="G5" s="136" t="s">
+      <c r="G5" s="134" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="137">
+      <c r="H5" s="135">
         <v>2.5</v>
       </c>
       <c r="I5" s="35">
@@ -5865,22 +5764,22 @@
         <f>O5</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="151">
+      <c r="Q5" s="149">
         <f>P5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="26"/>
-      <c r="B6" s="140"/>
-      <c r="C6" s="153"/>
+      <c r="B6" s="138"/>
+      <c r="C6" s="151"/>
       <c r="D6" s="15"/>
-      <c r="E6" s="138"/>
+      <c r="E6" s="136"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="152" t="s">
+      <c r="G6" s="150" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="126"/>
+      <c r="H6" s="124"/>
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
       <c r="K6" s="29"/>
@@ -5889,13 +5788,13 @@
       <c r="N6" s="29"/>
       <c r="O6" s="24"/>
       <c r="P6" s="29"/>
-      <c r="Q6" s="149"/>
+      <c r="Q6" s="147"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="119" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="37" t="s">
@@ -5910,10 +5809,10 @@
       <c r="F7" s="33">
         <v>44531</v>
       </c>
-      <c r="G7" s="136" t="s">
+      <c r="G7" s="134" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="137">
+      <c r="H7" s="135">
         <v>4</v>
       </c>
       <c r="I7" s="35">
@@ -5948,20 +5847,20 @@
         <f>O7</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="151">
+      <c r="Q7" s="149">
         <f>P7</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="26"/>
-      <c r="B8" s="140"/>
-      <c r="C8" s="153"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="151"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="138"/>
+      <c r="E8" s="136"/>
       <c r="F8" s="15"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="126"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="124"/>
       <c r="I8" s="29"/>
       <c r="J8" s="29"/>
       <c r="K8" s="29"/>
@@ -5970,13 +5869,13 @@
       <c r="N8" s="29"/>
       <c r="O8" s="29"/>
       <c r="P8" s="29"/>
-      <c r="Q8" s="150"/>
+      <c r="Q8" s="148"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="119" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="37" t="s">
@@ -5991,10 +5890,10 @@
       <c r="F9" s="33">
         <v>44525</v>
       </c>
-      <c r="G9" s="136" t="s">
+      <c r="G9" s="134" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="137">
+      <c r="H9" s="135">
         <v>5</v>
       </c>
       <c r="I9" s="35">
@@ -6029,14 +5928,14 @@
         <f>O9</f>
         <v>5</v>
       </c>
-      <c r="Q9" s="151">
+      <c r="Q9" s="149">
         <f>P9</f>
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" s="31"/>
-      <c r="B10" s="120"/>
+      <c r="B10" s="118"/>
       <c r="C10" s="31"/>
       <c r="D10" s="14"/>
       <c r="E10" s="25"/>
@@ -6053,19 +5952,19 @@
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
       <c r="P10" s="24"/>
-      <c r="Q10" s="149"/>
+      <c r="Q10" s="147"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" s="26"/>
-      <c r="B11" s="140"/>
-      <c r="C11" s="153"/>
+      <c r="B11" s="138"/>
+      <c r="C11" s="151"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="138"/>
+      <c r="E11" s="136"/>
       <c r="F11" s="15"/>
-      <c r="G11" s="152" t="s">
+      <c r="G11" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="126"/>
+      <c r="H11" s="124"/>
       <c r="I11" s="29"/>
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
@@ -6074,13 +5973,13 @@
       <c r="N11" s="29"/>
       <c r="O11" s="24"/>
       <c r="P11" s="29"/>
-      <c r="Q11" s="149"/>
+      <c r="Q11" s="147"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="125" t="s">
+      <c r="B12" s="123" t="s">
         <v>101</v>
       </c>
       <c r="C12" s="37" t="s">
@@ -6095,10 +5994,10 @@
       <c r="F12" s="33">
         <v>44531</v>
       </c>
-      <c r="G12" s="136" t="s">
+      <c r="G12" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="137">
+      <c r="H12" s="135">
         <v>4</v>
       </c>
       <c r="I12" s="35">
@@ -6133,20 +6032,20 @@
         <f>O12</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="151">
+      <c r="Q12" s="149">
         <f>P12</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" s="26"/>
-      <c r="B13" s="140"/>
-      <c r="C13" s="153"/>
+      <c r="B13" s="138"/>
+      <c r="C13" s="151"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="138"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="126"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="124"/>
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
@@ -6155,13 +6054,13 @@
       <c r="N13" s="29"/>
       <c r="O13" s="29"/>
       <c r="P13" s="29"/>
-      <c r="Q13" s="150"/>
+      <c r="Q13" s="148"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="141" t="s">
+      <c r="B14" s="139" t="s">
         <v>108</v>
       </c>
       <c r="C14" s="31" t="s">
@@ -6173,13 +6072,13 @@
       <c r="E14" s="33">
         <v>44529</v>
       </c>
-      <c r="F14" s="159">
+      <c r="F14" s="157">
         <v>44533</v>
       </c>
       <c r="G14" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="137">
+      <c r="H14" s="135">
         <v>4</v>
       </c>
       <c r="I14" s="35">
@@ -6214,14 +6113,14 @@
         <f>O14-4</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="151">
+      <c r="Q14" s="149">
         <f>P14</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" s="16"/>
-      <c r="B15" s="141"/>
+      <c r="B15" s="139"/>
       <c r="C15" s="31" t="s">
         <v>85</v>
       </c>
@@ -6231,10 +6130,10 @@
       <c r="E15" s="25">
         <v>44523</v>
       </c>
-      <c r="F15" s="159">
+      <c r="F15" s="157">
         <v>44536</v>
       </c>
-      <c r="G15" s="122"/>
+      <c r="G15" s="120"/>
       <c r="H15" s="39"/>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
@@ -6244,11 +6143,11 @@
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
-      <c r="Q15" s="149"/>
+      <c r="Q15" s="147"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" s="16"/>
-      <c r="B16" s="141"/>
+      <c r="B16" s="139"/>
       <c r="C16" s="31" t="s">
         <v>86</v>
       </c>
@@ -6258,10 +6157,10 @@
       <c r="E16" s="25">
         <v>44523</v>
       </c>
-      <c r="F16" s="159">
+      <c r="F16" s="157">
         <v>44536</v>
       </c>
-      <c r="G16" s="122"/>
+      <c r="G16" s="120"/>
       <c r="H16" s="39"/>
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
@@ -6271,12 +6170,12 @@
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
-      <c r="Q16" s="149"/>
+      <c r="Q16" s="147"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" s="16"/>
-      <c r="B17" s="141"/>
-      <c r="C17" s="128" t="s">
+      <c r="B17" s="139"/>
+      <c r="C17" s="126" t="s">
         <v>110</v>
       </c>
       <c r="D17" s="32" t="s">
@@ -6285,10 +6184,10 @@
       <c r="E17" s="25">
         <v>44532</v>
       </c>
-      <c r="F17" s="159">
+      <c r="F17" s="157">
         <v>44536</v>
       </c>
-      <c r="G17" s="122"/>
+      <c r="G17" s="120"/>
       <c r="H17" s="39"/>
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
@@ -6298,13 +6197,13 @@
       <c r="N17" s="24"/>
       <c r="O17" s="24"/>
       <c r="P17" s="24"/>
-      <c r="Q17" s="149"/>
+      <c r="Q17" s="147"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="121" t="s">
+      <c r="B18" s="119" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="37"/>
@@ -6315,8 +6214,8 @@
         <v>44529</v>
       </c>
       <c r="F18" s="33"/>
-      <c r="G18" s="136"/>
-      <c r="H18" s="154">
+      <c r="G18" s="134"/>
+      <c r="H18" s="152">
         <v>2</v>
       </c>
       <c r="I18" s="35">
@@ -6351,20 +6250,20 @@
         <f>O18</f>
         <v>2</v>
       </c>
-      <c r="Q18" s="151">
+      <c r="Q18" s="149">
         <f>P18</f>
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19" s="16"/>
-      <c r="B19" s="141"/>
-      <c r="C19" s="153"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="151"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="138"/>
+      <c r="E19" s="136"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="126"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="124"/>
       <c r="I19" s="29"/>
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
@@ -6373,13 +6272,13 @@
       <c r="N19" s="29"/>
       <c r="O19" s="24"/>
       <c r="P19" s="29"/>
-      <c r="Q19" s="149"/>
+      <c r="Q19" s="147"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="121" t="s">
+      <c r="B20" s="119" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="38"/>
@@ -6391,7 +6290,7 @@
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="40"/>
-      <c r="H20" s="155">
+      <c r="H20" s="153">
         <v>2</v>
       </c>
       <c r="I20" s="12">
@@ -6426,7 +6325,7 @@
         <f>O20</f>
         <v>2</v>
       </c>
-      <c r="Q20" s="151">
+      <c r="Q20" s="149">
         <f>P20</f>
         <v>2</v>
       </c>
@@ -6436,7 +6335,7 @@
       <c r="D21" s="14"/>
       <c r="E21" s="25"/>
       <c r="F21" s="14"/>
-      <c r="G21" s="122"/>
+      <c r="G21" s="120"/>
       <c r="H21" s="39"/>
       <c r="I21" s="24"/>
       <c r="J21" s="24"/>
@@ -6446,13 +6345,13 @@
       <c r="N21" s="24"/>
       <c r="O21" s="24"/>
       <c r="P21" s="24"/>
-      <c r="Q21" s="149"/>
+      <c r="Q21" s="147"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="125" t="s">
+      <c r="B22" s="123" t="s">
         <v>107</v>
       </c>
       <c r="C22" s="37"/>
@@ -6463,8 +6362,8 @@
         <v>44529</v>
       </c>
       <c r="F22" s="33"/>
-      <c r="G22" s="136"/>
-      <c r="H22" s="154">
+      <c r="G22" s="134"/>
+      <c r="H22" s="152">
         <v>2</v>
       </c>
       <c r="I22" s="35">
@@ -6499,7 +6398,7 @@
         <f>O22</f>
         <v>2</v>
       </c>
-      <c r="Q22" s="151">
+      <c r="Q22" s="149">
         <f>P22</f>
         <v>2</v>
       </c>
@@ -6509,7 +6408,7 @@
       <c r="D23" s="14"/>
       <c r="E23" s="25"/>
       <c r="F23" s="14"/>
-      <c r="G23" s="122"/>
+      <c r="G23" s="120"/>
       <c r="H23" s="39"/>
       <c r="I23" s="24"/>
       <c r="J23" s="24"/>
@@ -6519,7 +6418,7 @@
       <c r="N23" s="24"/>
       <c r="O23" s="24"/>
       <c r="P23" s="24"/>
-      <c r="Q23" s="149"/>
+      <c r="Q23" s="147"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="C24" s="38"/>
@@ -6713,25 +6612,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="167" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="169" t="s">
+      <c r="A1" s="166" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="165" t="s">
+      <c r="C1" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="165" t="s">
+      <c r="D1" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="171" t="s">
+      <c r="E1" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="173" t="s">
+      <c r="F1" s="172" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="165" t="s">
+      <c r="G1" s="164" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="18" t="s">
@@ -6760,20 +6659,20 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="168"/>
-      <c r="B2" s="175"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
+      <c r="A2" s="167"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
       <c r="H2" s="20"/>
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
       <c r="M2" s="21"/>
-      <c r="N2" s="133"/>
+      <c r="N2" s="131"/>
       <c r="O2" s="21"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
@@ -6787,7 +6686,7 @@
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
-      <c r="G3" s="124"/>
+      <c r="G3" s="122"/>
       <c r="H3" s="39">
         <v>0</v>
       </c>
@@ -6827,14 +6726,14 @@
       <c r="D4" s="14"/>
       <c r="E4" s="25"/>
       <c r="F4" s="14"/>
-      <c r="G4" s="122"/>
+      <c r="G4" s="120"/>
       <c r="H4" s="39"/>
       <c r="I4" s="24"/>
       <c r="J4" s="24"/>
       <c r="K4" s="24"/>
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
-      <c r="N4" s="123"/>
+      <c r="N4" s="121"/>
       <c r="O4" s="24"/>
     </row>
   </sheetData>
@@ -6881,8 +6780,8 @@
   </sheetPr>
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7225,7 +7124,7 @@
         <f t="shared" ref="G12:N12" si="1">SUM(G5:G11)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="99">
+      <c r="H12" s="98">
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
@@ -7354,10 +7253,10 @@
       <c r="N16" s="88"/>
       <c r="O16" s="79"/>
       <c r="P16" s="51"/>
-      <c r="Q16" s="111"/>
-      <c r="R16" s="110"/>
-      <c r="S16" s="110"/>
-      <c r="T16" s="110"/>
+      <c r="Q16" s="109"/>
+      <c r="R16" s="108"/>
+      <c r="S16" s="108"/>
+      <c r="T16" s="108"/>
     </row>
     <row r="17" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E17" s="51"/>
@@ -7390,10 +7289,10 @@
       </c>
       <c r="O17" s="80"/>
       <c r="P17" s="51"/>
-      <c r="Q17" s="111"/>
-      <c r="R17" s="110"/>
-      <c r="S17" s="110"/>
-      <c r="T17" s="110"/>
+      <c r="Q17" s="109"/>
+      <c r="R17" s="108"/>
+      <c r="S17" s="108"/>
+      <c r="T17" s="108"/>
     </row>
     <row r="18" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E18" s="51"/>
@@ -7421,77 +7320,77 @@
       <c r="M18" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="N18" s="91" t="s">
+      <c r="N18" s="181" t="s">
         <v>14</v>
       </c>
       <c r="O18" s="81" t="s">
         <v>56</v>
       </c>
       <c r="P18" s="51"/>
-      <c r="Q18" s="112"/>
-      <c r="R18" s="110"/>
-      <c r="S18" s="110"/>
-      <c r="T18" s="110"/>
+      <c r="Q18" s="110"/>
+      <c r="R18" s="108"/>
+      <c r="S18" s="108"/>
+      <c r="T18" s="108"/>
     </row>
     <row r="19" spans="5:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E19" s="51"/>
       <c r="F19" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="94" t="s">
+      <c r="G19" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95" t="s">
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="K19" s="95"/>
-      <c r="L19" s="96"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="95"/>
       <c r="M19" s="75"/>
-      <c r="N19" s="104"/>
+      <c r="N19" s="182"/>
       <c r="O19" s="65"/>
       <c r="P19" s="51"/>
-      <c r="Q19" s="112"/>
-      <c r="R19" s="110"/>
-      <c r="S19" s="110"/>
-      <c r="T19" s="110"/>
+      <c r="Q19" s="110"/>
+      <c r="R19" s="108"/>
+      <c r="S19" s="108"/>
+      <c r="T19" s="108"/>
     </row>
     <row r="20" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E20" s="51"/>
       <c r="F20" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="97">
+      <c r="G20" s="96">
         <v>1.5</v>
       </c>
-      <c r="H20" s="98"/>
-      <c r="I20" s="99">
+      <c r="H20" s="97"/>
+      <c r="I20" s="98">
         <v>5</v>
       </c>
-      <c r="J20" s="98">
+      <c r="J20" s="97">
         <v>0.83</v>
       </c>
-      <c r="K20" s="99"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="98"/>
-      <c r="N20" s="100"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="97"/>
+      <c r="M20" s="97"/>
+      <c r="N20" s="99"/>
       <c r="O20" s="56">
         <f t="shared" ref="O20:O26" si="4">SUM(G20:N20)</f>
         <v>7.33</v>
       </c>
       <c r="P20" s="51"/>
-      <c r="Q20" s="112"/>
-      <c r="R20" s="110"/>
-      <c r="S20" s="110"/>
-      <c r="T20" s="110"/>
+      <c r="Q20" s="110"/>
+      <c r="R20" s="108"/>
+      <c r="S20" s="108"/>
+      <c r="T20" s="108"/>
     </row>
     <row r="21" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E21" s="51"/>
       <c r="F21" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="101">
+      <c r="G21" s="100">
         <v>1.5</v>
       </c>
       <c r="H21" s="68"/>
@@ -7502,23 +7401,23 @@
       <c r="K21" s="69"/>
       <c r="L21" s="68"/>
       <c r="M21" s="68"/>
-      <c r="N21" s="102"/>
+      <c r="N21" s="101"/>
       <c r="O21" s="56">
         <f t="shared" si="4"/>
         <v>2.33</v>
       </c>
       <c r="P21" s="51"/>
-      <c r="Q21" s="109"/>
-      <c r="R21" s="110"/>
-      <c r="S21" s="110"/>
-      <c r="T21" s="110"/>
+      <c r="Q21" s="107"/>
+      <c r="R21" s="108"/>
+      <c r="S21" s="108"/>
+      <c r="T21" s="108"/>
     </row>
     <row r="22" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E22" s="51"/>
       <c r="F22" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="101">
+      <c r="G22" s="100">
         <v>1.5</v>
       </c>
       <c r="H22" s="68"/>
@@ -7531,7 +7430,7 @@
       </c>
       <c r="L22" s="68"/>
       <c r="M22" s="68"/>
-      <c r="N22" s="102">
+      <c r="N22" s="101">
         <v>3.6</v>
       </c>
       <c r="O22" s="56">
@@ -7539,17 +7438,17 @@
         <v>8.93</v>
       </c>
       <c r="P22" s="51"/>
-      <c r="Q22" s="109"/>
-      <c r="R22" s="110"/>
-      <c r="S22" s="110"/>
-      <c r="T22" s="110"/>
+      <c r="Q22" s="107"/>
+      <c r="R22" s="108"/>
+      <c r="S22" s="108"/>
+      <c r="T22" s="108"/>
     </row>
     <row r="23" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E23" s="51"/>
       <c r="F23" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="101">
+      <c r="G23" s="100">
         <v>1.5</v>
       </c>
       <c r="H23" s="68"/>
@@ -7562,23 +7461,23 @@
       <c r="K23" s="69"/>
       <c r="L23" s="69"/>
       <c r="M23" s="69"/>
-      <c r="N23" s="102"/>
+      <c r="N23" s="101"/>
       <c r="O23" s="56">
         <f t="shared" si="4"/>
         <v>7.33</v>
       </c>
       <c r="P23" s="51"/>
-      <c r="Q23" s="109"/>
-      <c r="R23" s="110"/>
-      <c r="S23" s="110"/>
-      <c r="T23" s="110"/>
+      <c r="Q23" s="107"/>
+      <c r="R23" s="108"/>
+      <c r="S23" s="108"/>
+      <c r="T23" s="108"/>
     </row>
     <row r="24" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E24" s="51"/>
       <c r="F24" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="101">
+      <c r="G24" s="100">
         <v>1.5</v>
       </c>
       <c r="H24" s="68"/>
@@ -7591,23 +7490,23 @@
       <c r="K24" s="69"/>
       <c r="L24" s="68"/>
       <c r="M24" s="68"/>
-      <c r="N24" s="102"/>
+      <c r="N24" s="101"/>
       <c r="O24" s="56">
         <f t="shared" si="4"/>
         <v>7.33</v>
       </c>
       <c r="P24" s="51"/>
-      <c r="Q24" s="109"/>
-      <c r="R24" s="110"/>
-      <c r="S24" s="110"/>
-      <c r="T24" s="110"/>
+      <c r="Q24" s="107"/>
+      <c r="R24" s="108"/>
+      <c r="S24" s="108"/>
+      <c r="T24" s="108"/>
     </row>
     <row r="25" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E25" s="51"/>
       <c r="F25" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="G25" s="101">
+      <c r="G25" s="100">
         <v>1.5</v>
       </c>
       <c r="H25" s="68"/>
@@ -7618,23 +7517,23 @@
       <c r="K25" s="69"/>
       <c r="L25" s="68"/>
       <c r="M25" s="68"/>
-      <c r="N25" s="102"/>
+      <c r="N25" s="101"/>
       <c r="O25" s="56">
         <f t="shared" si="4"/>
         <v>2.33</v>
       </c>
       <c r="P25" s="51"/>
-      <c r="Q25" s="109"/>
-      <c r="R25" s="110"/>
-      <c r="S25" s="110"/>
-      <c r="T25" s="110"/>
+      <c r="Q25" s="107"/>
+      <c r="R25" s="108"/>
+      <c r="S25" s="108"/>
+      <c r="T25" s="108"/>
     </row>
     <row r="26" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E26" s="51"/>
       <c r="F26" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="101">
+      <c r="G26" s="100">
         <v>1.5</v>
       </c>
       <c r="H26" s="68"/>
@@ -7647,46 +7546,46 @@
       <c r="K26" s="69"/>
       <c r="L26" s="68"/>
       <c r="M26" s="68"/>
-      <c r="N26" s="103"/>
+      <c r="N26" s="102"/>
       <c r="O26" s="73">
         <f t="shared" si="4"/>
         <v>6.33</v>
       </c>
       <c r="P26" s="51"/>
-      <c r="Q26" s="109"/>
-      <c r="R26" s="110"/>
-      <c r="S26" s="110"/>
-      <c r="T26" s="110"/>
+      <c r="Q26" s="107"/>
+      <c r="R26" s="108"/>
+      <c r="S26" s="108"/>
+      <c r="T26" s="108"/>
     </row>
     <row r="27" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F27" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="G27" s="93">
+      <c r="G27" s="92">
         <f t="shared" ref="G27:O27" si="5">SUM(G20:G26)</f>
         <v>10.5</v>
       </c>
-      <c r="H27" s="99">
+      <c r="H27" s="98">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I27" s="99">
+      <c r="I27" s="98">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="J27" s="99">
+      <c r="J27" s="98">
         <f t="shared" si="5"/>
         <v>7.8100000000000005</v>
       </c>
-      <c r="K27" s="99">
+      <c r="K27" s="98">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="L27" s="99">
+      <c r="L27" s="98">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M27" s="99">
+      <c r="M27" s="98">
         <f>SUM(M20:M26)</f>
         <v>0</v>
       </c>
@@ -7698,10 +7597,10 @@
         <f t="shared" si="5"/>
         <v>41.91</v>
       </c>
-      <c r="Q27" s="109"/>
-      <c r="R27" s="110"/>
-      <c r="S27" s="110"/>
-      <c r="T27" s="110"/>
+      <c r="Q27" s="107"/>
+      <c r="R27" s="108"/>
+      <c r="S27" s="108"/>
+      <c r="T27" s="108"/>
     </row>
     <row r="28" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F28" s="45" t="s">
@@ -7740,10 +7639,10 @@
         <v>41.910000000000004</v>
       </c>
       <c r="O28" s="64"/>
-      <c r="Q28" s="109"/>
-      <c r="R28" s="110"/>
-      <c r="S28" s="110"/>
-      <c r="T28" s="110"/>
+      <c r="Q28" s="107"/>
+      <c r="R28" s="108"/>
+      <c r="S28" s="108"/>
+      <c r="T28" s="108"/>
     </row>
     <row r="29" spans="5:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F29" s="43" t="s">
@@ -7782,16 +7681,16 @@
         <v>8.9999999999996305E-2</v>
       </c>
       <c r="O29" s="63"/>
-      <c r="Q29" s="109"/>
-      <c r="R29" s="110"/>
-      <c r="S29" s="110"/>
-      <c r="T29" s="110"/>
+      <c r="Q29" s="107"/>
+      <c r="R29" s="108"/>
+      <c r="S29" s="108"/>
+      <c r="T29" s="108"/>
     </row>
     <row r="30" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="Q30" s="109"/>
-      <c r="R30" s="110"/>
-      <c r="S30" s="110"/>
-      <c r="T30" s="110"/>
+      <c r="Q30" s="107"/>
+      <c r="R30" s="108"/>
+      <c r="S30" s="108"/>
+      <c r="T30" s="108"/>
     </row>
     <row r="31" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F31" s="78" t="s">
@@ -7804,10 +7703,10 @@
       <c r="K31" s="79"/>
       <c r="L31" s="79"/>
       <c r="M31" s="79"/>
-      <c r="Q31" s="109"/>
-      <c r="R31" s="110"/>
-      <c r="S31" s="110"/>
-      <c r="T31" s="110"/>
+      <c r="Q31" s="107"/>
+      <c r="R31" s="108"/>
+      <c r="S31" s="108"/>
+      <c r="T31" s="108"/>
     </row>
     <row r="32" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F32" s="45" t="s">
@@ -7832,10 +7731,10 @@
         <v>44542</v>
       </c>
       <c r="M32" s="53"/>
-      <c r="Q32" s="109"/>
-      <c r="R32" s="110"/>
-      <c r="S32" s="110"/>
-      <c r="T32" s="110"/>
+      <c r="Q32" s="107"/>
+      <c r="R32" s="108"/>
+      <c r="S32" s="108"/>
+      <c r="T32" s="108"/>
     </row>
     <row r="33" spans="6:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F33" s="47" t="s">
@@ -7862,16 +7761,16 @@
       <c r="M33" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="Q33" s="109"/>
-      <c r="R33" s="110"/>
-      <c r="S33" s="110"/>
-      <c r="T33" s="110"/>
+      <c r="Q33" s="107"/>
+      <c r="R33" s="108"/>
+      <c r="S33" s="108"/>
+      <c r="T33" s="108"/>
     </row>
     <row r="34" spans="6:20" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F34" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="G34" s="92" t="s">
+      <c r="G34" s="91" t="s">
         <v>59</v>
       </c>
       <c r="H34" s="74"/>
@@ -7880,35 +7779,35 @@
       <c r="K34" s="75"/>
       <c r="L34" s="75"/>
       <c r="M34" s="89"/>
-      <c r="Q34" s="112"/>
-      <c r="R34" s="110"/>
-      <c r="S34" s="110"/>
-      <c r="T34" s="110"/>
+      <c r="Q34" s="110"/>
+      <c r="R34" s="108"/>
+      <c r="S34" s="108"/>
+      <c r="T34" s="108"/>
     </row>
     <row r="35" spans="6:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F35" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="G35" s="105"/>
-      <c r="H35" s="99"/>
-      <c r="I35" s="98"/>
-      <c r="J35" s="99"/>
-      <c r="K35" s="98"/>
-      <c r="L35" s="106"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="98"/>
+      <c r="I35" s="97"/>
+      <c r="J35" s="98"/>
+      <c r="K35" s="97"/>
+      <c r="L35" s="104"/>
       <c r="M35" s="56">
         <f t="shared" ref="M35:M41" si="12">SUM(G35:L35)</f>
         <v>0</v>
       </c>
-      <c r="Q35" s="109"/>
-      <c r="R35" s="110"/>
-      <c r="S35" s="110"/>
-      <c r="T35" s="110"/>
+      <c r="Q35" s="107"/>
+      <c r="R35" s="108"/>
+      <c r="S35" s="108"/>
+      <c r="T35" s="108"/>
     </row>
     <row r="36" spans="6:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F36" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="G36" s="107"/>
+      <c r="G36" s="105"/>
       <c r="H36" s="68"/>
       <c r="I36" s="68"/>
       <c r="J36" s="69"/>
@@ -7923,7 +7822,7 @@
       <c r="F37" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="G37" s="107"/>
+      <c r="G37" s="105"/>
       <c r="H37" s="68"/>
       <c r="I37" s="68"/>
       <c r="J37" s="69"/>
@@ -7938,7 +7837,7 @@
       <c r="F38" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="107"/>
+      <c r="G38" s="105"/>
       <c r="H38" s="68"/>
       <c r="I38" s="68"/>
       <c r="J38" s="69"/>
@@ -7953,7 +7852,7 @@
       <c r="F39" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="G39" s="107"/>
+      <c r="G39" s="105"/>
       <c r="H39" s="68"/>
       <c r="I39" s="68"/>
       <c r="J39" s="69"/>
@@ -7968,7 +7867,7 @@
       <c r="F40" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="G40" s="107"/>
+      <c r="G40" s="105"/>
       <c r="H40" s="68"/>
       <c r="I40" s="68"/>
       <c r="J40" s="69"/>
@@ -7983,7 +7882,7 @@
       <c r="F41" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="G41" s="108"/>
+      <c r="G41" s="106"/>
       <c r="H41" s="71"/>
       <c r="I41" s="71"/>
       <c r="J41" s="72"/>

--- a/dokumentation/backlog/product_backlog.xlsx
+++ b/dokumentation/backlog/product_backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jou\Desktop\Ohtu\lukuvinkkikirjasto\dokumentation\backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6CDA70-68BA-4BE2-8968-0F375DEEF453}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AD04C7-39B8-409D-9346-27CC9F4FF648}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="5" xr2:uid="{FA14CCED-6E8A-4DE5-8793-904A69EC664A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{FA14CCED-6E8A-4DE5-8793-904A69EC664A}"/>
   </bookViews>
   <sheets>
     <sheet name="Product backlog" sheetId="1" r:id="rId1"/>
@@ -1346,9 +1346,6 @@
     <t>Kehitysymäristö</t>
   </si>
   <si>
-    <t>testikattavuus väh. 70 %</t>
-  </si>
-  <si>
     <t>koodin laatu on varmistettu (katselmointi)</t>
   </si>
   <si>
@@ -1479,6 +1476,9 @@
   </si>
   <si>
     <t>CI-putken laajentaminen Herokuun</t>
+  </si>
+  <si>
+    <t>testikattavuus väh. 60 %</t>
   </si>
 </sst>
 </file>
@@ -2405,6 +2405,8 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2438,8 +2440,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3599,10 +3599,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3902,8 +3898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473B676C-11FA-4BDC-AFE5-A5ADDA242B11}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3916,19 +3912,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="162" t="s">
+      <c r="A1" s="162" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="162" t="s">
+      <c r="C1" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="162" t="s">
+      <c r="D1" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="163" t="s">
+      <c r="E1" s="165" t="s">
         <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -3940,14 +3936,14 @@
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="161"/>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
       <c r="G2" s="5"/>
       <c r="H2" s="6" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="I2" s="7"/>
     </row>
@@ -3965,11 +3961,11 @@
         <v>1</v>
       </c>
       <c r="E3" s="112" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I3" s="7"/>
     </row>
@@ -3987,7 +3983,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="112" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="9" t="s">
@@ -4000,7 +3996,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="155" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>4</v>
@@ -4009,7 +4005,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="112" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
@@ -4026,7 +4022,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="113" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
@@ -4043,7 +4039,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="112" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
@@ -4060,7 +4056,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="112" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -4071,13 +4067,13 @@
         <v>30</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="14">
         <v>2</v>
       </c>
       <c r="E9" s="112" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
@@ -4088,7 +4084,7 @@
         <v>33</v>
       </c>
       <c r="C10" s="111" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="111">
         <v>2</v>
@@ -4103,7 +4099,7 @@
         <v>34</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="15">
         <v>2</v>
@@ -4146,7 +4142,7 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="14"/>
       <c r="B15" s="126" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>40</v>
@@ -4295,25 +4291,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A1" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="168" t="s">
+      <c r="A1" s="168" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="164" t="s">
+      <c r="C1" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="164" t="s">
+      <c r="D1" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="170" t="s">
+      <c r="E1" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="172" t="s">
+      <c r="F1" s="174" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="164" t="s">
+      <c r="G1" s="166" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="18" t="s">
@@ -4345,13 +4341,13 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A2" s="167"/>
-      <c r="B2" s="169"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
+      <c r="A2" s="169"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
       <c r="H2" s="140">
         <v>0</v>
       </c>
@@ -4612,25 +4608,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A1" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="168" t="s">
+      <c r="A1" s="168" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="164" t="s">
+      <c r="C1" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="164" t="s">
+      <c r="D1" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="170" t="s">
+      <c r="E1" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="172" t="s">
+      <c r="F1" s="174" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="164" t="s">
+      <c r="G1" s="166" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="18" t="s">
@@ -4658,17 +4654,17 @@
         <v>20</v>
       </c>
       <c r="P1" s="144" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="167"/>
-      <c r="B2" s="174"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
+      <c r="A2" s="169"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
       <c r="H2" s="20"/>
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
@@ -4681,13 +4677,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -4756,13 +4752,13 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" s="123" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" s="32" t="s">
         <v>4</v>
@@ -4831,13 +4827,13 @@
     </row>
     <row r="7" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="123" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" s="37" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>4</v>
@@ -4906,13 +4902,13 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" s="123" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="118" t="s">
         <v>66</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>4</v>
@@ -4966,7 +4962,7 @@
       <c r="A10" s="126"/>
       <c r="B10" s="118"/>
       <c r="C10" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="22"/>
@@ -4984,13 +4980,13 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" s="123" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="123" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="37" t="s">
         <v>93</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>94</v>
       </c>
       <c r="D11" s="32" t="s">
         <v>4</v>
@@ -5062,13 +5058,13 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" s="123" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>4</v>
@@ -5122,16 +5118,16 @@
       <c r="A14" s="126"/>
       <c r="B14" s="31"/>
       <c r="C14" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" s="25">
         <v>44523</v>
       </c>
       <c r="F14" s="129" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G14" s="40"/>
       <c r="H14" s="39"/>
@@ -5148,16 +5144,16 @@
       <c r="A15" s="126"/>
       <c r="B15" s="31"/>
       <c r="C15" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E15" s="25">
         <v>44523</v>
       </c>
       <c r="F15" s="129" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G15" s="40"/>
       <c r="H15" s="39"/>
@@ -5172,7 +5168,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="C16" s="143" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D16" s="32" t="s">
         <v>4</v>
@@ -5196,13 +5192,13 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" s="123" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" s="32" t="s">
         <v>4</v>
@@ -5265,13 +5261,13 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" s="123" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B19" s="123" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D19" s="32" t="s">
         <v>4</v>
@@ -5341,13 +5337,13 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21" s="123" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B21" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="37" t="s">
         <v>81</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>82</v>
       </c>
       <c r="D21" s="32" t="s">
         <v>4</v>
@@ -5359,7 +5355,7 @@
         <v>44523</v>
       </c>
       <c r="G21" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H21" s="130">
         <v>3</v>
@@ -5553,25 +5549,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="177" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="168" t="s">
+      <c r="A1" s="179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="164" t="s">
+      <c r="C1" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="164" t="s">
+      <c r="D1" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="170" t="s">
+      <c r="E1" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="172" t="s">
+      <c r="F1" s="174" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="164" t="s">
+      <c r="G1" s="166" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="18" t="s">
@@ -5602,17 +5598,17 @@
         <v>14</v>
       </c>
       <c r="Q1" s="158" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A2" s="178"/>
-      <c r="B2" s="179"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
+      <c r="A2" s="180"/>
+      <c r="B2" s="181"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
       <c r="H2" s="132"/>
       <c r="I2" s="133"/>
       <c r="J2" s="133"/>
@@ -5626,13 +5622,13 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="119" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D3" s="32" t="s">
         <v>4</v>
@@ -5709,13 +5705,13 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="119" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="32" t="s">
         <v>4</v>
@@ -5792,13 +5788,13 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" s="119" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>4</v>
@@ -5873,16 +5869,16 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="119" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="33">
         <v>44529</v>
@@ -5977,13 +5973,13 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="123" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D12" s="32" t="s">
         <v>4</v>
@@ -6058,13 +6054,13 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="139" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="31" t="s">
         <v>108</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>109</v>
       </c>
       <c r="D14" s="32" t="s">
         <v>4</v>
@@ -6122,7 +6118,7 @@
       <c r="A15" s="16"/>
       <c r="B15" s="139"/>
       <c r="C15" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15" s="32" t="s">
         <v>4</v>
@@ -6149,7 +6145,7 @@
       <c r="A16" s="16"/>
       <c r="B16" s="139"/>
       <c r="C16" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" s="32" t="s">
         <v>4</v>
@@ -6176,7 +6172,7 @@
       <c r="A17" s="16"/>
       <c r="B17" s="139"/>
       <c r="C17" s="126" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D17" s="32" t="s">
         <v>4</v>
@@ -6201,14 +6197,14 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" s="119" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="37"/>
       <c r="D18" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" s="33">
         <v>44529</v>
@@ -6276,14 +6272,14 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20" s="119" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E20" s="33">
         <v>44529</v>
@@ -6349,14 +6345,14 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B22" s="123" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C22" s="37"/>
       <c r="D22" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E22" s="33">
         <v>44529</v>
@@ -6612,25 +6608,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="168" t="s">
+      <c r="A1" s="168" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="164" t="s">
+      <c r="C1" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="164" t="s">
+      <c r="D1" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="170" t="s">
+      <c r="E1" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="172" t="s">
+      <c r="F1" s="174" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="164" t="s">
+      <c r="G1" s="166" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="18" t="s">
@@ -6655,17 +6651,17 @@
         <v>20</v>
       </c>
       <c r="O1" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="167"/>
-      <c r="B2" s="174"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
+      <c r="A2" s="169"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
       <c r="H2" s="20"/>
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
@@ -6677,7 +6673,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -6780,7 +6776,7 @@
   </sheetPr>
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
@@ -7241,7 +7237,7 @@
     <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E16" s="51"/>
       <c r="F16" s="78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G16" s="88"/>
       <c r="H16" s="88"/>
@@ -7320,7 +7316,7 @@
       <c r="M18" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="N18" s="181" t="s">
+      <c r="N18" s="160" t="s">
         <v>14</v>
       </c>
       <c r="O18" s="81" t="s">
@@ -7348,7 +7344,7 @@
       <c r="K19" s="94"/>
       <c r="L19" s="95"/>
       <c r="M19" s="75"/>
-      <c r="N19" s="182"/>
+      <c r="N19" s="161"/>
       <c r="O19" s="65"/>
       <c r="P19" s="51"/>
       <c r="Q19" s="110"/>
@@ -7694,7 +7690,7 @@
     </row>
     <row r="31" spans="5:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F31" s="78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G31" s="79"/>
       <c r="H31" s="79"/>
